--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="17660"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="CardProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
   <si>
     <t>#</t>
   </si>
@@ -133,25 +133,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>亡军末将</t>
+    <t>[亡军末将]</t>
   </si>
   <si>
     <t>冲锋，一回合可以攻击两次</t>
   </si>
   <si>
-    <t>算法</t>
+    <t>[算法]</t>
   </si>
   <si>
     <t>你的对手无法使用手牌</t>
   </si>
   <si>
-    <t>谎言践行</t>
+    <t>[谎言践行]</t>
   </si>
   <si>
     <t>你的法术不消耗资源</t>
   </si>
   <si>
-    <t>海底火山</t>
+    <t>[海底火山]</t>
   </si>
   <si>
     <t>免疫，你的英雄获得免疫</t>
@@ -181,7 +181,7 @@
     <t>“暗狮”罗伯特</t>
   </si>
   <si>
-    <t>回合结束时，破坏双方牌库顶1张牌</t>
+    <t>你的回合结束时，破坏双方牌库顶1张牌</t>
   </si>
   <si>
     <t>“死神”波恩</t>
@@ -208,19 +208,26 @@
     <t>你的干员获得+3生命</t>
   </si>
   <si>
-    <t>“面包屑“</t>
-  </si>
-  <si>
-    <t>你的英雄死亡后会立刻复活，你的牌库变为16张卡，牌库耗尽时输掉这场战斗</t>
+    <t>克洛夫教授</t>
+  </si>
+  <si>
+    <t>你每打出一张牌,使牌库随机一张单位牌费用消耗减少1</t>
   </si>
   <si>
     <t>哑巴龙</t>
   </si>
   <si>
-    <t>克洛夫教授</t>
-  </si>
-  <si>
-    <t>你每打出一张牌,使牌库随机一张单位牌费用消耗减少1</t>
+    <t>你的法术不会产生任何效果
+回合结束时，随机对一个敌方角色造成1点伤害</t>
+  </si>
+  <si>
+    <t>天蝎座 “国王“</t>
+  </si>
+  <si>
+    <t>访客</t>
+  </si>
+  <si>
+    <t>游戏开始时，将5张特殊的奇迹法术洗入你的牌库</t>
   </si>
   <si>
     <t>测试干员</t>
@@ -239,6 +246,18 @@
   </si>
   <si>
     <t>回合开始时，向敌方牌库置入一张摇摆粉丝</t>
+  </si>
+  <si>
+    <t>游戏开始时，获得1点红色资质</t>
+  </si>
+  <si>
+    <t>每当你打出一张费用大于5的牌，传讯[海底火山]</t>
+  </si>
+  <si>
+    <t>天蝎座 “面包屑“</t>
+  </si>
+  <si>
+    <t>阵亡：复活</t>
   </si>
   <si>
     <t>传奇单位</t>
@@ -378,6 +397,12 @@
     <t>摇摆粉丝</t>
   </si>
   <si>
+    <t>尖刚傀儡</t>
+  </si>
+  <si>
+    <t>不能攻击英雄和干员</t>
+  </si>
+  <si>
     <t>测试战术</t>
   </si>
   <si>
@@ -534,7 +559,7 @@
     <t>跨越时代的黄金船</t>
   </si>
   <si>
-    <t>随机释放12个法术</t>
+    <t>释放双方本局对战中释放过的所有法术</t>
   </si>
   <si>
     <t>赴死者未说再见</t>
@@ -673,6 +698,21 @@
   </si>
   <si>
     <t>选择一个单位，随机丢弃一张单位牌，使该单位获得对应单位的属性</t>
+  </si>
+  <si>
+    <t>阿波罗计划</t>
+  </si>
+  <si>
+    <t>第三次工业革命</t>
+  </si>
+  <si>
+    <t>美苏冷战</t>
+  </si>
+  <si>
+    <t>人类基因组计划</t>
+  </si>
+  <si>
+    <t>庞加莱猜想</t>
   </si>
 </sst>
 </file>
@@ -1684,12 +1724,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG105"/>
+  <dimension ref="C2:AG124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2296,7 +2336,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2339,7 +2379,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2382,7 +2422,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -2425,7 +2465,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -2449,7 +2489,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="39" spans="3:33">
+    <row r="18" s="1" customFormat="1" spans="3:33">
       <c r="C18" s="7">
         <v>10009</v>
       </c>
@@ -2458,18 +2498,6 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2501,9 +2529,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="7"/>
@@ -2543,10 +2569,10 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
@@ -2576,34 +2602,28 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:33">
+    <row r="21" s="1" customFormat="1" ht="39" spans="3:33">
       <c r="C21" s="7">
-        <v>200001</v>
+        <v>10012</v>
       </c>
       <c r="D21" s="7">
-        <v>10</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="7">
         <v>1</v>
       </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7">
-        <v>10</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -2625,51 +2645,33 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="22" s="1" customFormat="1" spans="3:33">
       <c r="C22" s="7">
-        <v>200002</v>
+        <v>10013</v>
       </c>
       <c r="D22" s="7">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>12</v>
-      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
-        <v>3</v>
-      </c>
+      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8">
-        <v>1001</v>
-      </c>
-      <c r="T22" s="8">
-        <v>7</v>
-      </c>
-      <c r="U22" s="7">
-        <v>3</v>
-      </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="8"/>
@@ -2684,27 +2686,23 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C23" s="7">
-        <v>200003</v>
+        <v>10014</v>
       </c>
       <c r="D23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>12</v>
-      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7">
         <v>3</v>
       </c>
@@ -2731,10 +2729,10 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="3:33">
       <c r="C24" s="7">
-        <v>200004</v>
+        <v>10015</v>
       </c>
       <c r="D24" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2768,10 +2766,10 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="3:33">
       <c r="C25" s="7">
-        <v>200005</v>
+        <v>10016</v>
       </c>
       <c r="D25" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2805,10 +2803,10 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="3:33">
       <c r="C26" s="7">
-        <v>200006</v>
+        <v>10017</v>
       </c>
       <c r="D26" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2842,10 +2840,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="3:33">
       <c r="C27" s="7">
-        <v>200007</v>
+        <v>10018</v>
       </c>
       <c r="D27" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2879,10 +2877,10 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="3:33">
       <c r="C28" s="7">
-        <v>200008</v>
+        <v>10019</v>
       </c>
       <c r="D28" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2916,10 +2914,10 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="3:33">
       <c r="C29" s="7">
-        <v>200009</v>
+        <v>10020</v>
       </c>
       <c r="D29" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2953,10 +2951,10 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="3:33">
       <c r="C30" s="7">
-        <v>200010</v>
+        <v>10021</v>
       </c>
       <c r="D30" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2990,20 +2988,32 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="3:33">
       <c r="C31" s="7">
-        <v>200011</v>
+        <v>200001</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3025,31 +3035,51 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="3:33">
+    <row r="32" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C32" s="7">
-        <v>200012</v>
+        <v>200002</v>
       </c>
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>12</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="7">
+        <v>3</v>
+      </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="S32" s="8">
+        <v>1001</v>
+      </c>
+      <c r="T32" s="8">
+        <v>7</v>
+      </c>
+      <c r="U32" s="7">
+        <v>3</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="8"/>
@@ -3062,22 +3092,32 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="3:33">
+    <row r="33" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C33" s="7">
-        <v>200013</v>
+        <v>200003</v>
       </c>
       <c r="D33" s="7">
         <v>10</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>12</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -3101,40 +3141,34 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="3:33">
       <c r="C34" s="7">
-        <v>300001</v>
+        <v>200004</v>
       </c>
       <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="7">
-        <v>5</v>
-      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L34" s="7">
-        <v>8</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="8">
-        <v>103</v>
-      </c>
+      <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -3150,45 +3184,31 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="3:33">
+    <row r="35" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C35" s="7">
-        <v>300002</v>
+        <v>200005</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="7">
-        <v>12</v>
-      </c>
-      <c r="K35" s="7">
-        <v>16</v>
-      </c>
-      <c r="L35" s="7">
-        <v>16</v>
-      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7">
-        <v>12</v>
-      </c>
-      <c r="S35" s="8">
-        <v>1002</v>
-      </c>
-      <c r="T35" s="8">
-        <v>1</v>
-      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
@@ -3205,43 +3225,33 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="3:33">
       <c r="C36" s="7">
-        <v>300003</v>
+        <v>200006</v>
       </c>
       <c r="D36" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="7">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7">
-        <v>16</v>
-      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7">
-        <v>12</v>
-      </c>
-      <c r="S36" s="8">
-        <v>1003</v>
-      </c>
-      <c r="T36" s="8">
-        <v>3</v>
-      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -3258,43 +3268,27 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="3:33">
       <c r="C37" s="7">
-        <v>300004</v>
+        <v>200007</v>
       </c>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="7">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7">
-        <v>16</v>
-      </c>
-      <c r="L37" s="7">
-        <v>16</v>
-      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7">
-        <v>12</v>
-      </c>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="8">
-        <v>1004</v>
-      </c>
-      <c r="T37" s="8">
-        <v>1</v>
-      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -3311,46 +3305,28 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="3:33">
       <c r="C38" s="7">
-        <v>300005</v>
+        <v>200008</v>
       </c>
       <c r="D38" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="7">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7">
-        <v>16</v>
-      </c>
-      <c r="L38" s="7">
-        <v>16</v>
-      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="7">
-        <v>12</v>
-      </c>
+      <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="8">
-        <v>1009</v>
-      </c>
-      <c r="T38" s="8">
-        <v>3</v>
-      </c>
-      <c r="U38" s="7">
-        <v>16</v>
-      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
@@ -3364,54 +3340,34 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="39" s="1" customFormat="1" spans="3:33">
       <c r="C39" s="7">
-        <v>300006</v>
+        <v>200009</v>
       </c>
       <c r="D39" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="7">
-        <v>12</v>
-      </c>
-      <c r="K39" s="7">
-        <v>16</v>
-      </c>
-      <c r="L39" s="7">
-        <v>16</v>
-      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7">
-        <v>12</v>
-      </c>
+      <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T39" s="8">
-        <v>1</v>
-      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="7">
-        <v>1006</v>
-      </c>
-      <c r="Y39" s="8">
-        <v>3</v>
-      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="8"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -3421,58 +3377,34 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="40" s="1" customFormat="1" spans="3:33">
       <c r="C40" s="7">
-        <v>300007</v>
+        <v>200010</v>
       </c>
       <c r="D40" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="7">
-        <v>12</v>
-      </c>
-      <c r="K40" s="7">
-        <v>20</v>
-      </c>
-      <c r="L40" s="7">
-        <v>20</v>
-      </c>
-      <c r="M40" s="7">
-        <v>12</v>
-      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="8">
-        <v>1007</v>
-      </c>
-      <c r="T40" s="8">
-        <v>1</v>
-      </c>
-      <c r="U40" s="7">
-        <v>3000002</v>
-      </c>
-      <c r="V40" s="7">
-        <v>4</v>
-      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7">
-        <v>1008</v>
-      </c>
-      <c r="Y40" s="8">
-        <v>3</v>
-      </c>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="8"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -3482,40 +3414,26 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="39" spans="3:33">
+    <row r="41" s="1" customFormat="1" spans="3:33">
       <c r="C41" s="7">
-        <v>300008</v>
+        <v>200011</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="7">
-        <v>4</v>
-      </c>
-      <c r="K41" s="7">
-        <v>3</v>
-      </c>
-      <c r="L41" s="7">
-        <v>5</v>
-      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>2</v>
-      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
@@ -3535,37 +3453,23 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="3:33">
       <c r="C42" s="7">
-        <v>300009</v>
+        <v>200012</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="7">
-        <v>5</v>
-      </c>
-      <c r="K42" s="7">
-        <v>5</v>
-      </c>
-      <c r="L42" s="7">
-        <v>5</v>
-      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="7">
-        <v>4</v>
-      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7">
-        <v>4</v>
-      </c>
+      <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="8"/>
@@ -3584,34 +3488,22 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="39" spans="3:33">
+    <row r="43" s="1" customFormat="1" spans="3:33">
       <c r="C43" s="7">
-        <v>300010</v>
+        <v>200013</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="7">
-        <v>4</v>
-      </c>
-      <c r="K43" s="7">
-        <v>4</v>
-      </c>
-      <c r="L43" s="7">
-        <v>5</v>
-      </c>
-      <c r="M43" s="7">
-        <v>4</v>
-      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -3633,40 +3525,42 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="44" s="1" customFormat="1" spans="3:33">
       <c r="C44" s="7">
-        <v>300011</v>
+        <v>300001</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K44" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L44" s="7">
-        <v>3</v>
-      </c>
-      <c r="M44" s="7">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="8"/>
+      <c r="S44" s="8">
+        <v>103</v>
+      </c>
       <c r="T44" s="8"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -3682,9 +3576,9 @@
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="45" s="1" customFormat="1" spans="3:33">
       <c r="C45" s="7">
-        <v>300012</v>
+        <v>300002</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -3692,20 +3586,20 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K45" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L45" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3713,10 +3607,14 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>8</v>
-      </c>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="S45" s="8">
+        <v>1002</v>
+      </c>
+      <c r="T45" s="8">
+        <v>1</v>
+      </c>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
@@ -3731,9 +3629,9 @@
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="46" s="1" customFormat="1" spans="3:33">
       <c r="C46" s="7">
-        <v>300013</v>
+        <v>300003</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -3741,29 +3639,35 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K46" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L46" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
+      <c r="R46" s="7">
+        <v>12</v>
+      </c>
+      <c r="S46" s="8">
+        <v>1003</v>
+      </c>
+      <c r="T46" s="8">
+        <v>3</v>
+      </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
@@ -3778,9 +3682,9 @@
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="47" s="1" customFormat="1" spans="3:33">
       <c r="C47" s="7">
-        <v>300014</v>
+        <v>300004</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -3788,29 +3692,35 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K47" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L47" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7">
+        <v>12</v>
+      </c>
       <c r="R47" s="7"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
+      <c r="S47" s="8">
+        <v>1004</v>
+      </c>
+      <c r="T47" s="8">
+        <v>1</v>
+      </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -3825,70 +3735,109 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
     </row>
-    <row r="48" ht="39" spans="3:10">
-      <c r="C48" s="3">
-        <v>2000001</v>
-      </c>
-      <c r="D48" s="3">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="3:33">
+    <row r="48" s="1" customFormat="1" spans="3:33">
+      <c r="C48" s="7">
+        <v>300005</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7">
+        <v>12</v>
+      </c>
+      <c r="K48" s="7">
+        <v>16</v>
+      </c>
+      <c r="L48" s="7">
+        <v>16</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <v>12</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="8">
+        <v>1009</v>
+      </c>
+      <c r="T48" s="8">
+        <v>3</v>
+      </c>
+      <c r="U48" s="7">
+        <v>16</v>
+      </c>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C49" s="7">
-        <v>3000001</v>
+        <v>300006</v>
       </c>
       <c r="D49" s="7">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K49" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L49" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="8">
-        <v>108</v>
-      </c>
-      <c r="T49" s="8"/>
+        <v>1005</v>
+      </c>
+      <c r="T49" s="8">
+        <v>1</v>
+      </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="8"/>
+      <c r="X49" s="7">
+        <v>1006</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>3</v>
+      </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -3898,48 +3847,58 @@
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="3:33">
+    <row r="50" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C50" s="7">
-        <v>3000002</v>
+        <v>300007</v>
       </c>
       <c r="D50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K50" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L50" s="7">
-        <v>6</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M50" s="7">
+        <v>12</v>
+      </c>
+      <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="8">
-        <v>103</v>
-      </c>
-      <c r="T50" s="8"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
+        <v>1007</v>
+      </c>
+      <c r="T50" s="8">
+        <v>1</v>
+      </c>
+      <c r="U50" s="7">
+        <v>3000002</v>
+      </c>
+      <c r="V50" s="7">
+        <v>4</v>
+      </c>
       <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="8"/>
+      <c r="X50" s="7">
+        <v>1008</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>3</v>
+      </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
@@ -3949,35 +3908,37 @@
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="3:33">
+    <row r="51" s="1" customFormat="1" ht="39" spans="3:33">
       <c r="C51" s="7">
-        <v>3000003</v>
+        <v>300008</v>
       </c>
       <c r="D51" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
+      <c r="P51" s="7">
+        <v>2</v>
+      </c>
       <c r="Q51" s="7">
         <v>2</v>
       </c>
@@ -4000,35 +3961,37 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="3:33">
       <c r="C52" s="7">
-        <v>3000004</v>
+        <v>300009</v>
       </c>
       <c r="D52" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="7">
-        <v>1</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="N52" s="7">
+        <v>4</v>
+      </c>
       <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
+      <c r="P52" s="7">
+        <v>4</v>
+      </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="8"/>
@@ -4047,41 +4010,39 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="3:33">
+    <row r="53" s="1" customFormat="1" ht="39" spans="3:33">
       <c r="C53" s="7">
-        <v>3000005</v>
+        <v>300010</v>
       </c>
       <c r="D53" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53" s="7">
-        <v>3</v>
-      </c>
-      <c r="M53" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="M53" s="7">
+        <v>4</v>
+      </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
-      <c r="Q53" s="7">
-        <v>2</v>
-      </c>
-      <c r="R53" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="7"/>
@@ -4098,162 +4059,185 @@
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
     </row>
-    <row r="54" spans="3:18">
+    <row r="54" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C54" s="7">
-        <v>3000006</v>
+        <v>300011</v>
       </c>
       <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7">
         <v>3</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="M54" s="7">
+        <v>3</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="26" spans="3:33">
+      <c r="C55" s="7">
+        <v>300012</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="7">
+        <v>6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>6</v>
+      </c>
+      <c r="L55" s="7">
+        <v>6</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <v>8</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="26" spans="3:33">
+      <c r="C56" s="7">
+        <v>300013</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="7">
+        <v>4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4</v>
+      </c>
+      <c r="L56" s="7">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
-        <v>32</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="3:33">
-      <c r="C55" s="7">
-        <v>3000007</v>
-      </c>
-      <c r="D55" s="7">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="3">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-    </row>
-    <row r="56" customFormat="1" spans="3:33">
-      <c r="C56" s="7">
-        <v>3000008</v>
-      </c>
-      <c r="D56" s="7">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="3">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="3:33">
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C57" s="7">
-        <v>4000001</v>
+        <v>300014</v>
       </c>
       <c r="D57" s="7">
-        <v>7</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="7">
+        <v>2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2</v>
+      </c>
+      <c r="L57" s="7">
         <v>3</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="8">
-        <v>1012</v>
-      </c>
-      <c r="T57" s="8">
-        <v>6</v>
-      </c>
-      <c r="U57" s="7">
-        <v>3</v>
-      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
@@ -4267,1032 +4251,1628 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" ht="39" spans="3:10">
       <c r="C58" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="3:33">
+      <c r="C59" s="7">
+        <v>3000001</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="7">
+        <v>2</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3</v>
+      </c>
+      <c r="L59" s="7">
+        <v>4</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7">
+        <v>1</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="8">
+        <v>108</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="3:33">
+      <c r="C60" s="7">
+        <v>3000002</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="7">
+        <v>3</v>
+      </c>
+      <c r="K60" s="7">
+        <v>6</v>
+      </c>
+      <c r="L60" s="7">
+        <v>6</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7">
+        <v>3</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="8">
+        <v>103</v>
+      </c>
+      <c r="T60" s="8"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="3:33">
+      <c r="C61" s="7">
+        <v>3000003</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="7">
+        <v>2</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2</v>
+      </c>
+      <c r="L61" s="7">
+        <v>2</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7">
+        <v>2</v>
+      </c>
+      <c r="R61" s="7"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="3:33">
+      <c r="C62" s="7">
+        <v>3000004</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7">
+        <v>6</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>12</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="3:33">
+      <c r="C63" s="7">
+        <v>3000005</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2</v>
+      </c>
+      <c r="L63" s="7">
+        <v>3</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7">
+        <v>2</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2</v>
+      </c>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+    </row>
+    <row r="64" spans="3:18">
+      <c r="C64" s="7">
+        <v>3000006</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J64" s="3">
+        <v>5</v>
+      </c>
+      <c r="K64" s="3">
+        <v>32</v>
+      </c>
+      <c r="O64" s="3">
+        <v>3</v>
+      </c>
+      <c r="R64" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="3:33">
+      <c r="C65" s="7">
+        <v>3000007</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+    </row>
+    <row r="66" customFormat="1" spans="3:33">
+      <c r="C66" s="7">
+        <v>3000008</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:33">
+      <c r="C67" s="7">
+        <v>3000009</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
+      <c r="K67" s="3">
+        <v>8</v>
+      </c>
+      <c r="L67" s="3">
+        <v>8</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3">
+        <v>4</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3">
+        <v>109</v>
+      </c>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="3:33">
+      <c r="C68" s="7">
+        <v>4000001</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7">
+        <v>3</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="8">
+        <v>1012</v>
+      </c>
+      <c r="T68" s="8">
+        <v>6</v>
+      </c>
+      <c r="U68" s="7">
+        <v>3</v>
+      </c>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="C69" s="3">
         <v>5000001</v>
       </c>
-      <c r="D58" s="3">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15">
-      <c r="C59" s="3">
+      <c r="D69" s="3">
+        <v>4</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2</v>
+      </c>
+      <c r="O69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="C70" s="3">
         <v>5000002</v>
       </c>
-      <c r="D59" s="3">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" s="3">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O70" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="3:17">
-      <c r="C60" s="3">
+    <row r="71" spans="3:17">
+      <c r="C71" s="3">
         <v>5000003</v>
       </c>
-      <c r="D60" s="3">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D71" s="3">
+        <v>4</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="3">
         <v>6</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q71" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="3:17">
-      <c r="C61" s="3">
+    <row r="72" spans="3:17">
+      <c r="C72" s="3">
         <v>5000004</v>
       </c>
-      <c r="D61" s="3">
-        <v>4</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17">
-      <c r="C62" s="3">
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17">
+      <c r="C73" s="3">
         <v>5000005</v>
       </c>
-      <c r="D62" s="3">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D73" s="3">
+        <v>4</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J73" s="3">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q73" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:17">
-      <c r="C63" s="3">
+    <row r="74" spans="3:17">
+      <c r="C74" s="3">
         <v>5000006</v>
       </c>
-      <c r="D63" s="3">
-        <v>4</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q63" s="3">
+      <c r="D74" s="3">
+        <v>4</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="3:17">
-      <c r="C64" s="3">
+    <row r="75" spans="3:17">
+      <c r="C75" s="3">
         <v>5000007</v>
       </c>
-      <c r="D64" s="3">
-        <v>4</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="3">
+      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="3:16">
-      <c r="C65" s="3">
+    <row r="76" spans="3:16">
+      <c r="C76" s="3">
         <v>5000008</v>
       </c>
-      <c r="D65" s="3">
-        <v>4</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J65" s="3">
-        <v>2</v>
-      </c>
-      <c r="P65" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16">
-      <c r="C66" s="3">
+      <c r="D76" s="3">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="P76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16">
+      <c r="C77" s="3">
         <v>5000009</v>
       </c>
-      <c r="D66" s="3">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16">
-      <c r="C67" s="3">
+      <c r="D77" s="3">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
+      <c r="P77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16">
+      <c r="C78" s="3">
         <v>5000010</v>
       </c>
-      <c r="D67" s="3">
-        <v>4</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="D78" s="3">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J78" s="3">
         <v>1</v>
       </c>
-      <c r="P67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" ht="26" spans="3:16">
-      <c r="C68" s="3">
+      <c r="P78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" ht="26" spans="3:16">
+      <c r="C79" s="3">
         <v>5000011</v>
       </c>
-      <c r="D68" s="3">
-        <v>4</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J68" s="3">
+      <c r="D79" s="3">
+        <v>4</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="3">
         <v>1</v>
       </c>
-      <c r="P68" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" ht="26" spans="3:16">
-      <c r="C69" s="3">
+      <c r="P79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" ht="26" spans="3:16">
+      <c r="C80" s="3">
         <v>5000012</v>
       </c>
-      <c r="D69" s="3">
-        <v>4</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="D80" s="3">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J80" s="3">
         <v>1</v>
       </c>
-      <c r="P69" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" ht="39" spans="3:17">
-      <c r="C70" s="3">
+      <c r="P80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" ht="39" spans="3:17">
+      <c r="C81" s="3">
         <v>5000013</v>
       </c>
-      <c r="D70" s="3">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="D81" s="3">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J81" s="3">
         <v>1</v>
       </c>
-      <c r="P70" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" ht="26" spans="3:16">
-      <c r="C71" s="3">
+      <c r="P81" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" ht="26" spans="3:16">
+      <c r="C82" s="3">
         <v>5000014</v>
       </c>
-      <c r="D71" s="3">
-        <v>4</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J71" s="3">
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J82" s="3">
         <v>1</v>
       </c>
-      <c r="O71" s="3">
-        <v>2</v>
-      </c>
-      <c r="P71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14">
-      <c r="C72" s="3">
+      <c r="O82" s="3">
+        <v>2</v>
+      </c>
+      <c r="P82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="3">
         <v>5000015</v>
       </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" s="4">
+      <c r="D83" s="3">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I83" s="4">
         <v>1</v>
       </c>
-      <c r="J72" s="3">
-        <v>2</v>
-      </c>
-      <c r="N72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14">
-      <c r="C73" s="3">
+      <c r="J83" s="3">
+        <v>2</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" s="3">
         <v>5000016</v>
       </c>
-      <c r="D73" s="3">
-        <v>4</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J73" s="3">
+      <c r="D84" s="3">
+        <v>4</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J84" s="3">
         <v>5</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N84" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="3:18">
-      <c r="C74" s="3">
+    <row r="85" spans="3:18">
+      <c r="C85" s="3">
         <v>5000017</v>
       </c>
-      <c r="D74" s="3">
-        <v>4</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="D85" s="3">
+        <v>4</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J85" s="3">
         <v>1</v>
       </c>
-      <c r="R74" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18">
-      <c r="C75" s="3">
+      <c r="R85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18">
+      <c r="C86" s="3">
         <v>5000018</v>
       </c>
-      <c r="D75" s="3">
-        <v>4</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2</v>
-      </c>
-      <c r="R75" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18">
-      <c r="C76" s="3">
-        <v>5000019</v>
-      </c>
-      <c r="D76" s="3">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18">
-      <c r="C77" s="3">
-        <v>5000020</v>
-      </c>
-      <c r="D77" s="3">
-        <v>4</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J77" s="3">
-        <v>2</v>
-      </c>
-      <c r="R77" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18">
-      <c r="C78" s="3">
-        <v>5000021</v>
-      </c>
-      <c r="D78" s="3">
-        <v>4</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18">
-      <c r="C79" s="3">
-        <v>5000022</v>
-      </c>
-      <c r="D79" s="3">
-        <v>4</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H79" s="4" t="s">
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J79" s="3">
-        <v>6</v>
-      </c>
-      <c r="R79" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="3:13">
-      <c r="C80" s="3">
-        <v>5000023</v>
-      </c>
-      <c r="D80" s="3">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="H86" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J80" s="3">
-        <v>3</v>
-      </c>
-      <c r="M80" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" ht="26" spans="3:13">
-      <c r="C81" s="3">
-        <v>5000024</v>
-      </c>
-      <c r="D81" s="3">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13">
-      <c r="C82" s="3">
-        <v>5000025</v>
-      </c>
-      <c r="D82" s="3">
-        <v>4</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J82" s="3">
-        <v>10</v>
-      </c>
-      <c r="M82" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="26" spans="3:13">
-      <c r="C83" s="3">
-        <v>5000026</v>
-      </c>
-      <c r="D83" s="3">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" ht="26" spans="3:13">
-      <c r="C84" s="3">
-        <v>5000027</v>
-      </c>
-      <c r="D84" s="3">
-        <v>4</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J84" s="3">
-        <v>1</v>
-      </c>
-      <c r="M84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13">
-      <c r="C85" s="3">
-        <v>5000028</v>
-      </c>
-      <c r="D85" s="3">
-        <v>4</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J85" s="3">
-        <v>2</v>
-      </c>
-      <c r="M85" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="3:13">
-      <c r="C86" s="3">
-        <v>5000029</v>
-      </c>
-      <c r="D86" s="3">
-        <v>4</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="M86" s="3">
+        <v>2</v>
+      </c>
+      <c r="R86" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="3:18">
       <c r="C87" s="3">
-        <v>5000030</v>
+        <v>5000019</v>
       </c>
       <c r="D87" s="3">
         <v>4</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
       </c>
-      <c r="M87" s="3">
-        <v>2</v>
-      </c>
       <c r="R87" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="88" ht="26" spans="3:18">
+    <row r="88" spans="3:18">
       <c r="C88" s="3">
-        <v>5000031</v>
+        <v>5000020</v>
       </c>
       <c r="D88" s="3">
         <v>4</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J88" s="3">
         <v>2</v>
       </c>
-      <c r="M88" s="3">
-        <v>3</v>
-      </c>
       <c r="R88" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="3:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18">
       <c r="C89" s="3">
-        <v>5000032</v>
+        <v>5000021</v>
       </c>
       <c r="D89" s="3">
         <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3">
-        <v>2</v>
-      </c>
-      <c r="O89" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" ht="26" spans="3:17">
+      <c r="R89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18">
       <c r="C90" s="3">
-        <v>5000033</v>
+        <v>5000022</v>
       </c>
       <c r="D90" s="3">
         <v>4</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6</v>
+      </c>
+      <c r="R90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="C91" s="3">
+        <v>5000023</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="26" spans="3:13">
+      <c r="C92" s="3">
+        <v>5000024</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2</v>
+      </c>
+      <c r="M92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="26" spans="3:13">
+      <c r="C93" s="3">
+        <v>5000025</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J93" s="3">
+        <v>10</v>
+      </c>
+      <c r="M93" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="26" spans="3:13">
+      <c r="C94" s="3">
+        <v>5000026</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" ht="26" spans="3:13">
+      <c r="C95" s="3">
+        <v>5000027</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13">
+      <c r="C96" s="3">
+        <v>5000028</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2</v>
+      </c>
+      <c r="M96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13">
+      <c r="C97" s="3">
+        <v>5000029</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J90" s="3">
-        <v>2</v>
-      </c>
-      <c r="M90" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="3:18">
-      <c r="C91" s="3">
-        <v>5000034</v>
-      </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2</v>
-      </c>
-      <c r="O91" s="3">
-        <v>2</v>
-      </c>
-      <c r="R91" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18">
-      <c r="C92" s="3">
-        <v>5000035</v>
-      </c>
-      <c r="D92" s="3">
-        <v>4</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J92" s="3">
-        <v>2</v>
-      </c>
-      <c r="O92" s="3">
-        <v>2</v>
-      </c>
-      <c r="R92" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="26" spans="3:18">
-      <c r="C93" s="3">
-        <v>5000036</v>
-      </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J93" s="3">
-        <v>8</v>
-      </c>
-      <c r="O93" s="3">
-        <v>2</v>
-      </c>
-      <c r="R93" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" ht="26" spans="3:17">
-      <c r="C94" s="3">
-        <v>5000037</v>
-      </c>
-      <c r="D94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2</v>
-      </c>
-      <c r="O94" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" ht="26" spans="3:15">
-      <c r="C95" s="3">
-        <v>5000038</v>
-      </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J95" s="3">
-        <v>6</v>
-      </c>
-      <c r="N95" s="3">
-        <v>5</v>
-      </c>
-      <c r="O95" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" ht="26" spans="3:18">
-      <c r="C96" s="3">
-        <v>5000039</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>2</v>
-      </c>
-      <c r="R96" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" ht="26" spans="3:18">
-      <c r="C97" s="3">
-        <v>5000040</v>
-      </c>
-      <c r="D97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="J97" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>4</v>
-      </c>
-      <c r="R97" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="3:18">
       <c r="C98" s="3">
-        <v>5000041</v>
+        <v>5000030</v>
       </c>
       <c r="D98" s="3">
         <v>4</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J98" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M98" s="3">
+        <v>2</v>
       </c>
       <c r="R98" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" ht="26" spans="3:18">
       <c r="C99" s="3">
-        <v>5000042</v>
+        <v>5000031</v>
       </c>
       <c r="D99" s="3">
         <v>4</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
       </c>
-      <c r="Q99" s="3">
-        <v>2</v>
+      <c r="M99" s="3">
+        <v>3</v>
       </c>
       <c r="R99" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" ht="26" spans="3:18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15">
       <c r="C100" s="3">
-        <v>5000043</v>
+        <v>5000032</v>
       </c>
       <c r="D100" s="3">
         <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J100" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>2</v>
-      </c>
-      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>2</v>
+      </c>
+      <c r="O100" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="101" ht="26" spans="3:17">
       <c r="C101" s="3">
+        <v>5000033</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2</v>
+      </c>
+      <c r="M101" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18">
+      <c r="C102" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2</v>
+      </c>
+      <c r="O102" s="3">
+        <v>2</v>
+      </c>
+      <c r="R102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18">
+      <c r="C103" s="3">
+        <v>5000035</v>
+      </c>
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2</v>
+      </c>
+      <c r="O103" s="3">
+        <v>2</v>
+      </c>
+      <c r="R103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="26" spans="3:18">
+      <c r="C104" s="3">
+        <v>5000036</v>
+      </c>
+      <c r="D104" s="3">
+        <v>4</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J104" s="3">
+        <v>8</v>
+      </c>
+      <c r="O104" s="3">
+        <v>2</v>
+      </c>
+      <c r="R104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" ht="26" spans="3:17">
+      <c r="C105" s="3">
+        <v>5000037</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J105" s="3">
+        <v>2</v>
+      </c>
+      <c r="O105" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" ht="26" spans="3:15">
+      <c r="C106" s="3">
+        <v>5000038</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J106" s="3">
+        <v>6</v>
+      </c>
+      <c r="N106" s="3">
+        <v>5</v>
+      </c>
+      <c r="O106" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" ht="26" spans="3:18">
+      <c r="C107" s="3">
+        <v>5000039</v>
+      </c>
+      <c r="D107" s="3">
+        <v>4</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J107" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>2</v>
+      </c>
+      <c r="R107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="26" spans="3:18">
+      <c r="C108" s="3">
+        <v>5000040</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>4</v>
+      </c>
+      <c r="R108" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="3:18">
+      <c r="C109" s="3">
+        <v>5000041</v>
+      </c>
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>3</v>
+      </c>
+      <c r="R109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" ht="26" spans="3:18">
+      <c r="C110" s="3">
+        <v>5000042</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>2</v>
+      </c>
+      <c r="R110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="26" spans="3:18">
+      <c r="C111" s="3">
+        <v>5000043</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J111" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>2</v>
+      </c>
+      <c r="R111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" ht="26" spans="3:17">
+      <c r="C112" s="3">
         <v>5000044</v>
       </c>
-      <c r="D101" s="3">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17">
-      <c r="C102" s="3">
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2</v>
+      </c>
+      <c r="P112" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:17">
+      <c r="C113" s="3">
         <v>5000045</v>
       </c>
-      <c r="D102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J102" s="3">
-        <v>2</v>
-      </c>
-      <c r="P102" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" ht="39" spans="3:17">
-      <c r="C103" s="3">
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J113" s="3">
+        <v>2</v>
+      </c>
+      <c r="P113" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" ht="39" spans="3:17">
+      <c r="C114" s="3">
         <v>5000046</v>
       </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J103" s="3">
+      <c r="D114" s="3">
+        <v>4</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J114" s="3">
         <v>3</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N114" s="3">
         <v>3</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="Q114" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
-      <c r="C104" s="3">
+    <row r="115" spans="3:16">
+      <c r="C115" s="3">
         <v>5000047</v>
       </c>
-      <c r="D104" s="3">
-        <v>4</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J104" s="3">
-        <v>2</v>
-      </c>
-      <c r="N104" s="3">
-        <v>2</v>
-      </c>
-      <c r="P104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" ht="39" spans="3:16">
-      <c r="C105" s="3">
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J115" s="3">
+        <v>2</v>
+      </c>
+      <c r="N115" s="3">
+        <v>2</v>
+      </c>
+      <c r="P115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="39" spans="3:16">
+      <c r="C116" s="3">
         <v>5000048</v>
       </c>
-      <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J105" s="3">
-        <v>2</v>
-      </c>
-      <c r="M105" s="3">
-        <v>2</v>
-      </c>
-      <c r="P105" s="3">
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J116" s="3">
+        <v>2</v>
+      </c>
+      <c r="M116" s="3">
+        <v>2</v>
+      </c>
+      <c r="P116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13">
+      <c r="C117" s="3">
+        <v>5000049</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118" s="3">
+        <v>5000050</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119" s="3">
+        <v>5000051</v>
+      </c>
+      <c r="D119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13">
+      <c r="C120" s="3">
+        <v>5000052</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13">
+      <c r="C121" s="3">
+        <v>5000053</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13">
+      <c r="C122" s="3">
+        <v>5000054</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="M122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13">
+      <c r="C123" s="3">
+        <v>5000055</v>
+      </c>
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="M123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13">
+      <c r="C124" s="3">
+        <v>5000056</v>
+      </c>
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="M124" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
   <si>
     <t>#</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>庞加莱猜想</t>
+  </si>
+  <si>
+    <t>如果你的对手拥有3个攻击力为7的单位，对所有敌方角色造成7点伤害</t>
+  </si>
+  <si>
+    <t>使一个敌方单位+2攻击，并对其相邻单位造成其攻击力的伤害</t>
   </si>
 </sst>
 </file>
@@ -721,9 +727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1207,7 +1213,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,7 +1234,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1724,12 +1730,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG124"/>
+  <dimension ref="C2:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4550,7 +4556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="3:33">
+    <row r="65" customFormat="1" ht="14" spans="3:33">
       <c r="C65" s="7">
         <v>3000007</v>
       </c>
@@ -4597,7 +4603,7 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
     </row>
-    <row r="66" customFormat="1" spans="3:33">
+    <row r="66" customFormat="1" ht="14" spans="3:33">
       <c r="C66" s="7">
         <v>3000008</v>
       </c>
@@ -4642,7 +4648,7 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
     </row>
-    <row r="67" customFormat="1" spans="3:33">
+    <row r="67" customFormat="1" ht="14" spans="3:33">
       <c r="C67" s="7">
         <v>3000009</v>
       </c>
@@ -4712,7 +4718,7 @@
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -5876,6 +5882,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="125" ht="39" spans="8:8">
+      <c r="H125" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" ht="26" spans="8:8">
+      <c r="H126" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -1733,9 +1733,9 @@
   <dimension ref="C2:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -1733,9 +1733,9 @@
   <dimension ref="C2:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T68" sqref="T68"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -5039,7 +5039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="3:14">
+    <row r="83" spans="3:21">
       <c r="C83" s="3">
         <v>5000015</v>
       </c>
@@ -5060,6 +5060,15 @@
       </c>
       <c r="N83" s="3">
         <v>2</v>
+      </c>
+      <c r="S83" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T83" s="3">
+        <v>6</v>
+      </c>
+      <c r="U83" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="3:14">

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="18750" windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="CardProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="236">
   <si>
     <t>#</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>不能攻击英雄和干员</t>
+  </si>
+  <si>
+    <t>迫击炮兵</t>
+  </si>
+  <si>
+    <t>对一个角色造成2点伤害</t>
   </si>
   <si>
     <t>测试战术</t>
@@ -726,10 +732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1213,7 +1219,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,10 +1228,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,7 +1240,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,12 +1736,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG126"/>
+  <dimension ref="C2:AG137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4699,1206 +4705,1631 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="3:33">
+    <row r="68" customFormat="1" ht="14" spans="3:33">
       <c r="C68" s="7">
+        <v>3000010</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2</v>
+      </c>
+      <c r="L68" s="3">
+        <v>2</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T68" s="3">
+        <v>1</v>
+      </c>
+      <c r="U68" s="3">
+        <v>2</v>
+      </c>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+    </row>
+    <row r="69" customFormat="1" ht="14" spans="3:33">
+      <c r="C69" s="7">
+        <v>3000011</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+    </row>
+    <row r="70" customFormat="1" ht="14" spans="3:33">
+      <c r="C70" s="7">
+        <v>3000012</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+    </row>
+    <row r="71" customFormat="1" ht="14" spans="3:33">
+      <c r="C71" s="7">
+        <v>3000013</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+    </row>
+    <row r="72" customFormat="1" ht="14" spans="3:33">
+      <c r="C72" s="7">
+        <v>3000014</v>
+      </c>
+      <c r="D72" s="7">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+    </row>
+    <row r="73" customFormat="1" ht="14" spans="3:33">
+      <c r="C73" s="7">
+        <v>3000015</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+    </row>
+    <row r="74" customFormat="1" ht="14" spans="3:33">
+      <c r="C74" s="7">
+        <v>3000016</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+    </row>
+    <row r="75" customFormat="1" ht="14" spans="3:33">
+      <c r="C75" s="7">
+        <v>3000017</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+    </row>
+    <row r="76" customFormat="1" ht="14" spans="3:33">
+      <c r="C76" s="7">
+        <v>3000018</v>
+      </c>
+      <c r="D76" s="7">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+    </row>
+    <row r="77" customFormat="1" ht="14" spans="3:33">
+      <c r="C77" s="7">
+        <v>3000019</v>
+      </c>
+      <c r="D77" s="7">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+    </row>
+    <row r="78" customFormat="1" ht="14" spans="3:33">
+      <c r="C78" s="7">
+        <v>3000020</v>
+      </c>
+      <c r="D78" s="7">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="3:33">
+      <c r="C79" s="7">
         <v>4000001</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D79" s="7">
         <v>7</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="7">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="7">
         <v>0</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="8">
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="8">
         <v>1012</v>
       </c>
-      <c r="T68" s="8">
+      <c r="T79" s="8">
         <v>6</v>
       </c>
-      <c r="U68" s="7">
+      <c r="U79" s="7">
         <v>3</v>
       </c>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-    </row>
-    <row r="69" spans="3:15">
-      <c r="C69" s="3">
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+    </row>
+    <row r="80" spans="3:15">
+      <c r="C80" s="3">
         <v>5000001</v>
       </c>
-      <c r="D69" s="3">
-        <v>4</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H69" s="4" t="s">
+      <c r="D80" s="3">
+        <v>4</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="3">
-        <v>2</v>
-      </c>
-      <c r="O69" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="3:15">
-      <c r="C70" s="3">
+      <c r="G80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J80" s="3">
+        <v>2</v>
+      </c>
+      <c r="O80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81" s="3">
         <v>5000002</v>
       </c>
-      <c r="D70" s="3">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="D81" s="3">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="3">
         <v>3</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O81" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="3:17">
-      <c r="C71" s="3">
+    <row r="82" spans="3:17">
+      <c r="C82" s="3">
         <v>5000003</v>
       </c>
-      <c r="D71" s="3">
-        <v>4</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J71" s="3">
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J82" s="3">
         <v>6</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q82" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:17">
-      <c r="C72" s="3">
+    <row r="83" spans="3:17">
+      <c r="C83" s="3">
         <v>5000004</v>
       </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="3:17">
-      <c r="C73" s="3">
+      <c r="D83" s="3">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17">
+      <c r="C84" s="3">
         <v>5000005</v>
       </c>
-      <c r="D73" s="3">
-        <v>4</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J73" s="3">
+      <c r="D84" s="3">
+        <v>4</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84" s="3">
         <v>3</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q84" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="3:17">
-      <c r="C74" s="3">
+    <row r="85" spans="3:17">
+      <c r="C85" s="3">
         <v>5000006</v>
       </c>
-      <c r="D74" s="3">
-        <v>4</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="3">
+      <c r="D85" s="3">
+        <v>4</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J85" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="3:17">
-      <c r="C75" s="3">
+    <row r="86" spans="3:17">
+      <c r="C86" s="3">
         <v>5000007</v>
       </c>
-      <c r="D75" s="3">
-        <v>4</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J75" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q75" s="3">
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J86" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="3:16">
-      <c r="C76" s="3">
+    <row r="87" spans="3:16">
+      <c r="C87" s="3">
         <v>5000008</v>
       </c>
-      <c r="D76" s="3">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16">
-      <c r="C77" s="3">
+      <c r="D87" s="3">
+        <v>4</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2</v>
+      </c>
+      <c r="P87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16">
+      <c r="C88" s="3">
         <v>5000009</v>
       </c>
-      <c r="D77" s="3">
-        <v>4</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J77" s="3">
-        <v>2</v>
-      </c>
-      <c r="P77" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16">
-      <c r="C78" s="3">
+      <c r="D88" s="3">
+        <v>4</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2</v>
+      </c>
+      <c r="P88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16">
+      <c r="C89" s="3">
         <v>5000010</v>
       </c>
-      <c r="D78" s="3">
-        <v>4</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="D89" s="3">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J89" s="3">
         <v>1</v>
       </c>
-      <c r="P78" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" ht="26" spans="3:16">
-      <c r="C79" s="3">
+      <c r="P89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" ht="26" spans="3:16">
+      <c r="C90" s="3">
         <v>5000011</v>
       </c>
-      <c r="D79" s="3">
-        <v>4</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J90" s="3">
         <v>1</v>
       </c>
-      <c r="P79" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" ht="26" spans="3:16">
-      <c r="C80" s="3">
+      <c r="P90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" ht="26" spans="3:16">
+      <c r="C91" s="3">
         <v>5000012</v>
       </c>
-      <c r="D80" s="3">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J80" s="3">
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J91" s="3">
         <v>1</v>
       </c>
-      <c r="P80" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" ht="39" spans="3:17">
-      <c r="C81" s="3">
+      <c r="P91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" ht="39" spans="3:17">
+      <c r="C92" s="3">
         <v>5000013</v>
       </c>
-      <c r="D81" s="3">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J92" s="3">
         <v>1</v>
       </c>
-      <c r="P81" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" ht="26" spans="3:16">
-      <c r="C82" s="3">
+      <c r="P92" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="26" spans="3:16">
+      <c r="C93" s="3">
         <v>5000014</v>
       </c>
-      <c r="D82" s="3">
-        <v>4</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="D93" s="3">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J93" s="3">
         <v>1</v>
       </c>
-      <c r="O82" s="3">
-        <v>2</v>
-      </c>
-      <c r="P82" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:21">
-      <c r="C83" s="3">
+      <c r="O93" s="3">
+        <v>2</v>
+      </c>
+      <c r="P93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21">
+      <c r="C94" s="3">
         <v>5000015</v>
       </c>
-      <c r="D83" s="3">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I83" s="4">
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I94" s="4">
         <v>1</v>
       </c>
-      <c r="J83" s="3">
-        <v>2</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="J94" s="3">
+        <v>2</v>
+      </c>
+      <c r="N94" s="3">
+        <v>2</v>
+      </c>
+      <c r="S94" s="3">
         <v>1013</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T94" s="3">
         <v>6</v>
       </c>
-      <c r="U83" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14">
-      <c r="C84" s="3">
+      <c r="U94" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="3">
         <v>5000016</v>
       </c>
-      <c r="D84" s="3">
-        <v>4</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J84" s="3">
+      <c r="D95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" s="3">
         <v>5</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N95" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="3:18">
-      <c r="C85" s="3">
+    <row r="96" spans="3:18">
+      <c r="C96" s="3">
         <v>5000017</v>
       </c>
-      <c r="D85" s="3">
-        <v>4</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J96" s="3">
         <v>1</v>
       </c>
-      <c r="R85" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18">
-      <c r="C86" s="3">
+      <c r="R96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18">
+      <c r="C97" s="3">
         <v>5000018</v>
       </c>
-      <c r="D86" s="3">
-        <v>4</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J86" s="3">
-        <v>2</v>
-      </c>
-      <c r="R86" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18">
-      <c r="C87" s="3">
-        <v>5000019</v>
-      </c>
-      <c r="D87" s="3">
-        <v>4</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J87" s="3">
-        <v>2</v>
-      </c>
-      <c r="R87" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18">
-      <c r="C88" s="3">
-        <v>5000020</v>
-      </c>
-      <c r="D88" s="3">
-        <v>4</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J88" s="3">
-        <v>2</v>
-      </c>
-      <c r="R88" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18">
-      <c r="C89" s="3">
-        <v>5000021</v>
-      </c>
-      <c r="D89" s="3">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18">
-      <c r="C90" s="3">
-        <v>5000022</v>
-      </c>
-      <c r="D90" s="3">
-        <v>4</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J90" s="3">
-        <v>6</v>
-      </c>
-      <c r="R90" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="3:13">
-      <c r="C91" s="3">
-        <v>5000023</v>
-      </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J91" s="3">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" ht="26" spans="3:13">
-      <c r="C92" s="3">
-        <v>5000024</v>
-      </c>
-      <c r="D92" s="3">
-        <v>4</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J92" s="3">
-        <v>2</v>
-      </c>
-      <c r="M92" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="26" spans="3:13">
-      <c r="C93" s="3">
-        <v>5000025</v>
-      </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J93" s="3">
-        <v>10</v>
-      </c>
-      <c r="M93" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="26" spans="3:13">
-      <c r="C94" s="3">
-        <v>5000026</v>
-      </c>
-      <c r="D94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J94" s="3">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" ht="26" spans="3:13">
-      <c r="C95" s="3">
-        <v>5000027</v>
-      </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J95" s="3">
-        <v>1</v>
-      </c>
-      <c r="M95" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="3:13">
-      <c r="C96" s="3">
-        <v>5000028</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J96" s="3">
-        <v>2</v>
-      </c>
-      <c r="M96" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13">
-      <c r="C97" s="3">
-        <v>5000029</v>
-      </c>
-      <c r="D97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="M97" s="3">
+        <v>2</v>
+      </c>
+      <c r="R97" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="3:18">
       <c r="C98" s="3">
-        <v>5000030</v>
+        <v>5000019</v>
       </c>
       <c r="D98" s="3">
         <v>4</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J98" s="3">
         <v>2</v>
       </c>
-      <c r="M98" s="3">
-        <v>2</v>
-      </c>
       <c r="R98" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="99" ht="26" spans="3:18">
+    <row r="99" spans="3:18">
       <c r="C99" s="3">
-        <v>5000031</v>
+        <v>5000020</v>
       </c>
       <c r="D99" s="3">
         <v>4</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
       </c>
-      <c r="M99" s="3">
-        <v>3</v>
-      </c>
       <c r="R99" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="3:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18">
       <c r="C100" s="3">
-        <v>5000032</v>
+        <v>5000021</v>
       </c>
       <c r="D100" s="3">
         <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3">
-        <v>2</v>
-      </c>
-      <c r="O100" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" ht="26" spans="3:17">
+      <c r="R100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18">
       <c r="C101" s="3">
-        <v>5000033</v>
+        <v>5000022</v>
       </c>
       <c r="D101" s="3">
         <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J101" s="3">
-        <v>2</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18">
+        <v>6</v>
+      </c>
+      <c r="R101" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13">
       <c r="C102" s="3">
-        <v>5000034</v>
+        <v>5000023</v>
       </c>
       <c r="D102" s="3">
         <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J102" s="3">
-        <v>2</v>
-      </c>
-      <c r="O102" s="3">
-        <v>2</v>
-      </c>
-      <c r="R102" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" ht="26" spans="3:13">
       <c r="C103" s="3">
-        <v>5000035</v>
+        <v>5000024</v>
       </c>
       <c r="D103" s="3">
         <v>4</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
       </c>
-      <c r="O103" s="3">
-        <v>2</v>
-      </c>
-      <c r="R103" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" ht="26" spans="3:18">
+      <c r="M103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="26" spans="3:13">
       <c r="C104" s="3">
-        <v>5000036</v>
+        <v>5000025</v>
       </c>
       <c r="D104" s="3">
         <v>4</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="J104" s="3">
-        <v>8</v>
-      </c>
-      <c r="O104" s="3">
-        <v>2</v>
-      </c>
-      <c r="R104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" ht="26" spans="3:17">
+        <v>10</v>
+      </c>
+      <c r="M104" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="26" spans="3:13">
       <c r="C105" s="3">
-        <v>5000037</v>
+        <v>5000026</v>
       </c>
       <c r="D105" s="3">
         <v>4</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="J105" s="3">
-        <v>2</v>
-      </c>
-      <c r="O105" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" ht="26" spans="3:15">
+        <v>4</v>
+      </c>
+      <c r="M105" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" ht="26" spans="3:13">
       <c r="C106" s="3">
-        <v>5000038</v>
+        <v>5000027</v>
       </c>
       <c r="D106" s="3">
         <v>4</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J106" s="3">
-        <v>6</v>
-      </c>
-      <c r="N106" s="3">
-        <v>5</v>
-      </c>
-      <c r="O106" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" ht="26" spans="3:18">
+        <v>1</v>
+      </c>
+      <c r="M106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13">
       <c r="C107" s="3">
-        <v>5000039</v>
+        <v>5000028</v>
       </c>
       <c r="D107" s="3">
         <v>4</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J107" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q107" s="3">
-        <v>2</v>
-      </c>
-      <c r="R107" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" ht="26" spans="3:18">
+        <v>2</v>
+      </c>
+      <c r="M107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13">
       <c r="C108" s="3">
-        <v>5000040</v>
+        <v>5000029</v>
       </c>
       <c r="D108" s="3">
         <v>4</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J108" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>4</v>
-      </c>
-      <c r="R108" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M108" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="3:18">
       <c r="C109" s="3">
-        <v>5000041</v>
+        <v>5000030</v>
       </c>
       <c r="D109" s="3">
         <v>4</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J109" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M109" s="3">
+        <v>2</v>
       </c>
       <c r="R109" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="26" spans="3:18">
       <c r="C110" s="3">
-        <v>5000042</v>
+        <v>5000031</v>
       </c>
       <c r="D110" s="3">
         <v>4</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J110" s="3">
         <v>2</v>
       </c>
-      <c r="Q110" s="3">
-        <v>2</v>
+      <c r="M110" s="3">
+        <v>3</v>
       </c>
       <c r="R110" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" ht="26" spans="3:18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="3:15">
       <c r="C111" s="3">
-        <v>5000043</v>
+        <v>5000032</v>
       </c>
       <c r="D111" s="3">
         <v>4</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J111" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>2</v>
-      </c>
-      <c r="R111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>2</v>
+      </c>
+      <c r="O111" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="112" ht="26" spans="3:17">
       <c r="C112" s="3">
+        <v>5000033</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2</v>
+      </c>
+      <c r="M112" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:18">
+      <c r="C113" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J113" s="3">
+        <v>2</v>
+      </c>
+      <c r="O113" s="3">
+        <v>2</v>
+      </c>
+      <c r="R113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:18">
+      <c r="C114" s="3">
+        <v>5000035</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="O114" s="3">
+        <v>2</v>
+      </c>
+      <c r="R114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" ht="26" spans="3:18">
+      <c r="C115" s="3">
+        <v>5000036</v>
+      </c>
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J115" s="3">
+        <v>8</v>
+      </c>
+      <c r="O115" s="3">
+        <v>2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="26" spans="3:17">
+      <c r="C116" s="3">
+        <v>5000037</v>
+      </c>
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J116" s="3">
+        <v>2</v>
+      </c>
+      <c r="O116" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" ht="26" spans="3:15">
+      <c r="C117" s="3">
+        <v>5000038</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" s="3">
+        <v>6</v>
+      </c>
+      <c r="N117" s="3">
+        <v>5</v>
+      </c>
+      <c r="O117" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" ht="26" spans="3:18">
+      <c r="C118" s="3">
+        <v>5000039</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J118" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>2</v>
+      </c>
+      <c r="R118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="26" spans="3:18">
+      <c r="C119" s="3">
+        <v>5000040</v>
+      </c>
+      <c r="D119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J119" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>4</v>
+      </c>
+      <c r="R119" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18">
+      <c r="C120" s="3">
+        <v>5000041</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J120" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>3</v>
+      </c>
+      <c r="R120" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" ht="26" spans="3:18">
+      <c r="C121" s="3">
+        <v>5000042</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J121" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>2</v>
+      </c>
+      <c r="R121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" ht="26" spans="3:18">
+      <c r="C122" s="3">
+        <v>5000043</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J122" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>2</v>
+      </c>
+      <c r="R122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" ht="26" spans="3:17">
+      <c r="C123" s="3">
         <v>5000044</v>
       </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J112" s="3">
-        <v>2</v>
-      </c>
-      <c r="P112" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="3:17">
-      <c r="C113" s="3">
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="P123" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:17">
+      <c r="C124" s="3">
         <v>5000045</v>
       </c>
-      <c r="D113" s="3">
-        <v>4</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J113" s="3">
-        <v>2</v>
-      </c>
-      <c r="P113" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q113" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" ht="39" spans="3:17">
-      <c r="C114" s="3">
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="P124" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" ht="39" spans="3:17">
+      <c r="C125" s="3">
         <v>5000046</v>
       </c>
-      <c r="D114" s="3">
-        <v>4</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J114" s="3">
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J125" s="3">
         <v>3</v>
       </c>
-      <c r="N114" s="3">
+      <c r="N125" s="3">
         <v>3</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="Q125" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="3:16">
-      <c r="C115" s="3">
+    <row r="126" spans="3:16">
+      <c r="C126" s="3">
         <v>5000047</v>
       </c>
-      <c r="D115" s="3">
-        <v>4</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J115" s="3">
-        <v>2</v>
-      </c>
-      <c r="N115" s="3">
-        <v>2</v>
-      </c>
-      <c r="P115" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="39" spans="3:16">
-      <c r="C116" s="3">
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J126" s="3">
+        <v>2</v>
+      </c>
+      <c r="N126" s="3">
+        <v>2</v>
+      </c>
+      <c r="P126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="39" spans="3:16">
+      <c r="C127" s="3">
         <v>5000048</v>
       </c>
-      <c r="D116" s="3">
-        <v>4</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J116" s="3">
-        <v>2</v>
-      </c>
-      <c r="M116" s="3">
-        <v>2</v>
-      </c>
-      <c r="P116" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="3:13">
-      <c r="C117" s="3">
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J127" s="3">
+        <v>2</v>
+      </c>
+      <c r="M127" s="3">
+        <v>2</v>
+      </c>
+      <c r="P127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13">
+      <c r="C128" s="3">
         <v>5000049</v>
       </c>
-      <c r="D117" s="3">
-        <v>4</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M117" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="3:13">
-      <c r="C118" s="3">
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13">
+      <c r="C129" s="3">
         <v>5000050</v>
       </c>
-      <c r="D118" s="3">
-        <v>4</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M118" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="3:13">
-      <c r="C119" s="3">
+      <c r="D129" s="3">
+        <v>4</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="C130" s="3">
         <v>5000051</v>
       </c>
-      <c r="D119" s="3">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M119" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="3:13">
-      <c r="C120" s="3">
+      <c r="D130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M130" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13">
+      <c r="C131" s="3">
         <v>5000052</v>
       </c>
-      <c r="D120" s="3">
-        <v>4</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M120" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="3:13">
-      <c r="C121" s="3">
+      <c r="D131" s="3">
+        <v>4</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="C132" s="3">
         <v>5000053</v>
       </c>
-      <c r="D121" s="3">
-        <v>4</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M121" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="3:13">
-      <c r="C122" s="3">
+      <c r="D132" s="3">
+        <v>4</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13">
+      <c r="C133" s="3">
         <v>5000054</v>
       </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="M122" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="3:13">
-      <c r="C123" s="3">
+      <c r="D133" s="3">
+        <v>4</v>
+      </c>
+      <c r="M133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13">
+      <c r="C134" s="3">
         <v>5000055</v>
       </c>
-      <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="M123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:13">
-      <c r="C124" s="3">
+      <c r="D134" s="3">
+        <v>4</v>
+      </c>
+      <c r="M134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13">
+      <c r="C135" s="3">
         <v>5000056</v>
       </c>
-      <c r="D124" s="3">
-        <v>4</v>
-      </c>
-      <c r="M124" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" ht="39" spans="8:8">
-      <c r="H125" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" ht="26" spans="8:8">
-      <c r="H126" s="4" t="s">
-        <v>233</v>
+      <c r="D135" s="3">
+        <v>4</v>
+      </c>
+      <c r="M135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" ht="39" spans="8:8">
+      <c r="H136" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" ht="26" spans="8:8">
+      <c r="H137" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
   <si>
     <t>#</t>
   </si>
@@ -409,6 +409,12 @@
     <t>对一个角色造成2点伤害</t>
   </si>
   <si>
+    <t>光环怪</t>
+  </si>
+  <si>
+    <t>你的所有单位获得+1/+1</t>
+  </si>
+  <si>
     <t>测试战术</t>
   </si>
   <si>
@@ -478,9 +484,6 @@
     <t>生命共鸣</t>
   </si>
   <si>
-    <t>你的所有单位获得+1/+1</t>
-  </si>
-  <si>
     <t>根须增生</t>
   </si>
   <si>
@@ -725,6 +728,12 @@
   </si>
   <si>
     <t>使一个敌方单位+2攻击，并对其相邻单位造成其攻击力的伤害</t>
+  </si>
+  <si>
+    <t>亵渎</t>
+  </si>
+  <si>
+    <t>对所有单位造成1点伤害，每有一个单位死亡，重复一次此效果</t>
   </si>
 </sst>
 </file>
@@ -1736,12 +1745,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG137"/>
+  <dimension ref="C2:AG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4536,7 +4545,7 @@
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
     </row>
-    <row r="64" spans="3:18">
+    <row r="64" spans="3:22">
       <c r="C64" s="7">
         <v>3000006</v>
       </c>
@@ -4550,16 +4559,31 @@
         <v>123</v>
       </c>
       <c r="J64" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" s="3">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
       </c>
       <c r="O64" s="3">
         <v>3</v>
       </c>
       <c r="R64" s="3">
         <v>3</v>
+      </c>
+      <c r="S64" s="3">
+        <v>1007</v>
+      </c>
+      <c r="T64" s="3">
+        <v>2</v>
+      </c>
+      <c r="U64" s="3">
+        <v>3000006</v>
+      </c>
+      <c r="V64" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="1" ht="14" spans="3:33">
@@ -4769,21 +4793,37 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
+      <c r="S69" s="3">
+        <v>1015</v>
+      </c>
+      <c r="T69" s="3">
+        <v>3</v>
+      </c>
+      <c r="U69" s="3">
+        <v>1</v>
+      </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
@@ -5130,86 +5170,103 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="3:33">
+    <row r="79" customFormat="1" spans="3:33">
       <c r="C79" s="7">
+        <v>3000021</v>
+      </c>
+      <c r="D79" s="7">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="3:33">
+      <c r="C80" s="7">
         <v>4000001</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="7">
         <v>7</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H79" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I79" s="8"/>
-      <c r="J79" s="7">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="7">
         <v>0</v>
       </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="8">
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="8">
         <v>1012</v>
       </c>
-      <c r="T79" s="8">
+      <c r="T80" s="8">
         <v>6</v>
       </c>
-      <c r="U79" s="7">
+      <c r="U80" s="7">
         <v>3</v>
       </c>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="7"/>
-    </row>
-    <row r="80" spans="3:15">
-      <c r="C80" s="3">
-        <v>5000001</v>
-      </c>
-      <c r="D80" s="3">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J80" s="3">
-        <v>2</v>
-      </c>
-      <c r="O80" s="3">
-        <v>2</v>
-      </c>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
     </row>
     <row r="81" spans="3:15">
       <c r="C81" s="3">
-        <v>5000002</v>
+        <v>5000001</v>
       </c>
       <c r="D81" s="3">
         <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>136</v>
@@ -5218,15 +5275,15 @@
         <v>137</v>
       </c>
       <c r="J81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
       <c r="C82" s="3">
-        <v>5000003</v>
+        <v>5000002</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -5238,15 +5295,15 @@
         <v>139</v>
       </c>
       <c r="J82" s="3">
+        <v>3</v>
+      </c>
+      <c r="O82" s="3">
         <v>6</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="83" spans="3:17">
       <c r="C83" s="3">
-        <v>5000004</v>
+        <v>5000003</v>
       </c>
       <c r="D83" s="3">
         <v>4</v>
@@ -5258,15 +5315,15 @@
         <v>141</v>
       </c>
       <c r="J83" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="3:17">
       <c r="C84" s="3">
-        <v>5000005</v>
+        <v>5000004</v>
       </c>
       <c r="D84" s="3">
         <v>4</v>
@@ -5278,15 +5335,15 @@
         <v>143</v>
       </c>
       <c r="J84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q84" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="3:17">
       <c r="C85" s="3">
-        <v>5000006</v>
+        <v>5000005</v>
       </c>
       <c r="D85" s="3">
         <v>4</v>
@@ -5298,15 +5355,15 @@
         <v>145</v>
       </c>
       <c r="J85" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q85" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:17">
       <c r="C86" s="3">
-        <v>5000007</v>
+        <v>5000006</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
@@ -5324,9 +5381,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:16">
+    <row r="87" spans="3:17">
       <c r="C87" s="3">
-        <v>5000008</v>
+        <v>5000007</v>
       </c>
       <c r="D87" s="3">
         <v>4</v>
@@ -5340,13 +5397,13 @@
       <c r="J87" s="3">
         <v>2</v>
       </c>
-      <c r="P87" s="3">
-        <v>2</v>
+      <c r="Q87" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="3:16">
       <c r="C88" s="3">
-        <v>5000009</v>
+        <v>5000008</v>
       </c>
       <c r="D88" s="3">
         <v>4</v>
@@ -5366,7 +5423,7 @@
     </row>
     <row r="89" spans="3:16">
       <c r="C89" s="3">
-        <v>5000010</v>
+        <v>5000009</v>
       </c>
       <c r="D89" s="3">
         <v>4</v>
@@ -5378,15 +5435,15 @@
         <v>153</v>
       </c>
       <c r="J89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="90" ht="26" spans="3:16">
+    <row r="90" spans="3:16">
       <c r="C90" s="3">
-        <v>5000011</v>
+        <v>5000010</v>
       </c>
       <c r="D90" s="3">
         <v>4</v>
@@ -5395,7 +5452,7 @@
         <v>154</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -5406,16 +5463,16 @@
     </row>
     <row r="91" ht="26" spans="3:16">
       <c r="C91" s="3">
-        <v>5000012</v>
+        <v>5000011</v>
       </c>
       <c r="D91" s="3">
         <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="J91" s="3">
         <v>1</v>
@@ -5424,18 +5481,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" ht="39" spans="3:17">
+    <row r="92" ht="26" spans="3:16">
       <c r="C92" s="3">
-        <v>5000013</v>
+        <v>5000012</v>
       </c>
       <c r="D92" s="3">
         <v>4</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
@@ -5443,120 +5500,120 @@
       <c r="P92" s="3">
         <v>2</v>
       </c>
-      <c r="Q92" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="26" spans="3:16">
+    </row>
+    <row r="93" ht="39" spans="3:17">
       <c r="C93" s="3">
-        <v>5000014</v>
+        <v>5000013</v>
       </c>
       <c r="D93" s="3">
         <v>4</v>
       </c>
       <c r="G93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="J93" s="3">
         <v>1</v>
       </c>
-      <c r="O93" s="3">
-        <v>2</v>
-      </c>
       <c r="P93" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="3:21">
+      <c r="Q93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="26" spans="3:16">
       <c r="C94" s="3">
+        <v>5000014</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <v>2</v>
+      </c>
+      <c r="P94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21">
+      <c r="C95" s="3">
         <v>5000015</v>
       </c>
-      <c r="D94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H94" s="4" t="s">
+      <c r="D95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I94" s="4">
+      <c r="H95" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I95" s="4">
         <v>1</v>
       </c>
-      <c r="J94" s="3">
-        <v>2</v>
-      </c>
-      <c r="N94" s="3">
-        <v>2</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="J95" s="3">
+        <v>2</v>
+      </c>
+      <c r="N95" s="3">
+        <v>2</v>
+      </c>
+      <c r="S95" s="3">
         <v>1013</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T95" s="3">
         <v>6</v>
       </c>
-      <c r="U94" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14">
-      <c r="C95" s="3">
+      <c r="U95" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="3">
         <v>5000016</v>
       </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H95" s="4" t="s">
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J95" s="3">
+      <c r="H96" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96" s="3">
         <v>5</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N96" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="3:18">
-      <c r="C96" s="3">
-        <v>5000017</v>
-      </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J96" s="3">
-        <v>1</v>
-      </c>
-      <c r="R96" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="97" spans="3:18">
       <c r="C97" s="3">
-        <v>5000018</v>
+        <v>5000017</v>
       </c>
       <c r="D97" s="3">
         <v>4</v>
       </c>
       <c r="G97" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="J97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R97" s="3">
         <v>2</v>
@@ -5564,16 +5621,16 @@
     </row>
     <row r="98" spans="3:18">
       <c r="C98" s="3">
-        <v>5000019</v>
+        <v>5000018</v>
       </c>
       <c r="D98" s="3">
         <v>4</v>
       </c>
       <c r="G98" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="J98" s="3">
         <v>2</v>
@@ -5584,16 +5641,16 @@
     </row>
     <row r="99" spans="3:18">
       <c r="C99" s="3">
-        <v>5000020</v>
+        <v>5000019</v>
       </c>
       <c r="D99" s="3">
         <v>4</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
@@ -5604,19 +5661,19 @@
     </row>
     <row r="100" spans="3:18">
       <c r="C100" s="3">
-        <v>5000021</v>
+        <v>5000020</v>
       </c>
       <c r="D100" s="3">
         <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R100" s="3">
         <v>2</v>
@@ -5624,618 +5681,624 @@
     </row>
     <row r="101" spans="3:18">
       <c r="C101" s="3">
-        <v>5000022</v>
+        <v>5000021</v>
       </c>
       <c r="D101" s="3">
         <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>176</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18">
+      <c r="C102" s="3">
+        <v>5000022</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J102" s="3">
         <v>6</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R102" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="3:13">
-      <c r="C102" s="3">
+    <row r="103" spans="3:13">
+      <c r="C103" s="3">
         <v>5000023</v>
       </c>
-      <c r="D102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H102" s="4" t="s">
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J102" s="3">
+      <c r="H103" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J103" s="3">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M103" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="103" ht="26" spans="3:13">
-      <c r="C103" s="3">
-        <v>5000024</v>
-      </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J103" s="3">
-        <v>2</v>
-      </c>
-      <c r="M103" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="104" ht="26" spans="3:13">
       <c r="C104" s="3">
-        <v>5000025</v>
+        <v>5000024</v>
       </c>
       <c r="D104" s="3">
         <v>4</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="J104" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M104" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="26" spans="3:13">
       <c r="C105" s="3">
-        <v>5000026</v>
+        <v>5000025</v>
       </c>
       <c r="D105" s="3">
         <v>4</v>
       </c>
       <c r="G105" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="J105" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M105" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="26" spans="3:13">
       <c r="C106" s="3">
+        <v>5000026</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J106" s="3">
+        <v>4</v>
+      </c>
+      <c r="M106" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" ht="26" spans="3:13">
+      <c r="C107" s="3">
         <v>5000027</v>
       </c>
-      <c r="D106" s="3">
-        <v>4</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H106" s="4" t="s">
+      <c r="D107" s="3">
+        <v>4</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J106" s="3">
+      <c r="H107" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J107" s="3">
         <v>1</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M107" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="3:13">
-      <c r="C107" s="3">
-        <v>5000028</v>
-      </c>
-      <c r="D107" s="3">
-        <v>4</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J107" s="3">
-        <v>2</v>
-      </c>
-      <c r="M107" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="108" spans="3:13">
       <c r="C108" s="3">
+        <v>5000028</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
+      <c r="M108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13">
+      <c r="C109" s="3">
         <v>5000029</v>
       </c>
-      <c r="D108" s="3">
-        <v>4</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H108" s="4" t="s">
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J108" s="3">
+      <c r="H109" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J109" s="3">
         <v>0</v>
       </c>
-      <c r="M108" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="3:18">
-      <c r="C109" s="3">
+      <c r="M109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:18">
+      <c r="C110" s="3">
         <v>5000030</v>
       </c>
-      <c r="D109" s="3">
-        <v>4</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H109" s="4" t="s">
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J109" s="3">
-        <v>2</v>
-      </c>
-      <c r="M109" s="3">
-        <v>2</v>
-      </c>
-      <c r="R109" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" ht="26" spans="3:18">
-      <c r="C110" s="3">
+      <c r="H110" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="M110" s="3">
+        <v>2</v>
+      </c>
+      <c r="R110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="26" spans="3:18">
+      <c r="C111" s="3">
         <v>5000031</v>
       </c>
-      <c r="D110" s="3">
-        <v>4</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H110" s="4" t="s">
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J110" s="3">
-        <v>2</v>
-      </c>
-      <c r="M110" s="3">
+      <c r="H111" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J111" s="3">
+        <v>2</v>
+      </c>
+      <c r="M111" s="3">
         <v>3</v>
       </c>
-      <c r="R110" s="3">
+      <c r="R111" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="3:15">
-      <c r="C111" s="3">
+    <row r="112" spans="3:15">
+      <c r="C112" s="3">
         <v>5000032</v>
       </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H111" s="4" t="s">
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J111" s="3">
+      <c r="H112" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J112" s="3">
         <v>0</v>
       </c>
-      <c r="M111" s="3">
-        <v>2</v>
-      </c>
-      <c r="O111" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" ht="26" spans="3:17">
-      <c r="C112" s="3">
+      <c r="M112" s="3">
+        <v>2</v>
+      </c>
+      <c r="O112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" ht="26" spans="3:17">
+      <c r="C113" s="3">
         <v>5000033</v>
       </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H112" s="4" t="s">
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J112" s="3">
-        <v>2</v>
-      </c>
-      <c r="M112" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="3:18">
-      <c r="C113" s="3">
-        <v>5000034</v>
-      </c>
-      <c r="D113" s="3">
-        <v>4</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="J113" s="3">
         <v>2</v>
       </c>
-      <c r="O113" s="3">
-        <v>2</v>
-      </c>
-      <c r="R113" s="3">
+      <c r="M113" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q113" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="3:18">
       <c r="C114" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="O114" s="3">
+        <v>2</v>
+      </c>
+      <c r="R114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:18">
+      <c r="C115" s="3">
         <v>5000035</v>
       </c>
-      <c r="D114" s="3">
-        <v>4</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H114" s="4" t="s">
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J114" s="3">
-        <v>2</v>
-      </c>
-      <c r="O114" s="3">
-        <v>2</v>
-      </c>
-      <c r="R114" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" ht="26" spans="3:18">
-      <c r="C115" s="3">
+      <c r="H115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J115" s="3">
+        <v>2</v>
+      </c>
+      <c r="O115" s="3">
+        <v>2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="26" spans="3:18">
+      <c r="C116" s="3">
         <v>5000036</v>
       </c>
-      <c r="D115" s="3">
-        <v>4</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H115" s="4" t="s">
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J115" s="3">
+      <c r="H116" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" s="3">
         <v>8</v>
       </c>
-      <c r="O115" s="3">
-        <v>2</v>
-      </c>
-      <c r="R115" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="26" spans="3:17">
-      <c r="C116" s="3">
+      <c r="O116" s="3">
+        <v>2</v>
+      </c>
+      <c r="R116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="26" spans="3:17">
+      <c r="C117" s="3">
         <v>5000037</v>
       </c>
-      <c r="D116" s="3">
-        <v>4</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H116" s="4" t="s">
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J116" s="3">
-        <v>2</v>
-      </c>
-      <c r="O116" s="3">
+      <c r="H117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J117" s="3">
+        <v>2</v>
+      </c>
+      <c r="O117" s="3">
         <v>10</v>
       </c>
-      <c r="Q116" s="3">
+      <c r="Q117" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="117" ht="26" spans="3:15">
-      <c r="C117" s="3">
+    <row r="118" ht="26" spans="3:15">
+      <c r="C118" s="3">
         <v>5000038</v>
       </c>
-      <c r="D117" s="3">
-        <v>4</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H117" s="4" t="s">
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J117" s="3">
+      <c r="H118" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118" s="3">
         <v>6</v>
       </c>
-      <c r="N117" s="3">
+      <c r="N118" s="3">
         <v>5</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O118" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="118" ht="26" spans="3:18">
-      <c r="C118" s="3">
-        <v>5000039</v>
-      </c>
-      <c r="D118" s="3">
-        <v>4</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J118" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q118" s="3">
-        <v>2</v>
-      </c>
-      <c r="R118" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="119" ht="26" spans="3:18">
       <c r="C119" s="3">
+        <v>5000039</v>
+      </c>
+      <c r="D119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J119" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>2</v>
+      </c>
+      <c r="R119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" ht="26" spans="3:18">
+      <c r="C120" s="3">
         <v>5000040</v>
       </c>
-      <c r="D119" s="3">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H119" s="4" t="s">
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J119" s="3">
+      <c r="H120" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J120" s="3">
         <v>6</v>
       </c>
-      <c r="Q119" s="3">
-        <v>4</v>
-      </c>
-      <c r="R119" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="3:18">
-      <c r="C120" s="3">
+      <c r="Q120" s="3">
+        <v>4</v>
+      </c>
+      <c r="R120" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="3:18">
+      <c r="C121" s="3">
         <v>5000041</v>
       </c>
-      <c r="D120" s="3">
-        <v>4</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H120" s="4" t="s">
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J120" s="3">
+      <c r="H121" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J121" s="3">
         <v>1</v>
       </c>
-      <c r="Q120" s="3">
+      <c r="Q121" s="3">
         <v>3</v>
       </c>
-      <c r="R120" s="3">
+      <c r="R121" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="121" ht="26" spans="3:18">
-      <c r="C121" s="3">
-        <v>5000042</v>
-      </c>
-      <c r="D121" s="3">
-        <v>4</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J121" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q121" s="3">
-        <v>2</v>
-      </c>
-      <c r="R121" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="122" ht="26" spans="3:18">
       <c r="C122" s="3">
+        <v>5000042</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J122" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>2</v>
+      </c>
+      <c r="R122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" ht="26" spans="3:18">
+      <c r="C123" s="3">
         <v>5000043</v>
       </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H122" s="4" t="s">
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J122" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>2</v>
-      </c>
-      <c r="R122" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" ht="26" spans="3:17">
-      <c r="C123" s="3">
+      <c r="H123" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>2</v>
+      </c>
+      <c r="R123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="26" spans="3:17">
+      <c r="C124" s="3">
         <v>5000044</v>
       </c>
-      <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H123" s="4" t="s">
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="P123" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:17">
-      <c r="C124" s="3">
+      <c r="H124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="P124" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:17">
+      <c r="C125" s="3">
         <v>5000045</v>
       </c>
-      <c r="D124" s="3">
-        <v>4</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H124" s="4" t="s">
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J124" s="3">
-        <v>2</v>
-      </c>
-      <c r="P124" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" ht="39" spans="3:17">
-      <c r="C125" s="3">
+      <c r="H125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J125" s="3">
+        <v>2</v>
+      </c>
+      <c r="P125" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" ht="39" spans="3:17">
+      <c r="C126" s="3">
         <v>5000046</v>
       </c>
-      <c r="D125" s="3">
-        <v>4</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H125" s="4" t="s">
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J125" s="3">
+      <c r="H126" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J126" s="3">
         <v>3</v>
       </c>
-      <c r="N125" s="3">
+      <c r="N126" s="3">
         <v>3</v>
       </c>
-      <c r="Q125" s="3">
+      <c r="Q126" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="3:16">
-      <c r="C126" s="3">
+    <row r="127" spans="3:16">
+      <c r="C127" s="3">
         <v>5000047</v>
       </c>
-      <c r="D126" s="3">
-        <v>4</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H126" s="4" t="s">
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J126" s="3">
-        <v>2</v>
-      </c>
-      <c r="N126" s="3">
-        <v>2</v>
-      </c>
-      <c r="P126" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" ht="39" spans="3:16">
-      <c r="C127" s="3">
+      <c r="H127" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J127" s="3">
+        <v>2</v>
+      </c>
+      <c r="N127" s="3">
+        <v>2</v>
+      </c>
+      <c r="P127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" ht="39" spans="3:16">
+      <c r="C128" s="3">
         <v>5000048</v>
       </c>
-      <c r="D127" s="3">
-        <v>4</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H127" s="4" t="s">
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J127" s="3">
-        <v>2</v>
-      </c>
-      <c r="M127" s="3">
-        <v>2</v>
-      </c>
-      <c r="P127" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="3:13">
-      <c r="C128" s="3">
-        <v>5000049</v>
-      </c>
-      <c r="D128" s="3">
-        <v>4</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="4" t="s">
         <v>229</v>
       </c>
+      <c r="J128" s="3">
+        <v>2</v>
+      </c>
       <c r="M128" s="3">
+        <v>2</v>
+      </c>
+      <c r="P128" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="3:13">
       <c r="C129" s="3">
-        <v>5000050</v>
+        <v>5000049</v>
       </c>
       <c r="D129" s="3">
         <v>4</v>
@@ -6249,7 +6312,7 @@
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="3">
-        <v>5000051</v>
+        <v>5000050</v>
       </c>
       <c r="D130" s="3">
         <v>4</v>
@@ -6263,7 +6326,7 @@
     </row>
     <row r="131" spans="3:13">
       <c r="C131" s="3">
-        <v>5000052</v>
+        <v>5000051</v>
       </c>
       <c r="D131" s="3">
         <v>4</v>
@@ -6277,7 +6340,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="3">
-        <v>5000053</v>
+        <v>5000052</v>
       </c>
       <c r="D132" s="3">
         <v>4</v>
@@ -6291,10 +6354,13 @@
     </row>
     <row r="133" spans="3:13">
       <c r="C133" s="3">
-        <v>5000054</v>
+        <v>5000053</v>
       </c>
       <c r="D133" s="3">
         <v>4</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="M133" s="3">
         <v>2</v>
@@ -6302,7 +6368,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="3">
-        <v>5000055</v>
+        <v>5000054</v>
       </c>
       <c r="D134" s="3">
         <v>4</v>
@@ -6313,23 +6379,139 @@
     </row>
     <row r="135" spans="3:13">
       <c r="C135" s="3">
+        <v>5000055</v>
+      </c>
+      <c r="D135" s="3">
+        <v>4</v>
+      </c>
+      <c r="M135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13">
+      <c r="C136" s="3">
         <v>5000056</v>
       </c>
-      <c r="D135" s="3">
-        <v>4</v>
-      </c>
-      <c r="M135" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" ht="39" spans="8:8">
-      <c r="H136" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="137" ht="26" spans="8:8">
+      <c r="D136" s="3">
+        <v>4</v>
+      </c>
+      <c r="M136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" ht="39" spans="3:8">
+      <c r="C137" s="3">
+        <v>5000057</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4</v>
+      </c>
       <c r="H137" s="4" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="138" ht="26" spans="3:8">
+      <c r="C138" s="3">
+        <v>5000058</v>
+      </c>
+      <c r="D138" s="3">
+        <v>4</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" ht="26" spans="3:21">
+      <c r="C139" s="3">
+        <v>5000059</v>
+      </c>
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2</v>
+      </c>
+      <c r="O139" s="3">
+        <v>3</v>
+      </c>
+      <c r="S139" s="3">
+        <v>1014</v>
+      </c>
+      <c r="T139" s="3">
+        <v>6</v>
+      </c>
+      <c r="U139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140" s="3">
+        <v>5000060</v>
+      </c>
+      <c r="D140" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141" s="3">
+        <v>5000061</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142" s="3">
+        <v>5000062</v>
+      </c>
+      <c r="D142" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" s="3">
+        <v>5000063</v>
+      </c>
+      <c r="D143" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144" s="3">
+        <v>5000064</v>
+      </c>
+      <c r="D144" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="3">
+        <v>5000065</v>
+      </c>
+      <c r="D145" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="3">
+        <v>5000066</v>
+      </c>
+      <c r="D146" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" s="3">
+        <v>5000067</v>
+      </c>
+      <c r="D147" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18750" windowHeight="17060"/>
+    <workbookView windowWidth="18530" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="CardProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
   <si>
     <t>#</t>
   </si>
@@ -136,25 +136,29 @@
     <t>[亡军末将]</t>
   </si>
   <si>
-    <t>冲锋，一回合可以攻击两次</t>
+    <t>星典，冲锋
+一回合可以攻击两次</t>
   </si>
   <si>
     <t>[算法]</t>
   </si>
   <si>
-    <t>你的对手无法使用手牌</t>
+    <t>星典
+你的对手无法使用手牌</t>
   </si>
   <si>
     <t>[谎言践行]</t>
   </si>
   <si>
-    <t>你的法术不消耗资源</t>
+    <t>星典
+你的法术不消耗资源</t>
   </si>
   <si>
     <t>[海底火山]</t>
   </si>
   <si>
-    <t>免疫，你的英雄获得免疫</t>
+    <t>星典
+你的英雄获得免疫</t>
   </si>
   <si>
     <t>测试英雄</t>
@@ -218,7 +222,7 @@
   </si>
   <si>
     <t>你的法术不会产生任何效果
-回合结束时，随机对一个敌方角色造成1点伤害</t>
+回合结束时，随机对一个敌方角色造成2点伤害</t>
   </si>
   <si>
     <t>天蝎座 “国王“</t>
@@ -394,7 +398,7 @@
     <t>根生藤曼</t>
   </si>
   <si>
-    <t>摇摆粉丝</t>
+    <t>真爱粉丝</t>
   </si>
   <si>
     <t>尖刚傀儡</t>
@@ -415,6 +419,15 @@
     <t>你的所有单位获得+1/+1</t>
   </si>
   <si>
+    <t>破坏者</t>
+  </si>
+  <si>
+    <t>部署：沉默一个单位</t>
+  </si>
+  <si>
+    <t>红龙</t>
+  </si>
+  <si>
     <t>测试战术</t>
   </si>
   <si>
@@ -424,6 +437,12 @@
     <t>抽3张卡</t>
   </si>
   <si>
+    <t>工业基础</t>
+  </si>
+  <si>
+    <t>获得所有类型的资质各3点</t>
+  </si>
+  <si>
     <t>测试法术</t>
   </si>
   <si>
@@ -511,7 +530,7 @@
     <t>隧穿</t>
   </si>
   <si>
-    <t>对目标造成4点伤害</t>
+    <t>对目标角色造成4点伤害</t>
   </si>
   <si>
     <t>无敌</t>
@@ -607,7 +626,7 @@
     <t>随机消灭1个敌方单位，每有一层堆叠额外消灭1个</t>
   </si>
   <si>
-    <t>红龙</t>
+    <t>红龙之铃</t>
   </si>
   <si>
     <t>召唤一条红龙</t>
@@ -730,10 +749,37 @@
     <t>使一个敌方单位+2攻击，并对其相邻单位造成其攻击力的伤害</t>
   </si>
   <si>
-    <t>亵渎</t>
+    <t>死亡螺旋</t>
   </si>
   <si>
     <t>对所有单位造成1点伤害，每有一个单位死亡，重复一次此效果</t>
+  </si>
+  <si>
+    <t>熔炉火核</t>
+  </si>
+  <si>
+    <t>对所有单位造成6伤害</t>
+  </si>
+  <si>
+    <t>复活你的一个干员</t>
+  </si>
+  <si>
+    <t>元素增殖</t>
+  </si>
+  <si>
+    <t>获得2点元素资质</t>
+  </si>
+  <si>
+    <t>记忆搜索</t>
+  </si>
+  <si>
+    <t>发现并复制牌库中的1张卡</t>
+  </si>
+  <si>
+    <t>记忆递归</t>
+  </si>
+  <si>
+    <t>发现并复制牌库中的2张卡</t>
   </si>
 </sst>
 </file>
@@ -919,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,10 +1283,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,16 +1295,16 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,10 +1316,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,28 +1340,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1318,19 +1370,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,38 +1391,41 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1396,6 +1448,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1745,12 +1803,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG147"/>
+  <dimension ref="C2:AG157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2024,7 +2082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:24">
+    <row r="6" ht="26" spans="3:24">
       <c r="C6" s="3">
         <v>101</v>
       </c>
@@ -2056,7 +2114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" ht="26" spans="3:20">
       <c r="C7" s="3">
         <v>102</v>
       </c>
@@ -2088,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" ht="26" spans="3:20">
       <c r="C8" s="3">
         <v>103</v>
       </c>
@@ -2120,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:24">
+    <row r="9" ht="26" spans="3:24">
       <c r="C9" s="3">
         <v>104</v>
       </c>
@@ -3020,7 +3078,7 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="8"/>
@@ -4303,7 +4361,7 @@
         <v>112</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -4529,8 +4587,12 @@
       <c r="R63" s="7">
         <v>2</v>
       </c>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
+      <c r="S63" s="8">
+        <v>1018</v>
+      </c>
+      <c r="T63" s="8">
+        <v>2</v>
+      </c>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
@@ -4552,7 +4614,7 @@
       <c r="D64" s="7">
         <v>3</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="10" t="s">
         <v>122</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -4641,7 +4703,9 @@
         <v>3</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
       <c r="G66" s="3" t="s">
         <v>125</v>
       </c>
@@ -4738,7 +4802,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="10" t="s">
         <v>128</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -4793,7 +4857,7 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="10" t="s">
         <v>130</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -4846,20 +4910,36 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="G70" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>2</v>
+      </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="S70" s="3">
+        <v>1017</v>
+      </c>
+      <c r="T70" s="3">
+        <v>1</v>
+      </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -4882,13 +4962,23 @@
         <v>3</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -5215,14 +5305,14 @@
         <v>7</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="7" t="s">
-        <v>133</v>
+      <c r="G80" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="7">
@@ -5258,1259 +5348,1729 @@
       <c r="AF80" s="7"/>
       <c r="AG80" s="7"/>
     </row>
-    <row r="81" spans="3:15">
-      <c r="C81" s="3">
+    <row r="81" s="1" customFormat="1" spans="3:33">
+      <c r="C81" s="7">
+        <v>4000002</v>
+      </c>
+      <c r="D81" s="7">
+        <v>7</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="3:33">
+      <c r="C82" s="7">
+        <v>4000003</v>
+      </c>
+      <c r="D82" s="7">
+        <v>7</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="3:33">
+      <c r="C83" s="7">
+        <v>4000004</v>
+      </c>
+      <c r="D83" s="7">
+        <v>7</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="3:33">
+      <c r="C84" s="7">
+        <v>4000005</v>
+      </c>
+      <c r="D84" s="7">
+        <v>7</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="3:33">
+      <c r="C85" s="7">
+        <v>4000006</v>
+      </c>
+      <c r="D85" s="7">
+        <v>7</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="3:33">
+      <c r="C86" s="7">
+        <v>4000007</v>
+      </c>
+      <c r="D86" s="7">
+        <v>7</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="3:33">
+      <c r="C87" s="7">
+        <v>4000008</v>
+      </c>
+      <c r="D87" s="7">
+        <v>7</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="3:33">
+      <c r="C88" s="7">
+        <v>4000009</v>
+      </c>
+      <c r="D88" s="7">
+        <v>7</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="3:33">
+      <c r="C89" s="7">
+        <v>4000010</v>
+      </c>
+      <c r="D89" s="7">
+        <v>7</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="3:33">
+      <c r="C90" s="7">
+        <v>4000011</v>
+      </c>
+      <c r="D90" s="7">
+        <v>7</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+    </row>
+    <row r="91" spans="3:15">
+      <c r="C91" s="3">
         <v>5000001</v>
       </c>
-      <c r="D81" s="3">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15">
-      <c r="C82" s="3">
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2</v>
+      </c>
+      <c r="O91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15">
+      <c r="C92" s="3">
         <v>5000002</v>
       </c>
-      <c r="D82" s="3">
-        <v>4</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J92" s="3">
         <v>3</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O92" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="3:17">
-      <c r="C83" s="3">
+    <row r="93" spans="3:20">
+      <c r="C93" s="3">
         <v>5000003</v>
       </c>
-      <c r="D83" s="3">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D93" s="3">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J93" s="3">
         <v>6</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q93" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17">
-      <c r="C84" s="3">
+      <c r="S93" s="3">
+        <v>1021</v>
+      </c>
+      <c r="T93" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17">
+      <c r="C94" s="3">
         <v>5000004</v>
       </c>
-      <c r="D84" s="3">
-        <v>4</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J84" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="3:17">
-      <c r="C85" s="3">
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17">
+      <c r="C95" s="3">
         <v>5000005</v>
       </c>
-      <c r="D85" s="3">
-        <v>4</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="D95" s="3">
+        <v>4</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J95" s="3">
         <v>3</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="Q95" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="3:17">
-      <c r="C86" s="3">
+    <row r="96" spans="3:17">
+      <c r="C96" s="3">
         <v>5000006</v>
       </c>
-      <c r="D86" s="3">
-        <v>4</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J86" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="3">
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:17">
-      <c r="C87" s="3">
+    <row r="97" spans="3:17">
+      <c r="C97" s="3">
         <v>5000007</v>
       </c>
-      <c r="D87" s="3">
-        <v>4</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J87" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="3">
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J97" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="3:16">
-      <c r="C88" s="3">
+    <row r="98" spans="3:16">
+      <c r="C98" s="3">
         <v>5000008</v>
       </c>
-      <c r="D88" s="3">
-        <v>4</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J88" s="3">
-        <v>2</v>
-      </c>
-      <c r="P88" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:16">
-      <c r="C89" s="3">
+      <c r="D98" s="3">
+        <v>4</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J98" s="3">
+        <v>2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16">
+      <c r="C99" s="3">
         <v>5000009</v>
       </c>
-      <c r="D89" s="3">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2</v>
-      </c>
-      <c r="P89" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16">
-      <c r="C90" s="3">
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J99" s="3">
+        <v>2</v>
+      </c>
+      <c r="P99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16">
+      <c r="C100" s="3">
         <v>5000010</v>
       </c>
-      <c r="D90" s="3">
-        <v>4</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H90" s="4" t="s">
+      <c r="D100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J90" s="3">
-        <v>1</v>
-      </c>
-      <c r="P90" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" ht="26" spans="3:16">
-      <c r="C91" s="3">
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+      <c r="P100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="26" spans="3:16">
+      <c r="C101" s="3">
         <v>5000011</v>
       </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1</v>
-      </c>
-      <c r="P91" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" ht="26" spans="3:16">
-      <c r="C92" s="3">
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" ht="26" spans="3:16">
+      <c r="C102" s="3">
         <v>5000012</v>
       </c>
-      <c r="D92" s="3">
-        <v>4</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
-      <c r="P92" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="39" spans="3:17">
-      <c r="C93" s="3">
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="P102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="39" spans="3:17">
+      <c r="C103" s="3">
         <v>5000013</v>
       </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J93" s="3">
-        <v>1</v>
-      </c>
-      <c r="P93" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" ht="26" spans="3:16">
-      <c r="C94" s="3">
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="26" spans="3:16">
+      <c r="C104" s="3">
         <v>5000014</v>
       </c>
-      <c r="D94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3">
-        <v>2</v>
-      </c>
-      <c r="P94" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21">
-      <c r="C95" s="3">
+      <c r="D104" s="3">
+        <v>4</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="O104" s="3">
+        <v>2</v>
+      </c>
+      <c r="P104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:21">
+      <c r="C105" s="3">
         <v>5000015</v>
       </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3">
-        <v>2</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2</v>
-      </c>
-      <c r="S95" s="3">
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+      <c r="J105" s="3">
+        <v>2</v>
+      </c>
+      <c r="N105" s="3">
+        <v>2</v>
+      </c>
+      <c r="S105" s="3">
         <v>1013</v>
       </c>
-      <c r="T95" s="3">
+      <c r="T105" s="3">
         <v>6</v>
       </c>
-      <c r="U95" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="3:14">
-      <c r="C96" s="3">
+      <c r="U105" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14">
+      <c r="C106" s="3">
         <v>5000016</v>
       </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J106" s="3">
         <v>5</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N106" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="3:18">
-      <c r="C97" s="3">
+    <row r="107" spans="3:18">
+      <c r="C107" s="3">
         <v>5000017</v>
       </c>
-      <c r="D97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J97" s="3">
-        <v>1</v>
-      </c>
-      <c r="R97" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="3:18">
-      <c r="C98" s="3">
+      <c r="D107" s="3">
+        <v>4</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+      <c r="R107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:20">
+      <c r="C108" s="3">
         <v>5000018</v>
       </c>
-      <c r="D98" s="3">
-        <v>4</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J98" s="3">
-        <v>2</v>
-      </c>
-      <c r="R98" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18">
-      <c r="C99" s="3">
+      <c r="D108" s="3">
+        <v>4</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I108" s="4">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3">
+        <v>3</v>
+      </c>
+      <c r="R108" s="3">
+        <v>2</v>
+      </c>
+      <c r="S108" s="3">
+        <v>1020</v>
+      </c>
+      <c r="T108" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="3:18">
+      <c r="C109" s="3">
         <v>5000019</v>
       </c>
-      <c r="D99" s="3">
-        <v>4</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J99" s="3">
-        <v>2</v>
-      </c>
-      <c r="R99" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18">
-      <c r="C100" s="3">
-        <v>5000020</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2</v>
-      </c>
-      <c r="R100" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18">
-      <c r="C101" s="3">
-        <v>5000021</v>
-      </c>
-      <c r="D101" s="3">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H101" s="4" t="s">
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18">
-      <c r="C102" s="3">
-        <v>5000022</v>
-      </c>
-      <c r="D102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H102" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J102" s="3">
-        <v>6</v>
-      </c>
-      <c r="R102" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="3:13">
-      <c r="C103" s="3">
-        <v>5000023</v>
-      </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J103" s="3">
-        <v>3</v>
-      </c>
-      <c r="M103" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" ht="26" spans="3:13">
-      <c r="C104" s="3">
-        <v>5000024</v>
-      </c>
-      <c r="D104" s="3">
-        <v>4</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J104" s="3">
-        <v>2</v>
-      </c>
-      <c r="M104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" ht="26" spans="3:13">
-      <c r="C105" s="3">
-        <v>5000025</v>
-      </c>
-      <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J105" s="3">
-        <v>10</v>
-      </c>
-      <c r="M105" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="26" spans="3:13">
-      <c r="C106" s="3">
-        <v>5000026</v>
-      </c>
-      <c r="D106" s="3">
-        <v>4</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J106" s="3">
-        <v>4</v>
-      </c>
-      <c r="M106" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" ht="26" spans="3:13">
-      <c r="C107" s="3">
-        <v>5000027</v>
-      </c>
-      <c r="D107" s="3">
-        <v>4</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J107" s="3">
-        <v>1</v>
-      </c>
-      <c r="M107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="3:13">
-      <c r="C108" s="3">
-        <v>5000028</v>
-      </c>
-      <c r="D108" s="3">
-        <v>4</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J108" s="3">
-        <v>2</v>
-      </c>
-      <c r="M108" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="3:13">
-      <c r="C109" s="3">
-        <v>5000029</v>
-      </c>
-      <c r="D109" s="3">
-        <v>4</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="J109" s="3">
-        <v>0</v>
-      </c>
-      <c r="M109" s="3">
+        <v>2</v>
+      </c>
+      <c r="R109" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="3:18">
       <c r="C110" s="3">
+        <v>5000020</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="R110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="3:18">
+      <c r="C111" s="3">
+        <v>5000021</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="R111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:18">
+      <c r="C112" s="3">
+        <v>5000022</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J112" s="3">
+        <v>6</v>
+      </c>
+      <c r="R112" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13">
+      <c r="C113" s="3">
+        <v>5000023</v>
+      </c>
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J113" s="3">
+        <v>3</v>
+      </c>
+      <c r="M113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" ht="26" spans="3:13">
+      <c r="C114" s="3">
+        <v>5000024</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="M114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" ht="26" spans="3:13">
+      <c r="C115" s="3">
+        <v>5000025</v>
+      </c>
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J115" s="3">
+        <v>10</v>
+      </c>
+      <c r="M115" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="26" spans="3:13">
+      <c r="C116" s="3">
+        <v>5000026</v>
+      </c>
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J116" s="3">
+        <v>4</v>
+      </c>
+      <c r="M116" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="26" spans="3:13">
+      <c r="C117" s="3">
+        <v>5000027</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118" s="3">
+        <v>5000028</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2</v>
+      </c>
+      <c r="M118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119" s="3">
+        <v>5000029</v>
+      </c>
+      <c r="D119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="M119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18">
+      <c r="C120" s="3">
         <v>5000030</v>
       </c>
-      <c r="D110" s="3">
-        <v>4</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J110" s="3">
-        <v>2</v>
-      </c>
-      <c r="M110" s="3">
-        <v>2</v>
-      </c>
-      <c r="R110" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" ht="26" spans="3:18">
-      <c r="C111" s="3">
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J120" s="3">
+        <v>2</v>
+      </c>
+      <c r="M120" s="3">
+        <v>2</v>
+      </c>
+      <c r="R120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="26" spans="3:18">
+      <c r="C121" s="3">
         <v>5000031</v>
       </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J111" s="3">
-        <v>2</v>
-      </c>
-      <c r="M111" s="3">
-        <v>3</v>
-      </c>
-      <c r="R111" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="3:15">
-      <c r="C112" s="3">
-        <v>5000032</v>
-      </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J112" s="3">
-        <v>0</v>
-      </c>
-      <c r="M112" s="3">
-        <v>2</v>
-      </c>
-      <c r="O112" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" ht="26" spans="3:17">
-      <c r="C113" s="3">
-        <v>5000033</v>
-      </c>
-      <c r="D113" s="3">
-        <v>4</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H113" s="4" t="s">
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J113" s="3">
-        <v>2</v>
-      </c>
-      <c r="M113" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q113" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="3:18">
-      <c r="C114" s="3">
-        <v>5000034</v>
-      </c>
-      <c r="D114" s="3">
-        <v>4</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="H121" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J114" s="3">
-        <v>2</v>
-      </c>
-      <c r="O114" s="3">
-        <v>2</v>
-      </c>
-      <c r="R114" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="3:18">
-      <c r="C115" s="3">
-        <v>5000035</v>
-      </c>
-      <c r="D115" s="3">
-        <v>4</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J115" s="3">
-        <v>2</v>
-      </c>
-      <c r="O115" s="3">
-        <v>2</v>
-      </c>
-      <c r="R115" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" ht="26" spans="3:18">
-      <c r="C116" s="3">
-        <v>5000036</v>
-      </c>
-      <c r="D116" s="3">
-        <v>4</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J116" s="3">
-        <v>8</v>
-      </c>
-      <c r="O116" s="3">
-        <v>2</v>
-      </c>
-      <c r="R116" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" ht="26" spans="3:17">
-      <c r="C117" s="3">
-        <v>5000037</v>
-      </c>
-      <c r="D117" s="3">
-        <v>4</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J117" s="3">
-        <v>2</v>
-      </c>
-      <c r="O117" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" ht="26" spans="3:15">
-      <c r="C118" s="3">
-        <v>5000038</v>
-      </c>
-      <c r="D118" s="3">
-        <v>4</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J118" s="3">
-        <v>6</v>
-      </c>
-      <c r="N118" s="3">
-        <v>5</v>
-      </c>
-      <c r="O118" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" ht="26" spans="3:18">
-      <c r="C119" s="3">
-        <v>5000039</v>
-      </c>
-      <c r="D119" s="3">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J119" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>2</v>
-      </c>
-      <c r="R119" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" ht="26" spans="3:18">
-      <c r="C120" s="3">
-        <v>5000040</v>
-      </c>
-      <c r="D120" s="3">
-        <v>4</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J120" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q120" s="3">
-        <v>4</v>
-      </c>
-      <c r="R120" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="3:18">
-      <c r="C121" s="3">
-        <v>5000041</v>
-      </c>
-      <c r="D121" s="3">
-        <v>4</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="J121" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="3">
+        <v>2</v>
+      </c>
+      <c r="M121" s="3">
         <v>3</v>
       </c>
       <c r="R121" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="26" spans="3:18">
+    <row r="122" spans="3:21">
       <c r="C122" s="3">
+        <v>5000032</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3">
+        <v>2</v>
+      </c>
+      <c r="O122" s="3">
+        <v>2</v>
+      </c>
+      <c r="S122" s="3">
+        <v>1019</v>
+      </c>
+      <c r="T122" s="3">
+        <v>6</v>
+      </c>
+      <c r="U122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="26" spans="3:17">
+      <c r="C123" s="3">
+        <v>5000033</v>
+      </c>
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="M123" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:18">
+      <c r="C124" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="O124" s="3">
+        <v>2</v>
+      </c>
+      <c r="R124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:18">
+      <c r="C125" s="3">
+        <v>5000035</v>
+      </c>
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J125" s="3">
+        <v>2</v>
+      </c>
+      <c r="O125" s="3">
+        <v>2</v>
+      </c>
+      <c r="R125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" ht="26" spans="3:18">
+      <c r="C126" s="3">
+        <v>5000036</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J126" s="3">
+        <v>8</v>
+      </c>
+      <c r="O126" s="3">
+        <v>2</v>
+      </c>
+      <c r="R126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="26" spans="3:17">
+      <c r="C127" s="3">
+        <v>5000037</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J127" s="3">
+        <v>2</v>
+      </c>
+      <c r="O127" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" ht="26" spans="3:15">
+      <c r="C128" s="3">
+        <v>5000038</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J128" s="3">
+        <v>6</v>
+      </c>
+      <c r="N128" s="3">
+        <v>5</v>
+      </c>
+      <c r="O128" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" ht="26" spans="3:18">
+      <c r="C129" s="3">
+        <v>5000039</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J129" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>2</v>
+      </c>
+      <c r="R129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="26" spans="3:18">
+      <c r="C130" s="3">
+        <v>5000040</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J130" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>4</v>
+      </c>
+      <c r="R130" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="3:18">
+      <c r="C131" s="3">
+        <v>5000041</v>
+      </c>
+      <c r="D131" s="3">
+        <v>4</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>3</v>
+      </c>
+      <c r="R131" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" ht="26" spans="3:18">
+      <c r="C132" s="3">
         <v>5000042</v>
       </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J122" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>2</v>
-      </c>
-      <c r="R122" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" ht="26" spans="3:18">
-      <c r="C123" s="3">
+      <c r="D132" s="3">
+        <v>4</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>2</v>
+      </c>
+      <c r="R132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" ht="26" spans="3:18">
+      <c r="C133" s="3">
         <v>5000043</v>
       </c>
-      <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>2</v>
-      </c>
-      <c r="R123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" ht="26" spans="3:17">
-      <c r="C124" s="3">
+      <c r="D133" s="3">
+        <v>4</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J133" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>2</v>
+      </c>
+      <c r="R133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" ht="26" spans="3:17">
+      <c r="C134" s="3">
         <v>5000044</v>
       </c>
-      <c r="D124" s="3">
-        <v>4</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J124" s="3">
-        <v>2</v>
-      </c>
-      <c r="P124" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="3:17">
-      <c r="C125" s="3">
+      <c r="D134" s="3">
+        <v>4</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J134" s="3">
+        <v>2</v>
+      </c>
+      <c r="P134" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:17">
+      <c r="C135" s="3">
         <v>5000045</v>
       </c>
-      <c r="D125" s="3">
-        <v>4</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J125" s="3">
-        <v>2</v>
-      </c>
-      <c r="P125" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" ht="39" spans="3:17">
-      <c r="C126" s="3">
+      <c r="D135" s="3">
+        <v>4</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J135" s="3">
+        <v>2</v>
+      </c>
+      <c r="P135" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" ht="39" spans="3:17">
+      <c r="C136" s="3">
         <v>5000046</v>
       </c>
-      <c r="D126" s="3">
-        <v>4</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J126" s="3">
+      <c r="D136" s="3">
+        <v>4</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136" s="3">
         <v>3</v>
       </c>
-      <c r="N126" s="3">
+      <c r="N136" s="3">
         <v>3</v>
       </c>
-      <c r="Q126" s="3">
+      <c r="Q136" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:16">
-      <c r="C127" s="3">
+    <row r="137" spans="3:16">
+      <c r="C137" s="3">
         <v>5000047</v>
       </c>
-      <c r="D127" s="3">
-        <v>4</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J127" s="3">
-        <v>2</v>
-      </c>
-      <c r="N127" s="3">
-        <v>2</v>
-      </c>
-      <c r="P127" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" ht="39" spans="3:16">
-      <c r="C128" s="3">
+      <c r="D137" s="3">
+        <v>4</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J137" s="3">
+        <v>2</v>
+      </c>
+      <c r="N137" s="3">
+        <v>2</v>
+      </c>
+      <c r="P137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" ht="39" spans="3:16">
+      <c r="C138" s="3">
         <v>5000048</v>
       </c>
-      <c r="D128" s="3">
-        <v>4</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J128" s="3">
-        <v>2</v>
-      </c>
-      <c r="M128" s="3">
-        <v>2</v>
-      </c>
-      <c r="P128" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="3:13">
-      <c r="C129" s="3">
+      <c r="D138" s="3">
+        <v>4</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J138" s="3">
+        <v>2</v>
+      </c>
+      <c r="M138" s="3">
+        <v>2</v>
+      </c>
+      <c r="P138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13">
+      <c r="C139" s="3">
         <v>5000049</v>
       </c>
-      <c r="D129" s="3">
-        <v>4</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M129" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="3:13">
-      <c r="C130" s="3">
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13">
+      <c r="C140" s="3">
         <v>5000050</v>
       </c>
-      <c r="D130" s="3">
-        <v>4</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M130" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="3:13">
-      <c r="C131" s="3">
+      <c r="D140" s="3">
+        <v>4</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13">
+      <c r="C141" s="3">
         <v>5000051</v>
       </c>
-      <c r="D131" s="3">
-        <v>4</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M131" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="3:13">
-      <c r="C132" s="3">
+      <c r="D141" s="3">
+        <v>4</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M141" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="3:13">
+      <c r="C142" s="3">
         <v>5000052</v>
       </c>
-      <c r="D132" s="3">
-        <v>4</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M132" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="3:13">
-      <c r="C133" s="3">
+      <c r="D142" s="3">
+        <v>4</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M142" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="3:13">
+      <c r="C143" s="3">
         <v>5000053</v>
       </c>
-      <c r="D133" s="3">
-        <v>4</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M133" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="3:13">
-      <c r="C134" s="3">
+      <c r="D143" s="3">
+        <v>4</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="3:13">
+      <c r="C144" s="3">
         <v>5000054</v>
       </c>
-      <c r="D134" s="3">
-        <v>4</v>
-      </c>
-      <c r="M134" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="3:13">
-      <c r="C135" s="3">
+      <c r="D144" s="3">
+        <v>4</v>
+      </c>
+      <c r="M144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13">
+      <c r="C145" s="3">
         <v>5000055</v>
       </c>
-      <c r="D135" s="3">
-        <v>4</v>
-      </c>
-      <c r="M135" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="3:13">
-      <c r="C136" s="3">
+      <c r="D145" s="3">
+        <v>4</v>
+      </c>
+      <c r="M145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="3:13">
+      <c r="C146" s="3">
         <v>5000056</v>
       </c>
-      <c r="D136" s="3">
-        <v>4</v>
-      </c>
-      <c r="M136" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" ht="39" spans="3:8">
-      <c r="C137" s="3">
+      <c r="D146" s="3">
+        <v>4</v>
+      </c>
+      <c r="M146" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" ht="39" spans="3:8">
+      <c r="C147" s="3">
         <v>5000057</v>
       </c>
-      <c r="D137" s="3">
-        <v>4</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" ht="26" spans="3:8">
-      <c r="C138" s="3">
+      <c r="D147" s="3">
+        <v>4</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="148" ht="26" spans="3:8">
+      <c r="C148" s="3">
         <v>5000058</v>
       </c>
-      <c r="D138" s="3">
-        <v>4</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="139" ht="26" spans="3:21">
-      <c r="C139" s="3">
+      <c r="D148" s="3">
+        <v>4</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="149" ht="26" spans="3:21">
+      <c r="C149" s="3">
         <v>5000059</v>
       </c>
-      <c r="D139" s="3">
-        <v>4</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J139" s="3">
-        <v>2</v>
-      </c>
-      <c r="O139" s="3">
+      <c r="D149" s="3">
+        <v>4</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J149" s="3">
+        <v>2</v>
+      </c>
+      <c r="O149" s="3">
         <v>3</v>
       </c>
-      <c r="S139" s="3">
+      <c r="Q149" s="3">
+        <v>3</v>
+      </c>
+      <c r="S149" s="3">
         <v>1014</v>
       </c>
-      <c r="T139" s="3">
+      <c r="T149" s="3">
         <v>6</v>
       </c>
-      <c r="U139" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="3">
+      <c r="U149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="3:21">
+      <c r="C150" s="3">
         <v>5000060</v>
       </c>
-      <c r="D140" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="3">
+      <c r="D150" s="3">
+        <v>4</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J150" s="3">
+        <v>3</v>
+      </c>
+      <c r="S150" s="3">
+        <v>1016</v>
+      </c>
+      <c r="T150" s="3">
+        <v>6</v>
+      </c>
+      <c r="U150" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8">
+      <c r="C151" s="3">
         <v>5000061</v>
       </c>
-      <c r="D141" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="3">
+      <c r="D151" s="3">
+        <v>4</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
+      <c r="C152" s="3">
         <v>5000062</v>
       </c>
-      <c r="D142" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="3">
+      <c r="D152" s="3">
+        <v>4</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="3:22">
+      <c r="C153" s="3">
         <v>5000063</v>
       </c>
-      <c r="D143" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="3">
+      <c r="D153" s="3">
+        <v>4</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>2</v>
+      </c>
+      <c r="S153" s="3">
+        <v>1022</v>
+      </c>
+      <c r="T153" s="3">
+        <v>6</v>
+      </c>
+      <c r="U153" s="3">
+        <v>1</v>
+      </c>
+      <c r="V153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="3:22">
+      <c r="C154" s="3">
         <v>5000064</v>
       </c>
-      <c r="D144" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="3">
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>6</v>
+      </c>
+      <c r="S154" s="3">
+        <v>1022</v>
+      </c>
+      <c r="T154" s="3">
+        <v>6</v>
+      </c>
+      <c r="U154" s="3">
+        <v>2</v>
+      </c>
+      <c r="V154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" s="3">
         <v>5000065</v>
       </c>
-      <c r="D145" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="3">
+      <c r="D155" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" s="3">
         <v>5000066</v>
       </c>
-      <c r="D146" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="3">
+      <c r="D156" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="3">
         <v>5000067</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D157" s="3">
         <v>4</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="259">
   <si>
     <t>#</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>效果编号</t>
+  </si>
+  <si>
+    <t>魔法伤害值//召唤单位BaseId</t>
+  </si>
+  <si>
+    <t>召唤单位数量</t>
   </si>
   <si>
     <t>Derive</t>
@@ -234,6 +240,9 @@
     <t>游戏开始时，将5张特殊的奇迹法术洗入你的牌库</t>
   </si>
   <si>
+    <t>禁区</t>
+  </si>
+  <si>
     <t>测试干员</t>
   </si>
   <si>
@@ -545,241 +554,250 @@
     <t>使目标敌方单位回到对方手牌</t>
   </si>
   <si>
+    <t>空间斩</t>
+  </si>
+  <si>
+    <t>消灭目标单位</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>使目标单位回到拥有者牌库顶</t>
+  </si>
+  <si>
+    <t>快进</t>
+  </si>
+  <si>
+    <t>抽2张牌</t>
+  </si>
+  <si>
+    <t>移形换位</t>
+  </si>
+  <si>
+    <t>交换双方护甲</t>
+  </si>
+  <si>
+    <t>召唤一面虚数之门</t>
+  </si>
+  <si>
+    <t>阿佩洛夺取案</t>
+  </si>
+  <si>
+    <t>将一个友方单位交给你的对手</t>
+  </si>
+  <si>
+    <t>库尔班军旗</t>
+  </si>
+  <si>
+    <t>传承：使你的一个单位获得+1/+1</t>
+  </si>
+  <si>
+    <t>跨越时代的黄金船</t>
+  </si>
+  <si>
+    <t>释放双方本局对战中你释放过的所有其他法术</t>
+  </si>
+  <si>
+    <t>赴死者未说再见</t>
+  </si>
+  <si>
+    <t>消灭一个友方单位，对所有敌方单位造成其攻击力的伤害</t>
+  </si>
+  <si>
+    <t>狩罪者之剑</t>
+  </si>
+  <si>
+    <t>复制你对手牌库中的一张牌，并将其资质要求变为红色</t>
+  </si>
+  <si>
+    <t>莱恩斯之炉</t>
+  </si>
+  <si>
+    <t>将你手牌的复制洗入牌库</t>
+  </si>
+  <si>
+    <t>铁！</t>
+  </si>
+  <si>
+    <t>使你的英雄本回合获得+2攻击</t>
+  </si>
+  <si>
+    <t>层层堆叠</t>
+  </si>
+  <si>
+    <t>堆叠3</t>
+  </si>
+  <si>
+    <t>压缩陷阱</t>
+  </si>
+  <si>
+    <t>随机消灭1个敌方单位，每有一层堆叠额外消灭1个</t>
+  </si>
+  <si>
+    <t>红龙之铃</t>
+  </si>
+  <si>
+    <t>召唤一条红龙</t>
+  </si>
+  <si>
+    <t>罪恶炸弹</t>
+  </si>
+  <si>
+    <t>将一张罪恶自述置入你对手的手牌。</t>
+  </si>
+  <si>
+    <t>空叶六甲</t>
+  </si>
+  <si>
+    <t>获得6点护甲，抽一张牌</t>
+  </si>
+  <si>
+    <t>禁区封锁</t>
+  </si>
+  <si>
+    <t>在对方场上布置1个禁区</t>
+  </si>
+  <si>
+    <t>铀压缩</t>
+  </si>
+  <si>
+    <t>对所有单位造成9点伤害，随后在双方场上各布置2个禁区</t>
+  </si>
+  <si>
+    <t>快龙</t>
+  </si>
+  <si>
+    <t>召唤一只8-8，具有无敌，冲锋的快龙</t>
+  </si>
+  <si>
+    <t>刃甲风暴</t>
+  </si>
+  <si>
+    <t>对场上所有单位造成你护甲值的伤害</t>
+  </si>
+  <si>
+    <t>空间炸弹</t>
+  </si>
+  <si>
+    <t>消灭我方牌库顶5张牌，对敌方英雄造成10点伤害</t>
+  </si>
+  <si>
+    <t>空间震爆</t>
+  </si>
+  <si>
+    <t>消灭所有单位，没消灭一个单位，消灭对手牌库顶一张牌</t>
+  </si>
+  <si>
+    <t>侵蚀仪式</t>
+  </si>
+  <si>
+    <t>侵蚀3</t>
+  </si>
+  <si>
+    <t>反射箭</t>
+  </si>
+  <si>
+    <t>消灭一个单位，并对敌方英雄造成其攻击力的伤害</t>
+  </si>
+  <si>
+    <t>天选壁垒</t>
+  </si>
+  <si>
+    <t>直到下个回合，你的英雄获得幻型</t>
+  </si>
+  <si>
+    <t>备份血液</t>
+  </si>
+  <si>
+    <t>抽到时释放，恢复4点生命。</t>
+  </si>
+  <si>
+    <t>破碎射击</t>
+  </si>
+  <si>
+    <t>对一个敌方单位造成10点伤害，超出单位生命的部分由敌方英雄承担</t>
+  </si>
+  <si>
+    <t>风险隧穿</t>
+  </si>
+  <si>
+    <t>赌博，对一个角色造成4点伤害</t>
+  </si>
+  <si>
+    <t>生命粘合</t>
+  </si>
+  <si>
+    <t>选择一个单位，随机丢弃一张单位牌，使该单位获得对应单位的属性</t>
+  </si>
+  <si>
+    <t>阿波罗计划</t>
+  </si>
+  <si>
+    <t>第三次工业革命</t>
+  </si>
+  <si>
+    <t>美苏冷战</t>
+  </si>
+  <si>
+    <t>人类基因组计划</t>
+  </si>
+  <si>
+    <t>庞加莱猜想</t>
+  </si>
+  <si>
+    <t>如果你的对手拥有3个攻击力为7的单位，对所有敌方角色造成7点伤害</t>
+  </si>
+  <si>
+    <t>使一个敌方单位+2攻击，并对其相邻单位造成其攻击力的伤害</t>
+  </si>
+  <si>
+    <t>死亡螺旋</t>
+  </si>
+  <si>
+    <t>对所有单位造成1点伤害，每有一个单位死亡，重复一次此效果</t>
+  </si>
+  <si>
+    <t>熔炉火核</t>
+  </si>
+  <si>
+    <t>对所有单位造成6伤害</t>
+  </si>
+  <si>
+    <t>复活你的一个干员</t>
+  </si>
+  <si>
+    <t>元素增殖</t>
+  </si>
+  <si>
+    <t>获得2点元素资质</t>
+  </si>
+  <si>
+    <t>记忆搜索</t>
+  </si>
+  <si>
+    <t>发现并复制牌库中的1张卡</t>
+  </si>
+  <si>
+    <t>记忆递归</t>
+  </si>
+  <si>
+    <t>发现并复制牌库中的2张卡</t>
+  </si>
+  <si>
+    <t>空间泡</t>
+  </si>
+  <si>
+    <t>使一个单位获得泡泡</t>
+  </si>
+  <si>
     <t>时间戳</t>
   </si>
   <si>
-    <t>消灭目标单位</t>
-  </si>
-  <si>
-    <t>重置</t>
-  </si>
-  <si>
-    <t>使目标单位回到拥有者牌库顶</t>
-  </si>
-  <si>
-    <t>快进</t>
-  </si>
-  <si>
-    <t>抽2张牌</t>
-  </si>
-  <si>
-    <t>移形换位</t>
-  </si>
-  <si>
-    <t>交换双方护甲</t>
-  </si>
-  <si>
-    <t>召唤一面虚数之门</t>
-  </si>
-  <si>
-    <t>阿佩洛夺取案</t>
-  </si>
-  <si>
-    <t>将一个友方单位交给你的对手</t>
-  </si>
-  <si>
-    <t>库尔班军旗</t>
-  </si>
-  <si>
-    <t>传承：使你的一个单位获得+1/+1</t>
-  </si>
-  <si>
-    <t>跨越时代的黄金船</t>
-  </si>
-  <si>
-    <t>释放双方本局对战中释放过的所有法术</t>
-  </si>
-  <si>
-    <t>赴死者未说再见</t>
-  </si>
-  <si>
-    <t>消灭一个友方单位，对所有敌方单位造成其攻击力的伤害</t>
-  </si>
-  <si>
-    <t>狩罪者之剑</t>
-  </si>
-  <si>
-    <t>复制你对手牌库中的一张牌，并将其资质要求变为红色</t>
-  </si>
-  <si>
-    <t>莱恩斯之炉</t>
-  </si>
-  <si>
-    <t>将你手牌的复制洗入牌库</t>
-  </si>
-  <si>
-    <t>铁！</t>
-  </si>
-  <si>
-    <t>使你的英雄本回合获得+2攻击</t>
-  </si>
-  <si>
-    <t>层层堆叠</t>
-  </si>
-  <si>
-    <t>堆叠3</t>
-  </si>
-  <si>
-    <t>压缩陷阱</t>
-  </si>
-  <si>
-    <t>随机消灭1个敌方单位，每有一层堆叠额外消灭1个</t>
-  </si>
-  <si>
-    <t>红龙之铃</t>
-  </si>
-  <si>
-    <t>召唤一条红龙</t>
-  </si>
-  <si>
-    <t>罪恶炸弹</t>
-  </si>
-  <si>
-    <t>将一张罪恶自述置入你对手的手牌。</t>
-  </si>
-  <si>
-    <t>空叶六甲</t>
-  </si>
-  <si>
-    <t>获得6点护甲，抽一张牌</t>
-  </si>
-  <si>
-    <t>禁区封锁</t>
-  </si>
-  <si>
-    <t>在对方场上布置一个禁区</t>
-  </si>
-  <si>
-    <t>铀压缩</t>
-  </si>
-  <si>
-    <t>对所有单位造成9点伤害，随后在双方场上各布置2个禁区</t>
-  </si>
-  <si>
-    <t>快龙</t>
-  </si>
-  <si>
-    <t>召唤一只8-8，具有无敌，冲锋的快龙</t>
-  </si>
-  <si>
-    <t>刃甲风暴</t>
-  </si>
-  <si>
-    <t>对场上所有单位造成你护甲值的伤害</t>
-  </si>
-  <si>
-    <t>空间炸弹</t>
-  </si>
-  <si>
-    <t>消灭我方牌库顶5张牌，对敌方英雄造成10点伤害</t>
-  </si>
-  <si>
-    <t>空间震爆</t>
-  </si>
-  <si>
-    <t>消灭所有单位，没消灭一个单位，消灭对手牌库顶一张牌</t>
-  </si>
-  <si>
-    <t>侵蚀仪式</t>
-  </si>
-  <si>
-    <t>侵蚀3</t>
-  </si>
-  <si>
-    <t>反射箭</t>
-  </si>
-  <si>
-    <t>消灭一个单位，并对敌方英雄造成其攻击力的伤害</t>
-  </si>
-  <si>
-    <t>天选壁垒</t>
-  </si>
-  <si>
-    <t>直到下个回合，你的英雄获得幻型</t>
-  </si>
-  <si>
-    <t>血液备份</t>
-  </si>
-  <si>
-    <t>受到5点伤害，向牌库中加入10张备份血液。</t>
-  </si>
-  <si>
-    <t>备份血液</t>
-  </si>
-  <si>
-    <t>抽到时释放，恢复4点生命。</t>
-  </si>
-  <si>
-    <t>破碎射击</t>
-  </si>
-  <si>
-    <t>对一个敌方单位造成10点伤害，超出单位生命的部分由敌方英雄承担</t>
-  </si>
-  <si>
-    <t>风险隧穿</t>
-  </si>
-  <si>
-    <t>赌博，对一个角色造成4点伤害</t>
-  </si>
-  <si>
-    <t>生命粘合</t>
-  </si>
-  <si>
-    <t>选择一个单位，随机丢弃一张单位牌，使该单位获得对应单位的属性</t>
-  </si>
-  <si>
-    <t>阿波罗计划</t>
-  </si>
-  <si>
-    <t>第三次工业革命</t>
-  </si>
-  <si>
-    <t>美苏冷战</t>
-  </si>
-  <si>
-    <t>人类基因组计划</t>
-  </si>
-  <si>
-    <t>庞加莱猜想</t>
-  </si>
-  <si>
-    <t>如果你的对手拥有3个攻击力为7的单位，对所有敌方角色造成7点伤害</t>
-  </si>
-  <si>
-    <t>使一个敌方单位+2攻击，并对其相邻单位造成其攻击力的伤害</t>
-  </si>
-  <si>
-    <t>死亡螺旋</t>
-  </si>
-  <si>
-    <t>对所有单位造成1点伤害，每有一个单位死亡，重复一次此效果</t>
-  </si>
-  <si>
-    <t>熔炉火核</t>
-  </si>
-  <si>
-    <t>对所有单位造成6伤害</t>
-  </si>
-  <si>
-    <t>复活你的一个干员</t>
-  </si>
-  <si>
-    <t>元素增殖</t>
-  </si>
-  <si>
-    <t>获得2点元素资质</t>
-  </si>
-  <si>
-    <t>记忆搜索</t>
-  </si>
-  <si>
-    <t>发现并复制牌库中的1张卡</t>
-  </si>
-  <si>
-    <t>记忆递归</t>
-  </si>
-  <si>
-    <t>发现并复制牌库中的2张卡</t>
+    <t>移除目标单位</t>
+  </si>
+  <si>
+    <t>移除你对手的护甲，并对其造成这个数值的伤害</t>
   </si>
 </sst>
 </file>
@@ -787,8 +805,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1280,7 +1298,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,7 +1310,7 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,7 +1443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,6 +1472,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1803,12 +1827,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG157"/>
+  <dimension ref="C2:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1845,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:33">
+    <row r="3" ht="27" spans="3:33">
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1878,8 +1902,12 @@
         <v>8</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="U3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="W3" s="5"/>
       <c r="X3" s="5" t="s">
         <v>8</v>
@@ -1905,181 +1933,181 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="3:33">
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="26" spans="3:24">
@@ -2093,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3">
         <v>4</v>
@@ -2125,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3">
         <v>4</v>
@@ -2157,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -2189,10 +2217,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3">
         <v>4</v>
@@ -2218,14 +2246,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="7"/>
@@ -2273,10 +2301,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
@@ -2320,10 +2348,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="7"/>
@@ -2363,10 +2391,10 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="7"/>
@@ -2406,10 +2434,10 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="7"/>
@@ -2449,10 +2477,10 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="7"/>
@@ -2492,10 +2520,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="7"/>
@@ -2535,10 +2563,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="7"/>
@@ -2648,10 +2676,10 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
@@ -2691,10 +2719,10 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
@@ -2734,7 +2762,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2773,10 +2801,10 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
@@ -3067,32 +3095,22 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="3:33">
       <c r="C31" s="7">
-        <v>200001</v>
+        <v>90001</v>
       </c>
       <c r="D31" s="7">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="7">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3</v>
-      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3114,51 +3132,31 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="32" s="1" customFormat="1" spans="3:33">
       <c r="C32" s="7">
-        <v>200002</v>
+        <v>90002</v>
       </c>
       <c r="D32" s="7">
-        <v>10</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>12</v>
-      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="7">
-        <v>3</v>
-      </c>
+      <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="8">
-        <v>1001</v>
-      </c>
-      <c r="T32" s="8">
-        <v>7</v>
-      </c>
-      <c r="U32" s="7">
-        <v>3</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="8"/>
@@ -3171,32 +3169,22 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="33" s="1" customFormat="1" spans="3:33">
       <c r="C33" s="7">
-        <v>200003</v>
+        <v>90003</v>
       </c>
       <c r="D33" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>12</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3</v>
-      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -3220,28 +3208,20 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="3:33">
       <c r="C34" s="7">
-        <v>200004</v>
+        <v>90004</v>
       </c>
       <c r="D34" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>12</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -3263,19 +3243,17 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="35" s="1" customFormat="1" spans="3:33">
       <c r="C35" s="7">
-        <v>200005</v>
+        <v>90005</v>
       </c>
       <c r="D35" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -3304,26 +3282,32 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="3:33">
       <c r="C36" s="7">
-        <v>200006</v>
+        <v>200001</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
       <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -3345,31 +3329,51 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="3:33">
+    <row r="37" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C37" s="7">
-        <v>200007</v>
+        <v>200002</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>12</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="7">
+        <v>3</v>
+      </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="S37" s="8">
+        <v>1001</v>
+      </c>
+      <c r="T37" s="8">
+        <v>7</v>
+      </c>
+      <c r="U37" s="7">
+        <v>3</v>
+      </c>
+      <c r="V37" s="7">
+        <v>1</v>
+      </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="8"/>
@@ -3382,22 +3386,32 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="3:33">
+    <row r="38" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C38" s="7">
-        <v>200008</v>
+        <v>200003</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>12</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -3421,7 +3435,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="3:33">
       <c r="C39" s="7">
-        <v>200009</v>
+        <v>200004</v>
       </c>
       <c r="D39" s="7">
         <v>10</v>
@@ -3429,12 +3443,20 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>12</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -3456,9 +3478,9 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="3:33">
+    <row r="40" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C40" s="7">
-        <v>200010</v>
+        <v>200005</v>
       </c>
       <c r="D40" s="7">
         <v>10</v>
@@ -3466,7 +3488,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -3495,19 +3519,25 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="3:33">
       <c r="C41" s="7">
-        <v>200011</v>
+        <v>200006</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="G41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7">
+        <v>1</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3532,7 +3562,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="3:33">
       <c r="C42" s="7">
-        <v>200012</v>
+        <v>200007</v>
       </c>
       <c r="D42" s="7">
         <v>10</v>
@@ -3569,7 +3599,7 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="3:33">
       <c r="C43" s="7">
-        <v>200013</v>
+        <v>200008</v>
       </c>
       <c r="D43" s="7">
         <v>10</v>
@@ -3606,40 +3636,26 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="3:33">
       <c r="C44" s="7">
-        <v>300001</v>
+        <v>200009</v>
       </c>
       <c r="D44" s="7">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="7">
-        <v>5</v>
-      </c>
-      <c r="K44" s="7">
-        <v>8</v>
-      </c>
-      <c r="L44" s="7">
-        <v>8</v>
-      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="8">
-        <v>103</v>
-      </c>
+      <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -3657,43 +3673,27 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="3:33">
       <c r="C45" s="7">
-        <v>300002</v>
+        <v>200010</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="7">
-        <v>12</v>
-      </c>
-      <c r="K45" s="7">
-        <v>16</v>
-      </c>
-      <c r="L45" s="7">
-        <v>16</v>
-      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7">
-        <v>12</v>
-      </c>
-      <c r="S45" s="8">
-        <v>1002</v>
-      </c>
-      <c r="T45" s="8">
-        <v>1</v>
-      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
@@ -3710,43 +3710,27 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="3:33">
       <c r="C46" s="7">
-        <v>300003</v>
+        <v>200011</v>
       </c>
       <c r="D46" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="7">
-        <v>12</v>
-      </c>
-      <c r="K46" s="7">
-        <v>16</v>
-      </c>
-      <c r="L46" s="7">
-        <v>16</v>
-      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7">
-        <v>12</v>
-      </c>
-      <c r="S46" s="8">
-        <v>1003</v>
-      </c>
-      <c r="T46" s="8">
-        <v>3</v>
-      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
@@ -3763,43 +3747,27 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="3:33">
       <c r="C47" s="7">
-        <v>300004</v>
+        <v>200012</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="7">
-        <v>12</v>
-      </c>
-      <c r="K47" s="7">
-        <v>16</v>
-      </c>
-      <c r="L47" s="7">
-        <v>16</v>
-      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7">
-        <v>12</v>
-      </c>
+      <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="8">
-        <v>1004</v>
-      </c>
-      <c r="T47" s="8">
-        <v>1</v>
-      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -3816,46 +3784,28 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="3:33">
       <c r="C48" s="7">
-        <v>300005</v>
+        <v>200013</v>
       </c>
       <c r="D48" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="7">
-        <v>12</v>
-      </c>
-      <c r="K48" s="7">
-        <v>16</v>
-      </c>
-      <c r="L48" s="7">
-        <v>16</v>
-      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="7">
-        <v>12</v>
-      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="8">
-        <v>1009</v>
-      </c>
-      <c r="T48" s="8">
-        <v>3</v>
-      </c>
-      <c r="U48" s="7">
-        <v>16</v>
-      </c>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
@@ -3869,54 +3819,48 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="49" s="1" customFormat="1" spans="3:33">
       <c r="C49" s="7">
-        <v>300006</v>
+        <v>300001</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K49" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L49" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7">
-        <v>12</v>
-      </c>
+      <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="8">
-        <v>1005</v>
-      </c>
-      <c r="T49" s="8">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="T49" s="8"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="7">
-        <v>1006</v>
-      </c>
-      <c r="Y49" s="8">
-        <v>3</v>
-      </c>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="8"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -3926,9 +3870,9 @@
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="50" s="1" customFormat="1" spans="3:33">
       <c r="C50" s="7">
-        <v>300007</v>
+        <v>300002</v>
       </c>
       <c r="D50" s="7">
         <v>2</v>
@@ -3936,48 +3880,40 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="7">
         <v>12</v>
       </c>
       <c r="K50" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L50" s="7">
-        <v>20</v>
-      </c>
-      <c r="M50" s="7">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
+      <c r="R50" s="7">
+        <v>12</v>
+      </c>
       <c r="S50" s="8">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="T50" s="8">
         <v>1</v>
       </c>
-      <c r="U50" s="7">
-        <v>3000002</v>
-      </c>
-      <c r="V50" s="7">
-        <v>4</v>
-      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="7">
-        <v>1008</v>
-      </c>
-      <c r="Y50" s="8">
-        <v>3</v>
-      </c>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="8"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
@@ -3987,9 +3923,9 @@
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="39" spans="3:33">
+    <row r="51" s="1" customFormat="1" spans="3:33">
       <c r="C51" s="7">
-        <v>300008</v>
+        <v>300003</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -3997,33 +3933,35 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K51" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L51" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>2</v>
-      </c>
-      <c r="R51" s="7"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>12</v>
+      </c>
+      <c r="S51" s="8">
+        <v>1003</v>
+      </c>
+      <c r="T51" s="8">
+        <v>3</v>
+      </c>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
@@ -4040,7 +3978,7 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="3:33">
       <c r="C52" s="7">
-        <v>300009</v>
+        <v>300004</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -4048,33 +3986,35 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K52" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L52" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="7">
-        <v>4</v>
-      </c>
+      <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7">
+        <v>12</v>
+      </c>
       <c r="R52" s="7"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
+      <c r="S52" s="8">
+        <v>1004</v>
+      </c>
+      <c r="T52" s="8">
+        <v>1</v>
+      </c>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
@@ -4089,9 +4029,9 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="39" spans="3:33">
+    <row r="53" s="1" customFormat="1" spans="3:33">
       <c r="C53" s="7">
-        <v>300010</v>
+        <v>300005</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -4099,32 +4039,38 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K53" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L53" s="7">
-        <v>5</v>
-      </c>
-      <c r="M53" s="7">
-        <v>4</v>
-      </c>
-      <c r="N53" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7">
+        <v>12</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="7"/>
+      <c r="S53" s="8">
+        <v>1009</v>
+      </c>
+      <c r="T53" s="8">
+        <v>3</v>
+      </c>
+      <c r="U53" s="7">
+        <v>16</v>
+      </c>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
@@ -4140,7 +4086,7 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C54" s="7">
-        <v>300011</v>
+        <v>300006</v>
       </c>
       <c r="D54" s="7">
         <v>2</v>
@@ -4148,36 +4094,44 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K54" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L54" s="7">
-        <v>3</v>
-      </c>
-      <c r="M54" s="7">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
+      <c r="O54" s="7">
+        <v>12</v>
+      </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
+      <c r="S54" s="8">
+        <v>1005</v>
+      </c>
+      <c r="T54" s="8">
+        <v>1</v>
+      </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="8"/>
+      <c r="X54" s="7">
+        <v>1006</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>3</v>
+      </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
@@ -4189,7 +4143,7 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C55" s="7">
-        <v>300012</v>
+        <v>300007</v>
       </c>
       <c r="D55" s="7">
         <v>2</v>
@@ -4197,36 +4151,48 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K55" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L55" s="7">
-        <v>6</v>
-      </c>
-      <c r="M55" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="M55" s="7">
+        <v>12</v>
+      </c>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="7">
-        <v>8</v>
-      </c>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="8">
+        <v>1007</v>
+      </c>
+      <c r="T55" s="8">
+        <v>1</v>
+      </c>
+      <c r="U55" s="7">
+        <v>3000002</v>
+      </c>
+      <c r="V55" s="7">
+        <v>4</v>
+      </c>
       <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="8"/>
+      <c r="X55" s="7">
+        <v>1008</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>3</v>
+      </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
@@ -4236,9 +4202,9 @@
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="56" s="1" customFormat="1" ht="39" spans="3:33">
       <c r="C56" s="7">
-        <v>300013</v>
+        <v>300008</v>
       </c>
       <c r="D56" s="7">
         <v>2</v>
@@ -4246,17 +4212,17 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="7">
         <v>4</v>
       </c>
       <c r="K56" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L56" s="7">
         <v>5</v>
@@ -4264,8 +4230,12 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
+      <c r="P56" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>2</v>
+      </c>
       <c r="R56" s="7"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
@@ -4283,9 +4253,9 @@
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="26" spans="3:33">
+    <row r="57" s="1" customFormat="1" spans="3:33">
       <c r="C57" s="7">
-        <v>300014</v>
+        <v>300009</v>
       </c>
       <c r="D57" s="7">
         <v>2</v>
@@ -4293,25 +4263,29 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L57" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
+      <c r="N57" s="7">
+        <v>4</v>
+      </c>
       <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
+      <c r="P57" s="7">
+        <v>4</v>
+      </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="8"/>
@@ -4330,64 +4304,89 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
     </row>
-    <row r="58" ht="39" spans="3:10">
-      <c r="C58" s="3">
-        <v>2000001</v>
-      </c>
-      <c r="D58" s="3">
-        <v>6</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="3:33">
+    <row r="58" s="1" customFormat="1" ht="39" spans="3:33">
+      <c r="C58" s="7">
+        <v>300010</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="7">
+        <v>4</v>
+      </c>
+      <c r="K58" s="7">
+        <v>4</v>
+      </c>
+      <c r="L58" s="7">
+        <v>5</v>
+      </c>
+      <c r="M58" s="7">
+        <v>4</v>
+      </c>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C59" s="7">
-        <v>3000001</v>
+        <v>300011</v>
       </c>
       <c r="D59" s="7">
-        <v>3</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="9" t="s">
-        <v>113</v>
+      <c r="G59" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="7">
         <v>2</v>
       </c>
       <c r="K59" s="7">
+        <v>2</v>
+      </c>
+      <c r="L59" s="7">
         <v>3</v>
       </c>
-      <c r="L59" s="7">
-        <v>4</v>
-      </c>
-      <c r="M59" s="7"/>
+      <c r="M59" s="7">
+        <v>3</v>
+      </c>
       <c r="N59" s="7"/>
-      <c r="O59" s="7">
-        <v>1</v>
-      </c>
+      <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="8">
-        <v>108</v>
-      </c>
+      <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -4403,24 +4402,24 @@
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="3:33">
+    <row r="60" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C60" s="7">
-        <v>3000002</v>
+        <v>300012</v>
       </c>
       <c r="D60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K60" s="7">
         <v>6</v>
@@ -4429,16 +4428,14 @@
         <v>6</v>
       </c>
       <c r="M60" s="7"/>
-      <c r="N60" s="7">
-        <v>3</v>
-      </c>
+      <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="8">
-        <v>103</v>
-      </c>
+      <c r="R60" s="7">
+        <v>8</v>
+      </c>
+      <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
@@ -4454,38 +4451,36 @@
       <c r="AF60" s="7"/>
       <c r="AG60" s="7"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="3:33">
+    <row r="61" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C61" s="7">
-        <v>3000003</v>
+        <v>300013</v>
       </c>
       <c r="D61" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
-      <c r="Q61" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -4503,32 +4498,30 @@
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="3:33">
+    <row r="62" s="1" customFormat="1" ht="26" spans="3:33">
       <c r="C62" s="7">
-        <v>3000004</v>
+        <v>300014</v>
       </c>
       <c r="D62" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="7">
-        <v>1</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -4552,381 +4545,348 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="7"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="3:33">
-      <c r="C63" s="7">
-        <v>3000005</v>
-      </c>
-      <c r="D63" s="7">
-        <v>3</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="7">
-        <v>2</v>
-      </c>
-      <c r="K63" s="7">
-        <v>2</v>
-      </c>
-      <c r="L63" s="7">
-        <v>3</v>
-      </c>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7">
-        <v>2</v>
-      </c>
-      <c r="R63" s="7">
-        <v>2</v>
-      </c>
-      <c r="S63" s="8">
-        <v>1018</v>
-      </c>
-      <c r="T63" s="8">
-        <v>2</v>
-      </c>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
-    </row>
-    <row r="64" spans="3:22">
+    <row r="63" ht="39" spans="3:10">
+      <c r="C63" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="3:33">
       <c r="C64" s="7">
-        <v>3000006</v>
+        <v>3000001</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="E64" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7">
+        <v>2</v>
+      </c>
+      <c r="K64" s="7">
         <v>3</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3">
-        <v>3</v>
-      </c>
-      <c r="R64" s="3">
-        <v>3</v>
-      </c>
-      <c r="S64" s="3">
-        <v>1007</v>
-      </c>
-      <c r="T64" s="3">
-        <v>2</v>
-      </c>
-      <c r="U64" s="3">
-        <v>3000006</v>
-      </c>
-      <c r="V64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" ht="14" spans="3:33">
+      <c r="L64" s="7">
+        <v>4</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7">
+        <v>1</v>
+      </c>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="8">
+        <v>108</v>
+      </c>
+      <c r="T64" s="8"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="3:33">
       <c r="C65" s="7">
-        <v>3000007</v>
+        <v>3000002</v>
       </c>
       <c r="D65" s="7">
         <v>3</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="3">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-    </row>
-    <row r="66" customFormat="1" ht="14" spans="3:33">
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7">
+        <v>3</v>
+      </c>
+      <c r="K65" s="7">
+        <v>6</v>
+      </c>
+      <c r="L65" s="7">
+        <v>6</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7">
+        <v>3</v>
+      </c>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="8">
+        <v>103</v>
+      </c>
+      <c r="T65" s="8"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="3:33">
       <c r="C66" s="7">
-        <v>3000008</v>
+        <v>3000003</v>
       </c>
       <c r="D66" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="3">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-    </row>
-    <row r="67" customFormat="1" ht="14" spans="3:33">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="7">
+        <v>2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>2</v>
+      </c>
+      <c r="L66" s="7">
+        <v>2</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7">
+        <v>2</v>
+      </c>
+      <c r="R66" s="7"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="3:33">
       <c r="C67" s="7">
-        <v>3000009</v>
+        <v>3000004</v>
       </c>
       <c r="D67" s="7">
         <v>3</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="3">
-        <v>4</v>
-      </c>
-      <c r="K67" s="3">
-        <v>8</v>
-      </c>
-      <c r="L67" s="3">
-        <v>8</v>
-      </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3">
-        <v>4</v>
-      </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3">
-        <v>109</v>
-      </c>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-    </row>
-    <row r="68" customFormat="1" ht="14" spans="3:33">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7">
+        <v>6</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>12</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="3:33">
       <c r="C68" s="7">
-        <v>3000010</v>
+        <v>3000005</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3">
-        <v>2</v>
-      </c>
-      <c r="K68" s="3">
-        <v>2</v>
-      </c>
-      <c r="L68" s="3">
-        <v>2</v>
-      </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3">
-        <v>1013</v>
-      </c>
-      <c r="T68" s="3">
-        <v>1</v>
-      </c>
-      <c r="U68" s="3">
-        <v>2</v>
-      </c>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-    </row>
-    <row r="69" customFormat="1" ht="14" spans="3:33">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7">
+        <v>2</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2</v>
+      </c>
+      <c r="L68" s="7">
+        <v>3</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7">
+        <v>2</v>
+      </c>
+      <c r="R68" s="7">
+        <v>2</v>
+      </c>
+      <c r="S68" s="8">
+        <v>1018</v>
+      </c>
+      <c r="T68" s="8">
+        <v>2</v>
+      </c>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+    </row>
+    <row r="69" spans="3:22">
       <c r="C69" s="7">
-        <v>3000011</v>
+        <v>3000006</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
       <c r="G69" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I69" s="4"/>
+        <v>126</v>
+      </c>
       <c r="J69" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>2</v>
-      </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>3</v>
+      </c>
+      <c r="R69" s="3">
+        <v>3</v>
+      </c>
       <c r="S69" s="3">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="T69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U69" s="3">
-        <v>1</v>
-      </c>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
+        <v>3000006</v>
+      </c>
+      <c r="V69" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="1" ht="14" spans="3:33">
       <c r="C70" s="7">
-        <v>3000012</v>
+        <v>3000007</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1</v>
-      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -4934,12 +4894,8 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-      <c r="S70" s="3">
-        <v>1017</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1</v>
-      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -4956,7 +4912,7 @@
     </row>
     <row r="71" customFormat="1" ht="14" spans="3:33">
       <c r="C71" s="7">
-        <v>3000013</v>
+        <v>3000008</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
@@ -4965,8 +4921,8 @@
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>134</v>
+      <c r="G71" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5003,26 +4959,40 @@
     </row>
     <row r="72" customFormat="1" ht="14" spans="3:33">
       <c r="C72" s="7">
-        <v>3000014</v>
+        <v>3000009</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
+      <c r="G72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="J72" s="3">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
+        <v>8</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="O72" s="3">
+        <v>4</v>
+      </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
+      <c r="S72" s="3">
+        <v>109</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -5040,28 +5010,46 @@
     </row>
     <row r="73" customFormat="1" ht="14" spans="3:33">
       <c r="C73" s="7">
-        <v>3000015</v>
+        <v>3000010</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="G73" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2</v>
+      </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
+      <c r="S73" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T73" s="3">
+        <v>1</v>
+      </c>
+      <c r="U73" s="3">
+        <v>2</v>
+      </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -5077,28 +5065,44 @@
     </row>
     <row r="74" customFormat="1" ht="14" spans="3:33">
       <c r="C74" s="7">
-        <v>3000016</v>
+        <v>3000011</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
+      <c r="G74" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2</v>
+      </c>
+      <c r="L74" s="3">
+        <v>2</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
+      <c r="S74" s="3">
+        <v>1015</v>
+      </c>
+      <c r="T74" s="3">
+        <v>3</v>
+      </c>
+      <c r="U74" s="3">
+        <v>1</v>
+      </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -5114,27 +5118,43 @@
     </row>
     <row r="75" customFormat="1" ht="14" spans="3:33">
       <c r="C75" s="7">
-        <v>3000017</v>
+        <v>3000012</v>
       </c>
       <c r="D75" s="7">
         <v>3</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="G75" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="S75" s="3">
+        <v>1017</v>
+      </c>
+      <c r="T75" s="3">
+        <v>1</v>
+      </c>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -5151,19 +5171,29 @@
     </row>
     <row r="76" customFormat="1" ht="14" spans="3:33">
       <c r="C76" s="7">
-        <v>3000018</v>
+        <v>3000013</v>
       </c>
       <c r="D76" s="7">
         <v>3</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -5188,14 +5218,13 @@
     </row>
     <row r="77" customFormat="1" ht="14" spans="3:33">
       <c r="C77" s="7">
-        <v>3000019</v>
+        <v>3000014</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="3"/>
@@ -5225,7 +5254,7 @@
     </row>
     <row r="78" customFormat="1" ht="14" spans="3:33">
       <c r="C78" s="7">
-        <v>3000020</v>
+        <v>3000015</v>
       </c>
       <c r="D78" s="7">
         <v>3</v>
@@ -5260,9 +5289,9 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
     </row>
-    <row r="79" customFormat="1" spans="3:33">
+    <row r="79" customFormat="1" ht="14" spans="3:33">
       <c r="C79" s="7">
-        <v>3000021</v>
+        <v>3000016</v>
       </c>
       <c r="D79" s="7">
         <v>3</v>
@@ -5297,222 +5326,212 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="3:33">
+    <row r="80" customFormat="1" ht="14" spans="3:33">
       <c r="C80" s="7">
-        <v>4000001</v>
+        <v>3000017</v>
       </c>
       <c r="D80" s="7">
-        <v>7</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I80" s="8"/>
-      <c r="J80" s="7">
-        <v>0</v>
-      </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="8">
-        <v>1012</v>
-      </c>
-      <c r="T80" s="8">
-        <v>6</v>
-      </c>
-      <c r="U80" s="7">
         <v>3</v>
       </c>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="8"/>
-      <c r="AD80" s="8"/>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="7"/>
-      <c r="AG80" s="7"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="3:33">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+    </row>
+    <row r="81" customFormat="1" ht="14" spans="3:33">
       <c r="C81" s="7">
-        <v>4000002</v>
+        <v>3000018</v>
       </c>
       <c r="D81" s="7">
-        <v>7</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="8"/>
-      <c r="AD81" s="8"/>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="7"/>
-      <c r="AG81" s="7"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+    </row>
+    <row r="82" customFormat="1" ht="14" spans="3:33">
       <c r="C82" s="7">
-        <v>4000003</v>
+        <v>3000019</v>
       </c>
       <c r="D82" s="7">
-        <v>7</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="8"/>
-      <c r="AD82" s="8"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" customFormat="1" ht="14" spans="3:33">
       <c r="C83" s="7">
-        <v>4000004</v>
+        <v>3000020</v>
       </c>
       <c r="D83" s="7">
-        <v>7</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="8"/>
-      <c r="AD83" s="8"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="7"/>
-      <c r="AG83" s="7"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+    </row>
+    <row r="84" customFormat="1" ht="14" spans="3:33">
       <c r="C84" s="7">
-        <v>4000005</v>
+        <v>3000021</v>
       </c>
       <c r="D84" s="7">
-        <v>7</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="8"/>
-      <c r="AD84" s="8"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
-      <c r="AG84" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="3:33">
       <c r="C85" s="7">
-        <v>4000006</v>
+        <v>4000001</v>
       </c>
       <c r="D85" s="7">
         <v>7</v>
       </c>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+      <c r="G85" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I85" s="8"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -5521,9 +5540,15 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="7"/>
+      <c r="S85" s="8">
+        <v>1012</v>
+      </c>
+      <c r="T85" s="8">
+        <v>6</v>
+      </c>
+      <c r="U85" s="7">
+        <v>3</v>
+      </c>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
@@ -5539,15 +5564,19 @@
     </row>
     <row r="86" s="1" customFormat="1" spans="3:33">
       <c r="C86" s="7">
-        <v>4000007</v>
+        <v>4000002</v>
       </c>
       <c r="D86" s="7">
         <v>7</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
+      <c r="G86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="I86" s="8"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -5576,7 +5605,7 @@
     </row>
     <row r="87" s="1" customFormat="1" spans="3:33">
       <c r="C87" s="7">
-        <v>4000008</v>
+        <v>4000003</v>
       </c>
       <c r="D87" s="7">
         <v>7</v>
@@ -5613,7 +5642,7 @@
     </row>
     <row r="88" s="1" customFormat="1" spans="3:33">
       <c r="C88" s="7">
-        <v>4000009</v>
+        <v>4000004</v>
       </c>
       <c r="D88" s="7">
         <v>7</v>
@@ -5650,7 +5679,7 @@
     </row>
     <row r="89" s="1" customFormat="1" spans="3:33">
       <c r="C89" s="7">
-        <v>4000010</v>
+        <v>4000005</v>
       </c>
       <c r="D89" s="7">
         <v>7</v>
@@ -5687,7 +5716,7 @@
     </row>
     <row r="90" s="1" customFormat="1" spans="3:33">
       <c r="C90" s="7">
-        <v>4000011</v>
+        <v>4000006</v>
       </c>
       <c r="D90" s="7">
         <v>7</v>
@@ -5722,763 +5751,875 @@
       <c r="AF90" s="7"/>
       <c r="AG90" s="7"/>
     </row>
-    <row r="91" spans="3:15">
-      <c r="C91" s="3">
+    <row r="91" s="1" customFormat="1" spans="3:33">
+      <c r="C91" s="7">
+        <v>4000007</v>
+      </c>
+      <c r="D91" s="7">
+        <v>7</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="3:33">
+      <c r="C92" s="7">
+        <v>4000008</v>
+      </c>
+      <c r="D92" s="7">
+        <v>7</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="3:33">
+      <c r="C93" s="7">
+        <v>4000009</v>
+      </c>
+      <c r="D93" s="7">
+        <v>7</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="3:33">
+      <c r="C94" s="7">
+        <v>4000010</v>
+      </c>
+      <c r="D94" s="7">
+        <v>7</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="8"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="3:33">
+      <c r="C95" s="7">
+        <v>4000011</v>
+      </c>
+      <c r="D95" s="7">
+        <v>7</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="8"/>
+      <c r="AD95" s="8"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7"/>
+    </row>
+    <row r="96" spans="3:15">
+      <c r="C96" s="3">
         <v>5000001</v>
       </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2</v>
-      </c>
-      <c r="O91" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15">
-      <c r="C92" s="3">
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15">
+      <c r="C97" s="3">
         <v>5000002</v>
       </c>
-      <c r="D92" s="3">
-        <v>4</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J92" s="3">
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J97" s="3">
         <v>3</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O97" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="3:20">
-      <c r="C93" s="3">
+    <row r="98" spans="3:20">
+      <c r="C98" s="3">
         <v>5000003</v>
       </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="D98" s="3">
+        <v>4</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J98" s="3">
         <v>6</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q98" s="3">
         <v>3</v>
       </c>
-      <c r="S93" s="3">
+      <c r="S98" s="3">
         <v>1021</v>
       </c>
-      <c r="T93" s="3">
+      <c r="T98" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="3:17">
-      <c r="C94" s="3">
+    <row r="99" spans="3:17">
+      <c r="C99" s="3">
         <v>5000004</v>
       </c>
-      <c r="D94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17">
-      <c r="C95" s="3">
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J99" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17">
+      <c r="C100" s="3">
         <v>5000005</v>
       </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="D100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J100" s="3">
         <v>3</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q100" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="3:17">
-      <c r="C96" s="3">
+    <row r="101" spans="3:17">
+      <c r="C101" s="3">
         <v>5000006</v>
       </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J96" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="3:17">
-      <c r="C97" s="3">
+    <row r="102" spans="3:17">
+      <c r="C102" s="3">
         <v>5000007</v>
       </c>
-      <c r="D97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J97" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q97" s="3">
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:16">
-      <c r="C98" s="3">
+    <row r="103" spans="3:21">
+      <c r="C103" s="3">
         <v>5000008</v>
       </c>
-      <c r="D98" s="3">
-        <v>4</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J98" s="3">
-        <v>2</v>
-      </c>
-      <c r="P98" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="3:16">
-      <c r="C99" s="3">
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2</v>
+      </c>
+      <c r="S103" s="3">
+        <v>1027</v>
+      </c>
+      <c r="T103" s="3">
+        <v>6</v>
+      </c>
+      <c r="U103" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="3:16">
+      <c r="C104" s="3">
         <v>5000009</v>
       </c>
-      <c r="D99" s="3">
-        <v>4</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J99" s="3">
-        <v>2</v>
-      </c>
-      <c r="P99" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="3:16">
-      <c r="C100" s="3">
+      <c r="D104" s="3">
+        <v>4</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J104" s="3">
+        <v>2</v>
+      </c>
+      <c r="P104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:16">
+      <c r="C105" s="3">
         <v>5000010</v>
       </c>
-      <c r="D100" s="3">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1</v>
-      </c>
-      <c r="P100" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" ht="26" spans="3:16">
-      <c r="C101" s="3">
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="P105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" ht="26" spans="3:16">
+      <c r="C106" s="3">
         <v>5000011</v>
       </c>
-      <c r="D101" s="3">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" ht="26" spans="3:16">
-      <c r="C102" s="3">
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="P106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="26" spans="3:16">
+      <c r="C107" s="3">
         <v>5000012</v>
       </c>
-      <c r="D102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1</v>
-      </c>
-      <c r="P102" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" ht="39" spans="3:17">
-      <c r="C103" s="3">
+      <c r="D107" s="3">
+        <v>4</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1</v>
+      </c>
+      <c r="P107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="39" spans="3:17">
+      <c r="C108" s="3">
         <v>5000013</v>
       </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J103" s="3">
-        <v>1</v>
-      </c>
-      <c r="P103" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q103" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" ht="26" spans="3:16">
-      <c r="C104" s="3">
+      <c r="D108" s="3">
+        <v>4</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="P108" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" ht="26" spans="3:23">
+      <c r="C109" s="3">
         <v>5000014</v>
       </c>
-      <c r="D104" s="3">
-        <v>4</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J104" s="3">
-        <v>1</v>
-      </c>
-      <c r="O104" s="3">
-        <v>2</v>
-      </c>
-      <c r="P104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="3:21">
-      <c r="C105" s="3">
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3">
+        <v>2</v>
+      </c>
+      <c r="P109" s="3">
+        <v>2</v>
+      </c>
+      <c r="S109" s="3">
+        <v>1028</v>
+      </c>
+      <c r="T109" s="3">
+        <v>6</v>
+      </c>
+      <c r="U109" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V109" s="3">
+        <v>1</v>
+      </c>
+      <c r="W109" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="3:21">
+      <c r="C110" s="3">
         <v>5000015</v>
       </c>
-      <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I105" s="4">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3">
-        <v>2</v>
-      </c>
-      <c r="N105" s="3">
-        <v>2</v>
-      </c>
-      <c r="S105" s="3">
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="N110" s="3">
+        <v>2</v>
+      </c>
+      <c r="S110" s="3">
         <v>1013</v>
       </c>
-      <c r="T105" s="3">
+      <c r="T110" s="3">
         <v>6</v>
       </c>
-      <c r="U105" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="C106" s="3">
+      <c r="U110" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14">
+      <c r="C111" s="3">
         <v>5000016</v>
       </c>
-      <c r="D106" s="3">
-        <v>4</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J106" s="3">
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J111" s="3">
         <v>5</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N111" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="3:18">
-      <c r="C107" s="3">
-        <v>5000017</v>
-      </c>
-      <c r="D107" s="3">
-        <v>4</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J107" s="3">
-        <v>1</v>
-      </c>
-      <c r="R107" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="3:20">
-      <c r="C108" s="3">
-        <v>5000018</v>
-      </c>
-      <c r="D108" s="3">
-        <v>4</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I108" s="4">
-        <v>2</v>
-      </c>
-      <c r="J108" s="3">
-        <v>3</v>
-      </c>
-      <c r="R108" s="3">
-        <v>2</v>
-      </c>
-      <c r="S108" s="3">
-        <v>1020</v>
-      </c>
-      <c r="T108" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="3:18">
-      <c r="C109" s="3">
-        <v>5000019</v>
-      </c>
-      <c r="D109" s="3">
-        <v>4</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J109" s="3">
-        <v>2</v>
-      </c>
-      <c r="R109" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="3:18">
-      <c r="C110" s="3">
-        <v>5000020</v>
-      </c>
-      <c r="D110" s="3">
-        <v>4</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J110" s="3">
-        <v>2</v>
-      </c>
-      <c r="R110" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="3:18">
-      <c r="C111" s="3">
-        <v>5000021</v>
-      </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="R111" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="112" spans="3:18">
       <c r="C112" s="3">
-        <v>5000022</v>
+        <v>5000017</v>
       </c>
       <c r="D112" s="3">
         <v>4</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J112" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R112" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="3:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:20">
       <c r="C113" s="3">
-        <v>5000023</v>
+        <v>5000018</v>
       </c>
       <c r="D113" s="3">
         <v>4</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>183</v>
+      <c r="G113" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2</v>
       </c>
       <c r="J113" s="3">
         <v>3</v>
       </c>
-      <c r="M113" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" ht="26" spans="3:13">
+      <c r="R113" s="3">
+        <v>2</v>
+      </c>
+      <c r="S113" s="3">
+        <v>1020</v>
+      </c>
+      <c r="T113" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="3:18">
       <c r="C114" s="3">
-        <v>5000024</v>
+        <v>5000019</v>
       </c>
       <c r="D114" s="3">
         <v>4</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="R114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:18">
+      <c r="C115" s="3">
+        <v>5000020</v>
+      </c>
+      <c r="D115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J115" s="3">
+        <v>2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:20">
+      <c r="C116" s="3">
+        <v>5000021</v>
+      </c>
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="R116" s="3">
+        <v>2</v>
+      </c>
+      <c r="S116" s="3">
+        <v>1030</v>
+      </c>
+      <c r="T116" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="3:18">
+      <c r="C117" s="3">
+        <v>5000022</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J114" s="3">
-        <v>2</v>
-      </c>
-      <c r="M114" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" ht="26" spans="3:13">
-      <c r="C115" s="3">
-        <v>5000025</v>
-      </c>
-      <c r="D115" s="3">
-        <v>4</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J115" s="3">
+      <c r="J117" s="3">
+        <v>6</v>
+      </c>
+      <c r="R117" s="3">
         <v>10</v>
-      </c>
-      <c r="M115" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" ht="26" spans="3:13">
-      <c r="C116" s="3">
-        <v>5000026</v>
-      </c>
-      <c r="D116" s="3">
-        <v>4</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J116" s="3">
-        <v>4</v>
-      </c>
-      <c r="M116" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" ht="26" spans="3:13">
-      <c r="C117" s="3">
-        <v>5000027</v>
-      </c>
-      <c r="D117" s="3">
-        <v>4</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J117" s="3">
-        <v>1</v>
-      </c>
-      <c r="M117" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="118" spans="3:13">
       <c r="C118" s="3">
+        <v>5000023</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J118" s="3">
+        <v>3</v>
+      </c>
+      <c r="M118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" ht="26" spans="3:24">
+      <c r="C119" s="3">
+        <v>5000024</v>
+      </c>
+      <c r="D119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I119" s="4">
+        <v>3</v>
+      </c>
+      <c r="J119" s="3">
+        <v>2</v>
+      </c>
+      <c r="M119" s="3">
+        <v>2</v>
+      </c>
+      <c r="S119" s="3">
+        <v>1031</v>
+      </c>
+      <c r="T119" s="3">
+        <v>6</v>
+      </c>
+      <c r="U119" s="3">
+        <v>1</v>
+      </c>
+      <c r="X119" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" ht="26" spans="3:20">
+      <c r="C120" s="3">
+        <v>5000025</v>
+      </c>
+      <c r="D120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J120" s="3">
+        <v>10</v>
+      </c>
+      <c r="M120" s="3">
+        <v>12</v>
+      </c>
+      <c r="S120" s="3">
+        <v>1032</v>
+      </c>
+      <c r="T120" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" ht="26" spans="3:13">
+      <c r="C121" s="3">
+        <v>5000026</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J121" s="3">
+        <v>4</v>
+      </c>
+      <c r="M121" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" ht="26" spans="3:13">
+      <c r="C122" s="3">
+        <v>5000027</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13">
+      <c r="C123" s="3">
         <v>5000028</v>
       </c>
-      <c r="D118" s="3">
-        <v>4</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J118" s="3">
-        <v>2</v>
-      </c>
-      <c r="M118" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="3:13">
-      <c r="C119" s="3">
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="M123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13">
+      <c r="C124" s="3">
         <v>5000029</v>
       </c>
-      <c r="D119" s="3">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J119" s="3">
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J124" s="3">
         <v>0</v>
       </c>
-      <c r="M119" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="3:18">
-      <c r="C120" s="3">
-        <v>5000030</v>
-      </c>
-      <c r="D120" s="3">
-        <v>4</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J120" s="3">
-        <v>2</v>
-      </c>
-      <c r="M120" s="3">
-        <v>2</v>
-      </c>
-      <c r="R120" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" ht="26" spans="3:18">
-      <c r="C121" s="3">
-        <v>5000031</v>
-      </c>
-      <c r="D121" s="3">
-        <v>4</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J121" s="3">
-        <v>2</v>
-      </c>
-      <c r="M121" s="3">
-        <v>3</v>
-      </c>
-      <c r="R121" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="3:21">
-      <c r="C122" s="3">
-        <v>5000032</v>
-      </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J122" s="3">
-        <v>0</v>
-      </c>
-      <c r="M122" s="3">
-        <v>2</v>
-      </c>
-      <c r="O122" s="3">
-        <v>2</v>
-      </c>
-      <c r="S122" s="3">
-        <v>1019</v>
-      </c>
-      <c r="T122" s="3">
-        <v>6</v>
-      </c>
-      <c r="U122" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" ht="26" spans="3:17">
-      <c r="C123" s="3">
-        <v>5000033</v>
-      </c>
-      <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="M123" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:18">
-      <c r="C124" s="3">
-        <v>5000034</v>
-      </c>
-      <c r="D124" s="3">
-        <v>4</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J124" s="3">
-        <v>2</v>
-      </c>
-      <c r="O124" s="3">
-        <v>2</v>
-      </c>
-      <c r="R124" s="3">
+      <c r="M124" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="3:18">
       <c r="C125" s="3">
-        <v>5000035</v>
+        <v>5000030</v>
       </c>
       <c r="D125" s="3">
         <v>4</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J125" s="3">
         <v>2</v>
       </c>
-      <c r="O125" s="3">
+      <c r="M125" s="3">
         <v>2</v>
       </c>
       <c r="R125" s="3">
@@ -6487,379 +6628,472 @@
     </row>
     <row r="126" ht="26" spans="3:18">
       <c r="C126" s="3">
+        <v>5000031</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J126" s="3">
+        <v>2</v>
+      </c>
+      <c r="M126" s="3">
+        <v>3</v>
+      </c>
+      <c r="R126" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="3:21">
+      <c r="C127" s="3">
+        <v>5000032</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="M127" s="3">
+        <v>2</v>
+      </c>
+      <c r="O127" s="3">
+        <v>2</v>
+      </c>
+      <c r="S127" s="3">
+        <v>1019</v>
+      </c>
+      <c r="T127" s="3">
+        <v>6</v>
+      </c>
+      <c r="U127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="26" spans="3:17">
+      <c r="C128" s="3">
+        <v>5000033</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2</v>
+      </c>
+      <c r="M128" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="3:26">
+      <c r="C129" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J129" s="3">
+        <v>2</v>
+      </c>
+      <c r="O129" s="3">
+        <v>2</v>
+      </c>
+      <c r="R129" s="3">
+        <v>2</v>
+      </c>
+      <c r="S129" s="3">
+        <v>1024</v>
+      </c>
+      <c r="T129" s="3">
+        <v>6</v>
+      </c>
+      <c r="U129" s="3">
+        <v>6</v>
+      </c>
+      <c r="X129" s="3">
+        <v>1012</v>
+      </c>
+      <c r="Y129" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:22">
+      <c r="C130" s="3">
+        <v>5000035</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J130" s="3">
+        <v>2</v>
+      </c>
+      <c r="O130" s="3">
+        <v>2</v>
+      </c>
+      <c r="R130" s="3">
+        <v>2</v>
+      </c>
+      <c r="S130" s="3">
+        <v>1007</v>
+      </c>
+      <c r="T130" s="3">
+        <v>6</v>
+      </c>
+      <c r="U130" s="3">
+        <v>90001</v>
+      </c>
+      <c r="V130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="26" spans="3:18">
+      <c r="C131" s="3">
         <v>5000036</v>
       </c>
-      <c r="D126" s="3">
-        <v>4</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J126" s="3">
+      <c r="D131" s="3">
+        <v>4</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J131" s="3">
         <v>8</v>
       </c>
-      <c r="O126" s="3">
-        <v>2</v>
-      </c>
-      <c r="R126" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" ht="26" spans="3:17">
-      <c r="C127" s="3">
+      <c r="O131" s="3">
+        <v>2</v>
+      </c>
+      <c r="R131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" ht="26" spans="3:17">
+      <c r="C132" s="3">
         <v>5000037</v>
       </c>
-      <c r="D127" s="3">
-        <v>4</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J127" s="3">
-        <v>2</v>
-      </c>
-      <c r="O127" s="3">
+      <c r="D132" s="3">
+        <v>4</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
+      <c r="O132" s="3">
         <v>10</v>
       </c>
-      <c r="Q127" s="3">
+      <c r="Q132" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="26" spans="3:15">
-      <c r="C128" s="3">
+    <row r="133" ht="26" spans="3:15">
+      <c r="C133" s="3">
         <v>5000038</v>
       </c>
-      <c r="D128" s="3">
-        <v>4</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J128" s="3">
+      <c r="D133" s="3">
+        <v>4</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J133" s="3">
         <v>6</v>
       </c>
-      <c r="N128" s="3">
+      <c r="N133" s="3">
         <v>5</v>
       </c>
-      <c r="O128" s="3">
+      <c r="O133" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="26" spans="3:18">
-      <c r="C129" s="3">
+    <row r="134" ht="26" spans="3:18">
+      <c r="C134" s="3">
         <v>5000039</v>
       </c>
-      <c r="D129" s="3">
-        <v>4</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J129" s="3">
+      <c r="D134" s="3">
+        <v>4</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" s="3">
         <v>3</v>
       </c>
-      <c r="Q129" s="3">
-        <v>2</v>
-      </c>
-      <c r="R129" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" ht="26" spans="3:18">
-      <c r="C130" s="3">
+      <c r="Q134" s="3">
+        <v>2</v>
+      </c>
+      <c r="R134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" ht="26" spans="3:18">
+      <c r="C135" s="3">
         <v>5000040</v>
       </c>
-      <c r="D130" s="3">
-        <v>4</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J130" s="3">
+      <c r="D135" s="3">
+        <v>4</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J135" s="3">
         <v>6</v>
       </c>
-      <c r="Q130" s="3">
-        <v>4</v>
-      </c>
-      <c r="R130" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="3:18">
-      <c r="C131" s="3">
+      <c r="Q135" s="3">
+        <v>4</v>
+      </c>
+      <c r="R135" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="3:18">
+      <c r="C136" s="3">
         <v>5000041</v>
       </c>
-      <c r="D131" s="3">
-        <v>4</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J131" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="3">
-        <v>3</v>
-      </c>
-      <c r="R131" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" ht="26" spans="3:18">
-      <c r="C132" s="3">
-        <v>5000042</v>
-      </c>
-      <c r="D132" s="3">
-        <v>4</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H132" s="4" t="s">
+      <c r="D136" s="3">
+        <v>4</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J132" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q132" s="3">
-        <v>2</v>
-      </c>
-      <c r="R132" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" ht="26" spans="3:18">
-      <c r="C133" s="3">
-        <v>5000043</v>
-      </c>
-      <c r="D133" s="3">
-        <v>4</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="H136" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J133" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q133" s="3">
-        <v>2</v>
-      </c>
-      <c r="R133" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" ht="26" spans="3:17">
-      <c r="C134" s="3">
-        <v>5000044</v>
-      </c>
-      <c r="D134" s="3">
-        <v>4</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J134" s="3">
-        <v>2</v>
-      </c>
-      <c r="P134" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q134" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="3:17">
-      <c r="C135" s="3">
-        <v>5000045</v>
-      </c>
-      <c r="D135" s="3">
-        <v>4</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J135" s="3">
-        <v>2</v>
-      </c>
-      <c r="P135" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q135" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" ht="39" spans="3:17">
-      <c r="C136" s="3">
-        <v>5000046</v>
-      </c>
-      <c r="D136" s="3">
-        <v>4</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="J136" s="3">
-        <v>3</v>
-      </c>
-      <c r="N136" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="3:16">
+      <c r="R136" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" ht="26" spans="3:18">
       <c r="C137" s="3">
+        <v>5000042</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J137" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>2</v>
+      </c>
+      <c r="R137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" ht="26" spans="3:18">
+      <c r="C138" s="3">
+        <v>5000043</v>
+      </c>
+      <c r="D138" s="3">
+        <v>4</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J138" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>2</v>
+      </c>
+      <c r="R138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="3:17">
+      <c r="C139" s="3">
+        <v>5000044</v>
+      </c>
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2</v>
+      </c>
+      <c r="P139" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="3:17">
+      <c r="C140" s="3">
+        <v>5000045</v>
+      </c>
+      <c r="D140" s="3">
+        <v>4</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J140" s="3">
+        <v>2</v>
+      </c>
+      <c r="P140" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="39" spans="3:17">
+      <c r="C141" s="3">
+        <v>5000046</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J141" s="3">
+        <v>3</v>
+      </c>
+      <c r="N141" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="3:24">
+      <c r="C142" s="3">
         <v>5000047</v>
       </c>
-      <c r="D137" s="3">
-        <v>4</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H137" s="4" t="s">
+      <c r="D142" s="3">
+        <v>4</v>
+      </c>
+      <c r="G142" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J137" s="3">
-        <v>2</v>
-      </c>
-      <c r="N137" s="3">
-        <v>2</v>
-      </c>
-      <c r="P137" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" ht="39" spans="3:16">
-      <c r="C138" s="3">
+      <c r="H142" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J142" s="3">
+        <v>2</v>
+      </c>
+      <c r="N142" s="3">
+        <v>2</v>
+      </c>
+      <c r="P142" s="3">
+        <v>2</v>
+      </c>
+      <c r="S142" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T142" s="3">
+        <v>6</v>
+      </c>
+      <c r="U142" s="3">
+        <v>4</v>
+      </c>
+      <c r="X142" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" ht="39" spans="3:16">
+      <c r="C143" s="3">
         <v>5000048</v>
       </c>
-      <c r="D138" s="3">
-        <v>4</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H138" s="4" t="s">
+      <c r="D143" s="3">
+        <v>4</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J138" s="3">
-        <v>2</v>
-      </c>
-      <c r="M138" s="3">
-        <v>2</v>
-      </c>
-      <c r="P138" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="3:13">
-      <c r="C139" s="3">
-        <v>5000049</v>
-      </c>
-      <c r="D139" s="3">
-        <v>4</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="H143" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="M139" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="3:13">
-      <c r="C140" s="3">
-        <v>5000050</v>
-      </c>
-      <c r="D140" s="3">
-        <v>4</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M140" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="3:13">
-      <c r="C141" s="3">
-        <v>5000051</v>
-      </c>
-      <c r="D141" s="3">
-        <v>4</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="M141" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="3:13">
-      <c r="C142" s="3">
-        <v>5000052</v>
-      </c>
-      <c r="D142" s="3">
-        <v>4</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M142" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="3:13">
-      <c r="C143" s="3">
-        <v>5000053</v>
-      </c>
-      <c r="D143" s="3">
-        <v>4</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>239</v>
+      <c r="J143" s="3">
+        <v>2</v>
       </c>
       <c r="M143" s="3">
+        <v>2</v>
+      </c>
+      <c r="P143" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="3:13">
       <c r="C144" s="3">
-        <v>5000054</v>
+        <v>5000049</v>
       </c>
       <c r="D144" s="3">
         <v>4</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="M144" s="3">
         <v>2</v>
@@ -6867,10 +7101,13 @@
     </row>
     <row r="145" spans="3:13">
       <c r="C145" s="3">
-        <v>5000055</v>
+        <v>5000050</v>
       </c>
       <c r="D145" s="3">
         <v>4</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="M145" s="3">
         <v>2</v>
@@ -6878,200 +7115,315 @@
     </row>
     <row r="146" spans="3:13">
       <c r="C146" s="3">
+        <v>5000051</v>
+      </c>
+      <c r="D146" s="3">
+        <v>4</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M146" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="3:13">
+      <c r="C147" s="3">
+        <v>5000052</v>
+      </c>
+      <c r="D147" s="3">
+        <v>4</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="3:13">
+      <c r="C148" s="3">
+        <v>5000053</v>
+      </c>
+      <c r="D148" s="3">
+        <v>4</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="3:13">
+      <c r="C149" s="3">
+        <v>5000054</v>
+      </c>
+      <c r="D149" s="3">
+        <v>4</v>
+      </c>
+      <c r="M149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="3:13">
+      <c r="C150" s="3">
+        <v>5000055</v>
+      </c>
+      <c r="D150" s="3">
+        <v>4</v>
+      </c>
+      <c r="M150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="3:13">
+      <c r="C151" s="3">
         <v>5000056</v>
       </c>
-      <c r="D146" s="3">
-        <v>4</v>
-      </c>
-      <c r="M146" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" ht="39" spans="3:8">
-      <c r="C147" s="3">
+      <c r="D151" s="3">
+        <v>4</v>
+      </c>
+      <c r="M151" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" ht="39" spans="3:8">
+      <c r="C152" s="3">
         <v>5000057</v>
       </c>
-      <c r="D147" s="3">
-        <v>4</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="148" ht="26" spans="3:8">
-      <c r="C148" s="3">
+      <c r="D152" s="3">
+        <v>4</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" ht="26" spans="3:8">
+      <c r="C153" s="3">
         <v>5000058</v>
       </c>
-      <c r="D148" s="3">
-        <v>4</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="149" ht="26" spans="3:21">
-      <c r="C149" s="3">
+      <c r="D153" s="3">
+        <v>4</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" ht="26" spans="3:22">
+      <c r="C154" s="3">
         <v>5000059</v>
       </c>
-      <c r="D149" s="3">
-        <v>4</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H149" s="4" t="s">
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J149" s="3">
-        <v>2</v>
-      </c>
-      <c r="O149" s="3">
+      <c r="H154" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J154" s="3">
+        <v>2</v>
+      </c>
+      <c r="O154" s="3">
         <v>3</v>
       </c>
-      <c r="Q149" s="3">
+      <c r="Q154" s="3">
         <v>3</v>
       </c>
-      <c r="S149" s="3">
+      <c r="S154" s="3">
         <v>1014</v>
-      </c>
-      <c r="T149" s="3">
-        <v>6</v>
-      </c>
-      <c r="U149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="3:21">
-      <c r="C150" s="3">
-        <v>5000060</v>
-      </c>
-      <c r="D150" s="3">
-        <v>4</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J150" s="3">
-        <v>3</v>
-      </c>
-      <c r="S150" s="3">
-        <v>1016</v>
-      </c>
-      <c r="T150" s="3">
-        <v>6</v>
-      </c>
-      <c r="U150" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8">
-      <c r="C151" s="3">
-        <v>5000061</v>
-      </c>
-      <c r="D151" s="3">
-        <v>4</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8">
-      <c r="C152" s="3">
-        <v>5000062</v>
-      </c>
-      <c r="D152" s="3">
-        <v>4</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="153" spans="3:22">
-      <c r="C153" s="3">
-        <v>5000063</v>
-      </c>
-      <c r="D153" s="3">
-        <v>4</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q153" s="3">
-        <v>2</v>
-      </c>
-      <c r="S153" s="3">
-        <v>1022</v>
-      </c>
-      <c r="T153" s="3">
-        <v>6</v>
-      </c>
-      <c r="U153" s="3">
-        <v>1</v>
-      </c>
-      <c r="V153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="3:22">
-      <c r="C154" s="3">
-        <v>5000064</v>
-      </c>
-      <c r="D154" s="3">
-        <v>4</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q154" s="3">
-        <v>6</v>
-      </c>
-      <c r="S154" s="3">
-        <v>1022</v>
       </c>
       <c r="T154" s="3">
         <v>6</v>
       </c>
       <c r="U154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V154" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="3:21">
       <c r="C155" s="3">
+        <v>5000060</v>
+      </c>
+      <c r="D155" s="3">
+        <v>4</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J155" s="3">
+        <v>3</v>
+      </c>
+      <c r="S155" s="3">
+        <v>1016</v>
+      </c>
+      <c r="T155" s="3">
+        <v>6</v>
+      </c>
+      <c r="U155" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8">
+      <c r="C156" s="3">
+        <v>5000061</v>
+      </c>
+      <c r="D156" s="3">
+        <v>4</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="3:22">
+      <c r="C157" s="3">
+        <v>5000062</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S157" s="3">
+        <v>1023</v>
+      </c>
+      <c r="T157" s="3">
+        <v>6</v>
+      </c>
+      <c r="U157" s="3">
+        <v>5</v>
+      </c>
+      <c r="V157" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="3:22">
+      <c r="C158" s="3">
+        <v>5000063</v>
+      </c>
+      <c r="D158" s="3">
+        <v>4</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>2</v>
+      </c>
+      <c r="S158" s="3">
+        <v>1022</v>
+      </c>
+      <c r="T158" s="3">
+        <v>6</v>
+      </c>
+      <c r="U158" s="3">
+        <v>1</v>
+      </c>
+      <c r="V158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="3:22">
+      <c r="C159" s="3">
+        <v>5000064</v>
+      </c>
+      <c r="D159" s="3">
+        <v>4</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q159" s="3">
+        <v>6</v>
+      </c>
+      <c r="S159" s="3">
+        <v>1022</v>
+      </c>
+      <c r="T159" s="3">
+        <v>6</v>
+      </c>
+      <c r="U159" s="3">
+        <v>2</v>
+      </c>
+      <c r="V159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="3:21">
+      <c r="C160" s="3">
         <v>5000065</v>
       </c>
-      <c r="D155" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="3">
+      <c r="D160" s="3">
+        <v>4</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I160" s="4">
+        <v>2</v>
+      </c>
+      <c r="S160" s="3">
+        <v>1025</v>
+      </c>
+      <c r="T160" s="3">
+        <v>6</v>
+      </c>
+      <c r="U160" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="3:20">
+      <c r="C161" s="3">
         <v>5000066</v>
       </c>
-      <c r="D156" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="3">
+      <c r="D161" s="3">
+        <v>4</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I161" s="4">
+        <v>2</v>
+      </c>
+      <c r="S161" s="3">
+        <v>1026</v>
+      </c>
+      <c r="T161" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" ht="26" spans="3:8">
+      <c r="C162" s="3">
         <v>5000067</v>
       </c>
-      <c r="D157" s="3">
-        <v>4</v>
+      <c r="D162" s="3">
+        <v>4</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="17660"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="CardProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="260">
   <si>
     <t>#</t>
   </si>
@@ -163,8 +163,8 @@
     <t>[海底火山]</t>
   </si>
   <si>
-    <t>星典
-你的英雄获得免疫</t>
+    <t>星典，嘲讽
+你的英雄获得无敌</t>
   </si>
   <si>
     <t>测试英雄</t>
@@ -291,7 +291,7 @@
     <t>东方之星号战列舰</t>
   </si>
   <si>
-    <t>你的所有单位获得免疫</t>
+    <t>你的所有单位获得无敌</t>
   </si>
   <si>
     <t>暴风雪级战列舰</t>
@@ -389,7 +389,7 @@
     <t>虚数之门</t>
   </si>
   <si>
-    <t>嘲讽，免疫</t>
+    <t>嘲讽，无敌</t>
   </si>
   <si>
     <t>侵蚀者</t>
@@ -419,7 +419,7 @@
     <t>迫击炮兵</t>
   </si>
   <si>
-    <t>对一个角色造成2点伤害</t>
+    <t>部署：对一个角色造成2点伤害</t>
   </si>
   <si>
     <t>光环怪</t>
@@ -437,6 +437,12 @@
     <t>红龙</t>
   </si>
   <si>
+    <t>游龙</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
     <t>测试战术</t>
   </si>
   <si>
@@ -527,7 +533,7 @@
     <t>流失水分</t>
   </si>
   <si>
-    <t>使你牌库中所有的根生藤曼-1/-1，每失去一点属性，对敌方英雄造成1点伤害</t>
+    <t>使你牌库中所有的根生藤曼-1/-1，对敌方英雄造成总共失去的数值伤害</t>
   </si>
   <si>
     <t>嵌石绿植</t>
@@ -578,9 +584,6 @@
     <t>交换双方护甲</t>
   </si>
   <si>
-    <t>召唤一面虚数之门</t>
-  </si>
-  <si>
     <t>阿佩洛夺取案</t>
   </si>
   <si>
@@ -686,7 +689,7 @@
     <t>空间震爆</t>
   </si>
   <si>
-    <t>消灭所有单位，没消灭一个单位，消灭对手牌库顶一张牌</t>
+    <t>消灭所有单位，每消灭一个单位，消灭对手牌库顶一张牌</t>
   </si>
   <si>
     <t>侵蚀仪式</t>
@@ -805,9 +808,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -983,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,31 +1307,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,10 +1343,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1358,28 +1367,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1388,19 +1397,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,38 +1418,41 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,6 +1480,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1829,10 +1844,10 @@
   <sheetPr/>
   <dimension ref="C2:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2206,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="26" spans="3:24">
+    <row r="9" ht="26" spans="3:12">
       <c r="C9" s="3">
         <v>104</v>
       </c>
@@ -2230,12 +2245,6 @@
       </c>
       <c r="L9" s="3">
         <v>12</v>
-      </c>
-      <c r="S9" s="3">
-        <v>106</v>
-      </c>
-      <c r="X9" s="3">
-        <v>107</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="26" spans="3:33">
@@ -4627,7 +4636,7 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H65" s="8" t="s">
@@ -4678,7 +4687,7 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -4702,9 +4711,15 @@
         <v>2</v>
       </c>
       <c r="R66" s="7"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="7"/>
+      <c r="S66" s="8">
+        <v>1034</v>
+      </c>
+      <c r="T66" s="8">
+        <v>2</v>
+      </c>
+      <c r="U66" s="7">
+        <v>2</v>
+      </c>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
@@ -4729,7 +4744,7 @@
       <c r="F67" s="7">
         <v>1</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -4751,12 +4766,16 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="8"/>
+      <c r="S67" s="8">
+        <v>106</v>
+      </c>
       <c r="T67" s="8"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="7">
+        <v>108</v>
+      </c>
       <c r="Y67" s="8"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -4776,7 +4795,7 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -4806,9 +4825,11 @@
         <v>1018</v>
       </c>
       <c r="T68" s="8">
-        <v>2</v>
-      </c>
-      <c r="U68" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="U68" s="7">
+        <v>2</v>
+      </c>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
@@ -4874,7 +4895,7 @@
       <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="10" t="s">
         <v>127</v>
       </c>
       <c r="H70" s="4"/>
@@ -4921,7 +4942,7 @@
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="10" t="s">
         <v>128</v>
       </c>
       <c r="H71" s="4"/>
@@ -4966,7 +4987,7 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -5216,7 +5237,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
     </row>
-    <row r="77" customFormat="1" ht="14" spans="3:33">
+    <row r="77" customFormat="1" spans="3:33">
       <c r="C77" s="7">
         <v>3000014</v>
       </c>
@@ -5224,8 +5245,15 @@
         <v>3</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="H77" s="4"/>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5236,7 +5264,9 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
+      <c r="S77" s="3">
+        <v>113</v>
+      </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
@@ -5519,14 +5549,14 @@
         <v>7</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="7">
@@ -5571,11 +5601,11 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="7" t="s">
-        <v>141</v>
+      <c r="G86" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="7"/>
@@ -5936,7 +5966,7 @@
       <c r="AF95" s="7"/>
       <c r="AG95" s="7"/>
     </row>
-    <row r="96" spans="3:15">
+    <row r="96" spans="3:21">
       <c r="C96" s="3">
         <v>5000001</v>
       </c>
@@ -5944,19 +5974,28 @@
         <v>4</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J96" s="3">
         <v>2</v>
       </c>
       <c r="O96" s="3">
         <v>2</v>
+      </c>
+      <c r="S96" s="3">
+        <v>1024</v>
+      </c>
+      <c r="T96" s="3">
+        <v>6</v>
+      </c>
+      <c r="U96" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="3:15">
@@ -5967,10 +6006,10 @@
         <v>4</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J97" s="3">
         <v>3</v>
@@ -5986,11 +6025,11 @@
       <c r="D98" s="3">
         <v>4</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>148</v>
+      <c r="G98" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J98" s="3">
         <v>6</v>
@@ -6005,18 +6044,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="3:17">
+    <row r="99" spans="3:21">
       <c r="C99" s="3">
         <v>5000004</v>
       </c>
       <c r="D99" s="3">
         <v>4</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>150</v>
+      <c r="G99" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
@@ -6024,19 +6063,28 @@
       <c r="Q99" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="3:17">
+      <c r="S99" s="3">
+        <v>1034</v>
+      </c>
+      <c r="T99" s="3">
+        <v>6</v>
+      </c>
+      <c r="U99" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23">
       <c r="C100" s="3">
         <v>5000005</v>
       </c>
       <c r="D100" s="3">
         <v>4</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>152</v>
+      <c r="G100" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
@@ -6044,19 +6092,34 @@
       <c r="Q100" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="3:17">
+      <c r="S100" s="3">
+        <v>1007</v>
+      </c>
+      <c r="T100" s="3">
+        <v>6</v>
+      </c>
+      <c r="U100" s="3">
+        <v>3000014</v>
+      </c>
+      <c r="V100" s="3">
+        <v>1</v>
+      </c>
+      <c r="W100" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26">
       <c r="C101" s="3">
         <v>5000006</v>
       </c>
       <c r="D101" s="3">
         <v>4</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>154</v>
+      <c r="G101" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J101" s="3">
         <v>2</v>
@@ -6064,25 +6127,61 @@
       <c r="Q101" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17">
+      <c r="S101" s="3">
+        <v>1035</v>
+      </c>
+      <c r="T101" s="3">
+        <v>6</v>
+      </c>
+      <c r="U101" s="3">
+        <v>6</v>
+      </c>
+      <c r="X101" s="3">
+        <v>1012</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25">
       <c r="C102" s="3">
         <v>5000007</v>
       </c>
       <c r="D102" s="3">
         <v>4</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>156</v>
+      <c r="G102" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="I102" s="4">
+        <v>2</v>
       </c>
       <c r="J102" s="3">
         <v>2</v>
       </c>
       <c r="Q102" s="3">
         <v>3</v>
+      </c>
+      <c r="S102" s="3">
+        <v>1035</v>
+      </c>
+      <c r="T102" s="3">
+        <v>6</v>
+      </c>
+      <c r="U102" s="3">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
+        <v>1020</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="3:21">
@@ -6092,11 +6191,11 @@
       <c r="D103" s="3">
         <v>4</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>158</v>
+      <c r="G103" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -6114,18 +6213,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
+    <row r="104" spans="3:21">
       <c r="C104" s="3">
         <v>5000009</v>
       </c>
       <c r="D104" s="3">
         <v>4</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>160</v>
+      <c r="G104" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -6133,16 +6232,25 @@
       <c r="P104" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="3:16">
+      <c r="S104" s="3">
+        <v>1036</v>
+      </c>
+      <c r="T104" s="3">
+        <v>6</v>
+      </c>
+      <c r="U104" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="3:22">
       <c r="C105" s="3">
         <v>5000010</v>
       </c>
       <c r="D105" s="3">
         <v>4</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>162</v>
+      <c r="G105" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>134</v>
@@ -6153,19 +6261,31 @@
       <c r="P105" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" ht="26" spans="3:16">
+      <c r="S105" s="3">
+        <v>1037</v>
+      </c>
+      <c r="T105" s="3">
+        <v>6</v>
+      </c>
+      <c r="U105" s="3">
+        <v>1</v>
+      </c>
+      <c r="V105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="26" spans="3:23">
       <c r="C106" s="3">
         <v>5000011</v>
       </c>
       <c r="D106" s="3">
         <v>4</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>163</v>
+      <c r="G106" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -6173,19 +6293,34 @@
       <c r="P106" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" ht="26" spans="3:16">
+      <c r="S106" s="3">
+        <v>1028</v>
+      </c>
+      <c r="T106" s="3">
+        <v>6</v>
+      </c>
+      <c r="U106" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V106" s="3">
+        <v>4</v>
+      </c>
+      <c r="W106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="26" spans="3:22">
       <c r="C107" s="3">
         <v>5000012</v>
       </c>
       <c r="D107" s="3">
         <v>4</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>165</v>
+      <c r="G107" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J107" s="3">
         <v>1</v>
@@ -6193,19 +6328,31 @@
       <c r="P107" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" ht="39" spans="3:17">
+      <c r="S107" s="3">
+        <v>1038</v>
+      </c>
+      <c r="T107" s="3">
+        <v>6</v>
+      </c>
+      <c r="U107" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="39" spans="3:22">
       <c r="C108" s="3">
         <v>5000013</v>
       </c>
       <c r="D108" s="3">
         <v>4</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>167</v>
+      <c r="G108" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
@@ -6215,6 +6362,18 @@
       </c>
       <c r="Q108" s="3">
         <v>2</v>
+      </c>
+      <c r="S108" s="3">
+        <v>1039</v>
+      </c>
+      <c r="T108" s="3">
+        <v>6</v>
+      </c>
+      <c r="U108" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V108" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="26" spans="3:23">
@@ -6225,10 +6384,10 @@
         <v>4</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J109" s="3">
         <v>1</v>
@@ -6263,10 +6422,10 @@
         <v>4</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I110" s="4">
         <v>1</v>
@@ -6287,24 +6446,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="3:14">
+    <row r="111" spans="3:21">
       <c r="C111" s="3">
         <v>5000016</v>
       </c>
       <c r="D111" s="3">
         <v>4</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>173</v>
+      <c r="G111" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J111" s="3">
         <v>5</v>
       </c>
       <c r="N111" s="3">
         <v>5</v>
+      </c>
+      <c r="S111" s="3">
+        <v>1025</v>
+      </c>
+      <c r="T111" s="3">
+        <v>6</v>
+      </c>
+      <c r="U111" s="3">
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="3:18">
@@ -6314,11 +6482,14 @@
       <c r="D112" s="3">
         <v>4</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>175</v>
+      <c r="G112" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I112" s="4">
+        <v>4</v>
       </c>
       <c r="J112" s="3">
         <v>1</v>
@@ -6335,10 +6506,10 @@
         <v>4</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I113" s="4">
         <v>2</v>
@@ -6363,11 +6534,11 @@
       <c r="D114" s="3">
         <v>4</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>179</v>
+      <c r="G114" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J114" s="3">
         <v>2</v>
@@ -6376,23 +6547,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="3:18">
+    <row r="115" spans="3:21">
       <c r="C115" s="3">
         <v>5000020</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>181</v>
+      <c r="G115" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
       </c>
       <c r="R115" s="3">
+        <v>2</v>
+      </c>
+      <c r="S115" s="8">
+        <v>1012</v>
+      </c>
+      <c r="T115" s="8">
+        <v>6</v>
+      </c>
+      <c r="U115" s="7">
         <v>2</v>
       </c>
     </row>
@@ -6403,11 +6583,11 @@
       <c r="D116" s="3">
         <v>4</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>183</v>
+      <c r="G116" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J116" s="3">
         <v>0</v>
@@ -6422,24 +6602,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="3:18">
+    <row r="117" spans="3:4">
       <c r="C117" s="3">
         <v>5000022</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J117" s="3">
-        <v>6</v>
-      </c>
-      <c r="R117" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="118" spans="3:13">
@@ -6450,10 +6618,10 @@
         <v>4</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J118" s="3">
         <v>3</v>
@@ -6470,10 +6638,10 @@
         <v>4</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I119" s="4">
         <v>3</v>
@@ -6504,11 +6672,11 @@
       <c r="D120" s="3">
         <v>4</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>190</v>
+      <c r="G120" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J120" s="3">
         <v>10</v>
@@ -6531,10 +6699,10 @@
         <v>4</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J121" s="3">
         <v>4</v>
@@ -6551,10 +6719,10 @@
         <v>4</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -6571,10 +6739,10 @@
         <v>4</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J123" s="3">
         <v>2</v>
@@ -6591,10 +6759,10 @@
         <v>4</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J124" s="3">
         <v>0</v>
@@ -6611,10 +6779,10 @@
         <v>4</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J125" s="3">
         <v>2</v>
@@ -6634,10 +6802,10 @@
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J126" s="3">
         <v>2</v>
@@ -6656,11 +6824,11 @@
       <c r="D127" s="3">
         <v>4</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>204</v>
+      <c r="G127" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J127" s="3">
         <v>0</v>
@@ -6689,10 +6857,10 @@
         <v>4</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J128" s="3">
         <v>2</v>
@@ -6712,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J129" s="3">
         <v>2</v>
@@ -6752,11 +6920,11 @@
       <c r="D130" s="3">
         <v>4</v>
       </c>
-      <c r="G130" s="11" t="s">
-        <v>210</v>
+      <c r="G130" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J130" s="3">
         <v>2</v>
@@ -6788,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J131" s="3">
         <v>8</v>
@@ -6811,10 +6979,10 @@
         <v>4</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J132" s="3">
         <v>2</v>
@@ -6834,10 +7002,10 @@
         <v>4</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J133" s="3">
         <v>6</v>
@@ -6857,10 +7025,10 @@
         <v>4</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J134" s="3">
         <v>3</v>
@@ -6880,10 +7048,10 @@
         <v>4</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J135" s="3">
         <v>6</v>
@@ -6895,18 +7063,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="3:18">
+    <row r="136" spans="3:21">
       <c r="C136" s="3">
         <v>5000041</v>
       </c>
       <c r="D136" s="3">
         <v>4</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>222</v>
+      <c r="G136" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J136" s="3">
         <v>1</v>
@@ -6915,6 +7083,15 @@
         <v>3</v>
       </c>
       <c r="R136" s="3">
+        <v>3</v>
+      </c>
+      <c r="S136" s="3">
+        <v>1018</v>
+      </c>
+      <c r="T136" s="3">
+        <v>6</v>
+      </c>
+      <c r="U136" s="3">
         <v>3</v>
       </c>
     </row>
@@ -6926,10 +7103,10 @@
         <v>4</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J137" s="3">
         <v>2</v>
@@ -6941,18 +7118,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" ht="26" spans="3:18">
+    <row r="138" ht="26" spans="3:21">
       <c r="C138" s="3">
         <v>5000043</v>
       </c>
       <c r="D138" s="3">
         <v>4</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>226</v>
+      <c r="G138" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J138" s="3">
         <v>2</v>
@@ -6962,6 +7139,15 @@
       </c>
       <c r="R138" s="3">
         <v>2</v>
+      </c>
+      <c r="S138" s="3">
+        <v>1044</v>
+      </c>
+      <c r="T138" s="3">
+        <v>6</v>
+      </c>
+      <c r="U138" s="3">
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="3:17">
@@ -6981,18 +7167,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="3:17">
+    <row r="140" spans="3:24">
       <c r="C140" s="3">
         <v>5000045</v>
       </c>
       <c r="D140" s="3">
         <v>4</v>
       </c>
-      <c r="G140" s="3" t="s">
-        <v>228</v>
+      <c r="G140" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J140" s="3">
         <v>2</v>
@@ -7002,6 +7188,18 @@
       </c>
       <c r="Q140" s="3">
         <v>2</v>
+      </c>
+      <c r="S140" s="3">
+        <v>1045</v>
+      </c>
+      <c r="T140" s="3">
+        <v>6</v>
+      </c>
+      <c r="U140" s="3">
+        <v>4</v>
+      </c>
+      <c r="X140" s="3">
+        <v>115</v>
       </c>
     </row>
     <row r="141" ht="39" spans="3:17">
@@ -7012,10 +7210,10 @@
         <v>4</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J141" s="3">
         <v>3</v>
@@ -7035,10 +7233,10 @@
         <v>4</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J142" s="3">
         <v>2</v>
@@ -7070,10 +7268,10 @@
         <v>4</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J143" s="3">
         <v>2</v>
@@ -7093,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M144" s="3">
         <v>2</v>
@@ -7107,7 +7305,7 @@
         <v>4</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M145" s="3">
         <v>2</v>
@@ -7121,7 +7319,7 @@
         <v>4</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M146" s="3">
         <v>2</v>
@@ -7135,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M147" s="3">
         <v>2</v>
@@ -7149,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M148" s="3">
         <v>2</v>
@@ -7196,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" ht="26" spans="3:8">
@@ -7207,7 +7405,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" ht="26" spans="3:22">
@@ -7218,10 +7416,10 @@
         <v>4</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J154" s="3">
         <v>2</v>
@@ -7253,10 +7451,10 @@
         <v>4</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J155" s="3">
         <v>3</v>
@@ -7279,7 +7477,7 @@
         <v>4</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="3:22">
@@ -7289,11 +7487,11 @@
       <c r="D157" s="3">
         <v>4</v>
       </c>
-      <c r="G157" s="12" t="s">
-        <v>248</v>
+      <c r="G157" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S157" s="3">
         <v>1023</v>
@@ -7316,10 +7514,10 @@
         <v>4</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q158" s="3">
         <v>2</v>
@@ -7345,10 +7543,10 @@
         <v>4</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q159" s="3">
         <v>6</v>
@@ -7374,10 +7572,10 @@
         <v>4</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I160" s="4">
         <v>2</v>
@@ -7400,10 +7598,10 @@
         <v>4</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I161" s="4">
         <v>2</v>
@@ -7423,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="262">
   <si>
     <t>#</t>
   </si>
@@ -443,6 +443,12 @@
     <t>吸血</t>
   </si>
   <si>
+    <t>快龙</t>
+  </si>
+  <si>
+    <t>无敌，冲锋</t>
+  </si>
+  <si>
     <t>测试战术</t>
   </si>
   <si>
@@ -467,12 +473,6 @@
     <t>获得10点护甲</t>
   </si>
   <si>
-    <t>巨岩重兵</t>
-  </si>
-  <si>
-    <t>召唤6-8具有嘲讽的石兵</t>
-  </si>
-  <si>
     <t>灵魂震荡</t>
   </si>
   <si>
@@ -668,9 +668,6 @@
     <t>对所有单位造成9点伤害，随后在双方场上各布置2个禁区</t>
   </si>
   <si>
-    <t>快龙</t>
-  </si>
-  <si>
     <t>召唤一只8-8，具有无敌，冲锋的快龙</t>
   </si>
   <si>
@@ -800,7 +797,16 @@
     <t>移除目标单位</t>
   </si>
   <si>
+    <t>屏障爆裂</t>
+  </si>
+  <si>
     <t>移除你对手的护甲，并对其造成这个数值的伤害</t>
+  </si>
+  <si>
+    <t>为你的对手召唤7个具有无敌的1-1紫兵</t>
+  </si>
+  <si>
+    <t>消灭一个友方单位，为你恢复其生命值的生命</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1486,9 +1492,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1842,12 +1845,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AG162"/>
+  <dimension ref="C2:AG174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="V90" sqref="V90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -4491,10 +4494,18 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
+      <c r="S61" s="8">
+        <v>1028</v>
+      </c>
+      <c r="T61" s="8">
+        <v>1</v>
+      </c>
+      <c r="U61" s="7">
+        <v>3000008</v>
+      </c>
+      <c r="V61" s="7">
+        <v>3</v>
+      </c>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="8"/>
@@ -4554,7 +4565,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="7"/>
     </row>
-    <row r="63" ht="39" spans="3:10">
+    <row r="63" ht="39" spans="3:24">
       <c r="C63" s="3">
         <v>2000001</v>
       </c>
@@ -4564,7 +4575,7 @@
       <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="10" t="s">
         <v>113</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -4573,342 +4584,270 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="3:33">
-      <c r="C64" s="7">
-        <v>3000001</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="7">
-        <v>2</v>
-      </c>
-      <c r="K64" s="7">
-        <v>3</v>
-      </c>
-      <c r="L64" s="7">
-        <v>4</v>
-      </c>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="8">
-        <v>108</v>
-      </c>
-      <c r="T64" s="8"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="7"/>
-      <c r="AG64" s="7"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="3:33">
-      <c r="C65" s="7">
-        <v>3000002</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="7">
-        <v>3</v>
-      </c>
-      <c r="K65" s="7">
+      <c r="S63" s="3">
+        <v>1035</v>
+      </c>
+      <c r="T63" s="3">
+        <v>8</v>
+      </c>
+      <c r="U63" s="3">
+        <v>2</v>
+      </c>
+      <c r="X63" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="3:33">
+      <c r="C64" s="3">
+        <v>2000002</v>
+      </c>
+      <c r="D64" s="3">
         <v>6</v>
       </c>
-      <c r="L65" s="7">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+    </row>
+    <row r="65" customFormat="1" spans="3:33">
+      <c r="C65" s="3">
+        <v>2000003</v>
+      </c>
+      <c r="D65" s="3">
         <v>6</v>
       </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7">
-        <v>3</v>
-      </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="8">
-        <v>103</v>
-      </c>
-      <c r="T65" s="8"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
-      <c r="AG65" s="7"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="3:33">
-      <c r="C66" s="7">
-        <v>3000003</v>
-      </c>
-      <c r="D66" s="7">
-        <v>3</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="7">
-        <v>2</v>
-      </c>
-      <c r="K66" s="7">
-        <v>2</v>
-      </c>
-      <c r="L66" s="7">
-        <v>2</v>
-      </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7">
-        <v>2</v>
-      </c>
-      <c r="R66" s="7"/>
-      <c r="S66" s="8">
-        <v>1034</v>
-      </c>
-      <c r="T66" s="8">
-        <v>2</v>
-      </c>
-      <c r="U66" s="7">
-        <v>2</v>
-      </c>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="7"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="3:33">
-      <c r="C67" s="7">
-        <v>3000004</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7">
-        <v>1</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="7">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+    </row>
+    <row r="66" customFormat="1" spans="3:33">
+      <c r="C66" s="3">
+        <v>2000004</v>
+      </c>
+      <c r="D66" s="3">
         <v>6</v>
       </c>
-      <c r="K67" s="7">
-        <v>0</v>
-      </c>
-      <c r="L67" s="7">
-        <v>12</v>
-      </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="8">
-        <v>106</v>
-      </c>
-      <c r="T67" s="8"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7">
-        <v>108</v>
-      </c>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="3:33">
-      <c r="C68" s="7">
-        <v>3000005</v>
-      </c>
-      <c r="D68" s="7">
-        <v>3</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="7">
-        <v>2</v>
-      </c>
-      <c r="K68" s="7">
-        <v>2</v>
-      </c>
-      <c r="L68" s="7">
-        <v>3</v>
-      </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7">
-        <v>2</v>
-      </c>
-      <c r="R68" s="7">
-        <v>2</v>
-      </c>
-      <c r="S68" s="8">
-        <v>1018</v>
-      </c>
-      <c r="T68" s="8">
-        <v>1</v>
-      </c>
-      <c r="U68" s="7">
-        <v>2</v>
-      </c>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-    </row>
-    <row r="69" spans="3:22">
-      <c r="C69" s="7">
-        <v>3000006</v>
-      </c>
-      <c r="D69" s="7">
-        <v>3</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J69" s="3">
-        <v>3</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3">
-        <v>3</v>
-      </c>
-      <c r="R69" s="3">
-        <v>3</v>
-      </c>
-      <c r="S69" s="3">
-        <v>1007</v>
-      </c>
-      <c r="T69" s="3">
-        <v>2</v>
-      </c>
-      <c r="U69" s="3">
-        <v>3000006</v>
-      </c>
-      <c r="V69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="14" spans="3:33">
-      <c r="C70" s="7">
-        <v>3000007</v>
-      </c>
-      <c r="D70" s="7">
-        <v>3</v>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:33">
+      <c r="C67" s="3">
+        <v>2000005</v>
+      </c>
+      <c r="D67" s="3">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" customFormat="1" spans="3:33">
+      <c r="C68" s="3">
+        <v>2000006</v>
+      </c>
+      <c r="D68" s="3">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+    </row>
+    <row r="69" customFormat="1" spans="3:33">
+      <c r="C69" s="3">
+        <v>2000007</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+    </row>
+    <row r="70" customFormat="1" spans="3:33">
+      <c r="C70" s="3">
+        <v>2000008</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="3">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4931,31 +4870,23 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
     </row>
-    <row r="71" customFormat="1" ht="14" spans="3:33">
-      <c r="C71" s="7">
-        <v>3000008</v>
-      </c>
-      <c r="D71" s="7">
-        <v>3</v>
+    <row r="71" customFormat="1" spans="3:33">
+      <c r="C71" s="3">
+        <v>2000009</v>
+      </c>
+      <c r="D71" s="3">
+        <v>6</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="G71" s="3"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4978,42 +4909,30 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
     </row>
-    <row r="72" customFormat="1" ht="14" spans="3:33">
-      <c r="C72" s="7">
-        <v>3000009</v>
-      </c>
-      <c r="D72" s="7">
-        <v>3</v>
+    <row r="72" customFormat="1" spans="3:33">
+      <c r="C72" s="3">
+        <v>2000010</v>
+      </c>
+      <c r="D72" s="3">
+        <v>6</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="3">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
-        <v>8</v>
-      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3">
-        <v>4</v>
-      </c>
+      <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-      <c r="S72" s="3">
-        <v>109</v>
-      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -5029,48 +4948,32 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
     </row>
-    <row r="73" customFormat="1" ht="14" spans="3:33">
-      <c r="C73" s="7">
-        <v>3000010</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3</v>
+    <row r="73" customFormat="1" spans="3:33">
+      <c r="C73" s="3">
+        <v>2000011</v>
+      </c>
+      <c r="D73" s="3">
+        <v>6</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" s="4">
-        <v>1</v>
-      </c>
-      <c r="J73" s="3">
-        <v>2</v>
-      </c>
-      <c r="K73" s="3">
-        <v>2</v>
-      </c>
-      <c r="L73" s="3">
-        <v>2</v>
-      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
-      <c r="S73" s="3">
-        <v>1013</v>
-      </c>
-      <c r="T73" s="3">
-        <v>1</v>
-      </c>
-      <c r="U73" s="3">
-        <v>2</v>
-      </c>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -5084,293 +4987,341 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
     </row>
-    <row r="74" customFormat="1" ht="14" spans="3:33">
+    <row r="74" s="1" customFormat="1" spans="3:33">
       <c r="C74" s="7">
-        <v>3000011</v>
+        <v>3000001</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>2</v>
-      </c>
-      <c r="L74" s="3">
-        <v>2</v>
-      </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3">
-        <v>1015</v>
-      </c>
-      <c r="T74" s="3">
+      <c r="E74" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="7">
+        <v>2</v>
+      </c>
+      <c r="K74" s="7">
         <v>3</v>
       </c>
-      <c r="U74" s="3">
-        <v>1</v>
-      </c>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-    </row>
-    <row r="75" customFormat="1" ht="14" spans="3:33">
+      <c r="L74" s="7">
+        <v>4</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7">
+        <v>1</v>
+      </c>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="8">
+        <v>108</v>
+      </c>
+      <c r="T74" s="8"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="3:33">
       <c r="C75" s="7">
-        <v>3000012</v>
+        <v>3000002</v>
       </c>
       <c r="D75" s="7">
         <v>3</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="4">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>2</v>
-      </c>
-      <c r="L75" s="3">
-        <v>2</v>
-      </c>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3">
-        <v>1017</v>
-      </c>
-      <c r="T75" s="3">
-        <v>1</v>
-      </c>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-    </row>
-    <row r="76" customFormat="1" ht="14" spans="3:33">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="7">
+        <v>3</v>
+      </c>
+      <c r="K75" s="7">
+        <v>6</v>
+      </c>
+      <c r="L75" s="7">
+        <v>6</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7">
+        <v>3</v>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="8">
+        <v>103</v>
+      </c>
+      <c r="T75" s="8"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="3:33">
       <c r="C76" s="7">
-        <v>3000013</v>
+        <v>3000003</v>
       </c>
       <c r="D76" s="7">
         <v>3</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="3">
-        <v>1</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-    </row>
-    <row r="77" customFormat="1" spans="3:33">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="7">
+        <v>2</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2</v>
+      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7">
+        <v>2</v>
+      </c>
+      <c r="R76" s="7"/>
+      <c r="S76" s="8">
+        <v>1034</v>
+      </c>
+      <c r="T76" s="8">
+        <v>2</v>
+      </c>
+      <c r="U76" s="7">
+        <v>2</v>
+      </c>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="3:33">
       <c r="C77" s="7">
-        <v>3000014</v>
+        <v>3000004</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3">
-        <v>113</v>
-      </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-    </row>
-    <row r="78" customFormat="1" ht="14" spans="3:33">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="7">
+        <v>6</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <v>12</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="8">
+        <v>106</v>
+      </c>
+      <c r="T77" s="8"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7">
+        <v>108</v>
+      </c>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="3:33">
       <c r="C78" s="7">
-        <v>3000015</v>
+        <v>3000005</v>
       </c>
       <c r="D78" s="7">
         <v>3</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-    </row>
-    <row r="79" customFormat="1" ht="14" spans="3:33">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7">
+        <v>2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>2</v>
+      </c>
+      <c r="L78" s="7">
+        <v>3</v>
+      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7">
+        <v>2</v>
+      </c>
+      <c r="R78" s="7">
+        <v>2</v>
+      </c>
+      <c r="S78" s="8">
+        <v>1018</v>
+      </c>
+      <c r="T78" s="8">
+        <v>1</v>
+      </c>
+      <c r="U78" s="7">
+        <v>2</v>
+      </c>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+    </row>
+    <row r="79" spans="3:22">
       <c r="C79" s="7">
-        <v>3000016</v>
+        <v>3000006</v>
       </c>
       <c r="D79" s="7">
         <v>3</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
+      <c r="G79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
+        <v>3</v>
+      </c>
+      <c r="R79" s="3">
+        <v>3</v>
+      </c>
+      <c r="S79" s="3">
+        <v>1007</v>
+      </c>
+      <c r="T79" s="3">
+        <v>2</v>
+      </c>
+      <c r="U79" s="3">
+        <v>3000006</v>
+      </c>
+      <c r="V79" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="1" ht="14" spans="3:33">
       <c r="C80" s="7">
-        <v>3000017</v>
+        <v>3000007</v>
       </c>
       <c r="D80" s="7">
         <v>3</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -5395,19 +5346,29 @@
     </row>
     <row r="81" customFormat="1" ht="14" spans="3:33">
       <c r="C81" s="7">
-        <v>3000018</v>
+        <v>3000008</v>
       </c>
       <c r="D81" s="7">
         <v>3</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5432,26 +5393,40 @@
     </row>
     <row r="82" customFormat="1" ht="14" spans="3:33">
       <c r="C82" s="7">
-        <v>3000019</v>
+        <v>3000009</v>
       </c>
       <c r="D82" s="7">
         <v>3</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
+      <c r="G82" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="J82" s="3">
+        <v>4</v>
+      </c>
+      <c r="K82" s="3">
+        <v>8</v>
+      </c>
+      <c r="L82" s="3">
+        <v>8</v>
+      </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
+      <c r="O82" s="3">
+        <v>4</v>
+      </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
+      <c r="S82" s="3">
+        <v>109</v>
+      </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -5469,28 +5444,46 @@
     </row>
     <row r="83" customFormat="1" ht="14" spans="3:33">
       <c r="C83" s="7">
-        <v>3000020</v>
+        <v>3000010</v>
       </c>
       <c r="D83" s="7">
         <v>3</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="G83" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
+      <c r="S83" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1</v>
+      </c>
+      <c r="U83" s="3">
+        <v>2</v>
+      </c>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
@@ -5506,28 +5499,44 @@
     </row>
     <row r="84" customFormat="1" ht="14" spans="3:33">
       <c r="C84" s="7">
-        <v>3000021</v>
+        <v>3000011</v>
       </c>
       <c r="D84" s="7">
         <v>3</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>2</v>
+      </c>
+      <c r="L84" s="3">
+        <v>2</v>
+      </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+      <c r="S84" s="3">
+        <v>1015</v>
+      </c>
+      <c r="T84" s="3">
+        <v>3</v>
+      </c>
+      <c r="U84" s="3">
+        <v>1</v>
+      </c>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
@@ -5541,407 +5550,451 @@
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="3:33">
+    <row r="85" customFormat="1" ht="14" spans="3:33">
       <c r="C85" s="7">
-        <v>4000001</v>
+        <v>3000012</v>
       </c>
       <c r="D85" s="7">
-        <v>7</v>
-      </c>
-      <c r="E85" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2</v>
+      </c>
+      <c r="L85" s="3">
+        <v>2</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3">
+        <v>1017</v>
+      </c>
+      <c r="T85" s="3">
+        <v>1</v>
+      </c>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+    </row>
+    <row r="86" customFormat="1" ht="14" spans="3:33">
+      <c r="C86" s="7">
+        <v>3000013</v>
+      </c>
+      <c r="D86" s="7">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="3">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+    </row>
+    <row r="87" customFormat="1" spans="3:33">
+      <c r="C87" s="7">
+        <v>3000014</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="3">
+        <v>2</v>
+      </c>
+      <c r="K87" s="3">
+        <v>2</v>
+      </c>
+      <c r="L87" s="3">
+        <v>2</v>
+      </c>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3">
+        <v>113</v>
+      </c>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+    </row>
+    <row r="88" customFormat="1" spans="3:33">
+      <c r="C88" s="7">
+        <v>3000015</v>
+      </c>
+      <c r="D88" s="7">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="9" t="s">
+      <c r="H88" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="7">
-        <v>0</v>
-      </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="8">
-        <v>1012</v>
-      </c>
-      <c r="T85" s="8">
-        <v>6</v>
-      </c>
-      <c r="U85" s="7">
+      <c r="I88" s="4"/>
+      <c r="J88" s="3">
         <v>3</v>
       </c>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="8"/>
-      <c r="AD85" s="8"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
-      <c r="AG85" s="7"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="3:33">
-      <c r="C86" s="7">
-        <v>4000002</v>
-      </c>
-      <c r="D86" s="7">
-        <v>7</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="8"/>
-      <c r="AD86" s="8"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="3:33">
-      <c r="C87" s="7">
-        <v>4000003</v>
-      </c>
-      <c r="D87" s="7">
-        <v>7</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="8"/>
-      <c r="AD87" s="8"/>
-      <c r="AE87" s="7"/>
-      <c r="AF87" s="7"/>
-      <c r="AG87" s="7"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="3:33">
-      <c r="C88" s="7">
-        <v>4000004</v>
-      </c>
-      <c r="D88" s="7">
-        <v>7</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="8"/>
-      <c r="AD88" s="8"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="3:33">
+      <c r="K88" s="3">
+        <v>3</v>
+      </c>
+      <c r="L88" s="3">
+        <v>3</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3">
+        <v>106</v>
+      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+    </row>
+    <row r="89" customFormat="1" ht="14" spans="3:33">
       <c r="C89" s="7">
-        <v>4000005</v>
+        <v>3000016</v>
       </c>
       <c r="D89" s="7">
-        <v>7</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="8"/>
-      <c r="AD89" s="8"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="7"/>
-      <c r="AG89" s="7"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+    </row>
+    <row r="90" customFormat="1" ht="14" spans="3:33">
       <c r="C90" s="7">
-        <v>4000006</v>
+        <v>3000017</v>
       </c>
       <c r="D90" s="7">
-        <v>7</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="8"/>
-      <c r="AD90" s="8"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="7"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" customFormat="1" ht="14" spans="3:33">
       <c r="C91" s="7">
-        <v>4000007</v>
+        <v>3000018</v>
       </c>
       <c r="D91" s="7">
-        <v>7</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="8"/>
-      <c r="AD91" s="8"/>
-      <c r="AE91" s="7"/>
-      <c r="AF91" s="7"/>
-      <c r="AG91" s="7"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+    </row>
+    <row r="92" customFormat="1" ht="14" spans="3:33">
       <c r="C92" s="7">
-        <v>4000008</v>
+        <v>3000019</v>
       </c>
       <c r="D92" s="7">
-        <v>7</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="8"/>
-      <c r="AD92" s="8"/>
-      <c r="AE92" s="7"/>
-      <c r="AF92" s="7"/>
-      <c r="AG92" s="7"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+    </row>
+    <row r="93" customFormat="1" ht="14" spans="3:33">
       <c r="C93" s="7">
-        <v>4000009</v>
+        <v>3000020</v>
       </c>
       <c r="D93" s="7">
-        <v>7</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="8"/>
-      <c r="AD93" s="8"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="3:33">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+    </row>
+    <row r="94" customFormat="1" ht="14" spans="3:33">
       <c r="C94" s="7">
-        <v>4000010</v>
+        <v>3000021</v>
       </c>
       <c r="D94" s="7">
-        <v>7</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="8"/>
-      <c r="AD94" s="8"/>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="3:33">
       <c r="C95" s="7">
-        <v>4000011</v>
+        <v>4000001</v>
       </c>
       <c r="D95" s="7">
         <v>7</v>
       </c>
-      <c r="E95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
+      <c r="G95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I95" s="8"/>
-      <c r="J95" s="7"/>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -5950,9 +6003,15 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="7"/>
+      <c r="S95" s="8">
+        <v>1012</v>
+      </c>
+      <c r="T95" s="8">
+        <v>6</v>
+      </c>
+      <c r="U95" s="7">
+        <v>3</v>
+      </c>
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
@@ -5966,1662 +6025,2082 @@
       <c r="AF95" s="7"/>
       <c r="AG95" s="7"/>
     </row>
-    <row r="96" spans="3:21">
-      <c r="C96" s="3">
+    <row r="96" s="1" customFormat="1" spans="3:33">
+      <c r="C96" s="7">
+        <v>4000002</v>
+      </c>
+      <c r="D96" s="7">
+        <v>7</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="8"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="3:33">
+      <c r="C97" s="7">
+        <v>4000003</v>
+      </c>
+      <c r="D97" s="7">
+        <v>7</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="8"/>
+      <c r="AD97" s="8"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="3:33">
+      <c r="C98" s="7">
+        <v>4000004</v>
+      </c>
+      <c r="D98" s="7">
+        <v>7</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="8"/>
+      <c r="AD98" s="8"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="3:33">
+      <c r="C99" s="7">
+        <v>4000005</v>
+      </c>
+      <c r="D99" s="7">
+        <v>7</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+      <c r="AC99" s="8"/>
+      <c r="AD99" s="8"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="7"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="3:33">
+      <c r="C100" s="7">
+        <v>4000006</v>
+      </c>
+      <c r="D100" s="7">
+        <v>7</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="8"/>
+      <c r="AD100" s="8"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="3:33">
+      <c r="C101" s="7">
+        <v>4000007</v>
+      </c>
+      <c r="D101" s="7">
+        <v>7</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="8"/>
+      <c r="AD101" s="8"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="3:33">
+      <c r="C102" s="7">
+        <v>4000008</v>
+      </c>
+      <c r="D102" s="7">
+        <v>7</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="7"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="3:33">
+      <c r="C103" s="7">
+        <v>4000009</v>
+      </c>
+      <c r="D103" s="7">
+        <v>7</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="8"/>
+      <c r="AD103" s="8"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="3:33">
+      <c r="C104" s="7">
+        <v>4000010</v>
+      </c>
+      <c r="D104" s="7">
+        <v>7</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="8"/>
+      <c r="AD104" s="8"/>
+      <c r="AE104" s="7"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="3:33">
+      <c r="C105" s="7">
+        <v>4000011</v>
+      </c>
+      <c r="D105" s="7">
+        <v>7</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+      <c r="AC105" s="8"/>
+      <c r="AD105" s="8"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="7"/>
+      <c r="AG105" s="7"/>
+    </row>
+    <row r="106" spans="3:21">
+      <c r="C106" s="3">
         <v>5000001</v>
       </c>
-      <c r="D96" s="3">
-        <v>4</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H96" s="4" t="s">
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J96" s="3">
-        <v>2</v>
-      </c>
-      <c r="O96" s="3">
-        <v>2</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="G106" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2</v>
+      </c>
+      <c r="O106" s="3">
+        <v>2</v>
+      </c>
+      <c r="S106" s="3">
         <v>1024</v>
-      </c>
-      <c r="T96" s="3">
-        <v>6</v>
-      </c>
-      <c r="U96" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15">
-      <c r="C97" s="3">
-        <v>5000002</v>
-      </c>
-      <c r="D97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J97" s="3">
-        <v>3</v>
-      </c>
-      <c r="O97" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="3:20">
-      <c r="C98" s="3">
-        <v>5000003</v>
-      </c>
-      <c r="D98" s="3">
-        <v>4</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J98" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>3</v>
-      </c>
-      <c r="S98" s="3">
-        <v>1021</v>
-      </c>
-      <c r="T98" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="3:21">
-      <c r="C99" s="3">
-        <v>5000004</v>
-      </c>
-      <c r="D99" s="3">
-        <v>4</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J99" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>2</v>
-      </c>
-      <c r="S99" s="3">
-        <v>1034</v>
-      </c>
-      <c r="T99" s="3">
-        <v>6</v>
-      </c>
-      <c r="U99" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="3:23">
-      <c r="C100" s="3">
-        <v>5000005</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>6</v>
-      </c>
-      <c r="S100" s="3">
-        <v>1007</v>
-      </c>
-      <c r="T100" s="3">
-        <v>6</v>
-      </c>
-      <c r="U100" s="3">
-        <v>3000014</v>
-      </c>
-      <c r="V100" s="3">
-        <v>1</v>
-      </c>
-      <c r="W100" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26">
-      <c r="C101" s="3">
-        <v>5000006</v>
-      </c>
-      <c r="D101" s="3">
-        <v>4</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1035</v>
-      </c>
-      <c r="T101" s="3">
-        <v>6</v>
-      </c>
-      <c r="U101" s="3">
-        <v>6</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1012</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25">
-      <c r="C102" s="3">
-        <v>5000007</v>
-      </c>
-      <c r="D102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I102" s="4">
-        <v>2</v>
-      </c>
-      <c r="J102" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
-        <v>1035</v>
-      </c>
-      <c r="T102" s="3">
-        <v>6</v>
-      </c>
-      <c r="U102" s="3">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
-        <v>1020</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="3:21">
-      <c r="C103" s="3">
-        <v>5000008</v>
-      </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J103" s="3">
-        <v>2</v>
-      </c>
-      <c r="P103" s="3">
-        <v>2</v>
-      </c>
-      <c r="S103" s="3">
-        <v>1027</v>
-      </c>
-      <c r="T103" s="3">
-        <v>6</v>
-      </c>
-      <c r="U103" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="3:21">
-      <c r="C104" s="3">
-        <v>5000009</v>
-      </c>
-      <c r="D104" s="3">
-        <v>4</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J104" s="3">
-        <v>2</v>
-      </c>
-      <c r="P104" s="3">
-        <v>2</v>
-      </c>
-      <c r="S104" s="3">
-        <v>1036</v>
-      </c>
-      <c r="T104" s="3">
-        <v>6</v>
-      </c>
-      <c r="U104" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="3:22">
-      <c r="C105" s="3">
-        <v>5000010</v>
-      </c>
-      <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J105" s="3">
-        <v>1</v>
-      </c>
-      <c r="P105" s="3">
-        <v>2</v>
-      </c>
-      <c r="S105" s="3">
-        <v>1037</v>
-      </c>
-      <c r="T105" s="3">
-        <v>6</v>
-      </c>
-      <c r="U105" s="3">
-        <v>1</v>
-      </c>
-      <c r="V105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="26" spans="3:23">
-      <c r="C106" s="3">
-        <v>5000011</v>
-      </c>
-      <c r="D106" s="3">
-        <v>4</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J106" s="3">
-        <v>1</v>
-      </c>
-      <c r="P106" s="3">
-        <v>2</v>
-      </c>
-      <c r="S106" s="3">
-        <v>1028</v>
       </c>
       <c r="T106" s="3">
         <v>6</v>
       </c>
       <c r="U106" s="3">
-        <v>3000007</v>
-      </c>
-      <c r="V106" s="3">
-        <v>4</v>
-      </c>
-      <c r="W106" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" ht="26" spans="3:22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15">
       <c r="C107" s="3">
-        <v>5000012</v>
+        <v>5000002</v>
       </c>
       <c r="D107" s="3">
         <v>4</v>
       </c>
-      <c r="G107" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J107" s="3">
-        <v>1</v>
-      </c>
-      <c r="P107" s="3">
-        <v>2</v>
-      </c>
-      <c r="S107" s="3">
-        <v>1038</v>
-      </c>
-      <c r="T107" s="3">
+      <c r="O107" s="3">
         <v>6</v>
       </c>
-      <c r="U107" s="3">
-        <v>3000007</v>
-      </c>
-      <c r="V107" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" ht="39" spans="3:22">
+    </row>
+    <row r="108" spans="3:20">
       <c r="C108" s="3">
-        <v>5000013</v>
+        <v>5000003</v>
       </c>
       <c r="D108" s="3">
         <v>4</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="J108" s="3">
-        <v>1</v>
-      </c>
-      <c r="P108" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S108" s="3">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="T108" s="3">
         <v>6</v>
       </c>
-      <c r="U108" s="3">
-        <v>3000007</v>
-      </c>
-      <c r="V108" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" ht="26" spans="3:23">
+    </row>
+    <row r="109" spans="3:21">
       <c r="C109" s="3">
-        <v>5000014</v>
+        <v>5000004</v>
       </c>
       <c r="D109" s="3">
         <v>4</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="J109" s="3">
-        <v>1</v>
-      </c>
-      <c r="O109" s="3">
-        <v>2</v>
-      </c>
-      <c r="P109" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="T109" s="3">
         <v>6</v>
       </c>
       <c r="U109" s="3">
-        <v>3000007</v>
-      </c>
-      <c r="V109" s="3">
-        <v>1</v>
-      </c>
-      <c r="W109" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="3:21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="3:23">
       <c r="C110" s="3">
-        <v>5000015</v>
+        <v>5000005</v>
       </c>
       <c r="D110" s="3">
         <v>4</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="J110" s="3">
-        <v>2</v>
-      </c>
-      <c r="N110" s="3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>6</v>
       </c>
       <c r="S110" s="3">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="T110" s="3">
         <v>6</v>
       </c>
       <c r="U110" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="3:21">
+        <v>3000014</v>
+      </c>
+      <c r="V110" s="3">
+        <v>1</v>
+      </c>
+      <c r="W110" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="3:26">
       <c r="C111" s="3">
-        <v>5000016</v>
+        <v>5000006</v>
       </c>
       <c r="D111" s="3">
         <v>4</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J111" s="3">
-        <v>5</v>
-      </c>
-      <c r="N111" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>3</v>
       </c>
       <c r="S111" s="3">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="T111" s="3">
         <v>6</v>
       </c>
       <c r="U111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="3:18">
+        <v>6</v>
+      </c>
+      <c r="X111" s="3">
+        <v>1012</v>
+      </c>
+      <c r="Y111" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z111" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="3:25">
       <c r="C112" s="3">
-        <v>5000017</v>
+        <v>5000007</v>
       </c>
       <c r="D112" s="3">
         <v>4</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="I112" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J112" s="3">
-        <v>1</v>
-      </c>
-      <c r="R112" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="3:20">
+        <v>2</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>3</v>
+      </c>
+      <c r="S112" s="3">
+        <v>1035</v>
+      </c>
+      <c r="T112" s="3">
+        <v>6</v>
+      </c>
+      <c r="U112" s="3">
+        <v>5</v>
+      </c>
+      <c r="X112" s="3">
+        <v>1020</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="3:21">
       <c r="C113" s="3">
-        <v>5000018</v>
+        <v>5000008</v>
       </c>
       <c r="D113" s="3">
         <v>4</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I113" s="4">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="J113" s="3">
-        <v>3</v>
-      </c>
-      <c r="R113" s="3">
+        <v>2</v>
+      </c>
+      <c r="P113" s="3">
         <v>2</v>
       </c>
       <c r="S113" s="3">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="T113" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="3:18">
+      <c r="U113" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="3:21">
       <c r="C114" s="3">
-        <v>5000019</v>
+        <v>5000009</v>
       </c>
       <c r="D114" s="3">
         <v>4</v>
       </c>
-      <c r="G114" s="10" t="s">
-        <v>181</v>
+      <c r="G114" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J114" s="3">
         <v>2</v>
       </c>
-      <c r="R114" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="3:21">
+      <c r="P114" s="3">
+        <v>2</v>
+      </c>
+      <c r="S114" s="3">
+        <v>1036</v>
+      </c>
+      <c r="T114" s="3">
+        <v>6</v>
+      </c>
+      <c r="U114" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="3:22">
       <c r="C115" s="3">
-        <v>5000020</v>
+        <v>5000010</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="J115" s="3">
-        <v>2</v>
-      </c>
-      <c r="R115" s="3">
-        <v>2</v>
-      </c>
-      <c r="S115" s="8">
-        <v>1012</v>
-      </c>
-      <c r="T115" s="8">
+        <v>1</v>
+      </c>
+      <c r="P115" s="3">
+        <v>2</v>
+      </c>
+      <c r="S115" s="3">
+        <v>1037</v>
+      </c>
+      <c r="T115" s="3">
         <v>6</v>
       </c>
-      <c r="U115" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="3:20">
+      <c r="U115" s="3">
+        <v>1</v>
+      </c>
+      <c r="V115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="26" spans="3:23">
       <c r="C116" s="3">
-        <v>5000021</v>
+        <v>5000011</v>
       </c>
       <c r="D116" s="3">
         <v>4</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J116" s="3">
-        <v>0</v>
-      </c>
-      <c r="R116" s="3">
+        <v>1</v>
+      </c>
+      <c r="P116" s="3">
         <v>2</v>
       </c>
       <c r="S116" s="3">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="T116" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="3:4">
+      <c r="U116" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V116" s="3">
+        <v>4</v>
+      </c>
+      <c r="W116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="26" spans="3:22">
       <c r="C117" s="3">
-        <v>5000022</v>
+        <v>5000012</v>
       </c>
       <c r="D117" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="3:13">
+      <c r="G117" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="P117" s="3">
+        <v>2</v>
+      </c>
+      <c r="S117" s="3">
+        <v>1038</v>
+      </c>
+      <c r="T117" s="3">
+        <v>6</v>
+      </c>
+      <c r="U117" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" ht="39" spans="3:22">
       <c r="C118" s="3">
-        <v>5000023</v>
+        <v>5000013</v>
       </c>
       <c r="D118" s="3">
         <v>4</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>187</v>
+      <c r="G118" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J118" s="3">
-        <v>3</v>
-      </c>
-      <c r="M118" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" ht="26" spans="3:24">
+        <v>1</v>
+      </c>
+      <c r="P118" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>2</v>
+      </c>
+      <c r="S118" s="3">
+        <v>1039</v>
+      </c>
+      <c r="T118" s="3">
+        <v>6</v>
+      </c>
+      <c r="U118" s="3">
+        <v>3000007</v>
+      </c>
+      <c r="V118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="26" spans="3:23">
       <c r="C119" s="3">
-        <v>5000024</v>
+        <v>5000014</v>
       </c>
       <c r="D119" s="3">
         <v>4</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I119" s="4">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="J119" s="3">
-        <v>2</v>
-      </c>
-      <c r="M119" s="3">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3">
+        <v>2</v>
+      </c>
+      <c r="P119" s="3">
         <v>2</v>
       </c>
       <c r="S119" s="3">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="T119" s="3">
         <v>6</v>
       </c>
       <c r="U119" s="3">
-        <v>1</v>
-      </c>
-      <c r="X119" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" ht="26" spans="3:20">
+        <v>3000007</v>
+      </c>
+      <c r="V119" s="3">
+        <v>1</v>
+      </c>
+      <c r="W119" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="3:21">
       <c r="C120" s="3">
-        <v>5000025</v>
+        <v>5000015</v>
       </c>
       <c r="D120" s="3">
         <v>4</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1</v>
       </c>
       <c r="J120" s="3">
-        <v>10</v>
-      </c>
-      <c r="M120" s="3">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="N120" s="3">
+        <v>2</v>
       </c>
       <c r="S120" s="3">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="T120" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" ht="26" spans="3:13">
+      <c r="U120" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="3:21">
       <c r="C121" s="3">
-        <v>5000026</v>
+        <v>5000016</v>
       </c>
       <c r="D121" s="3">
         <v>4</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>193</v>
+      <c r="G121" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J121" s="3">
-        <v>4</v>
-      </c>
-      <c r="M121" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" ht="26" spans="3:13">
+        <v>5</v>
+      </c>
+      <c r="N121" s="3">
+        <v>5</v>
+      </c>
+      <c r="S121" s="3">
+        <v>1025</v>
+      </c>
+      <c r="T121" s="3">
+        <v>6</v>
+      </c>
+      <c r="U121" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="3:18">
       <c r="C122" s="3">
-        <v>5000027</v>
+        <v>5000017</v>
       </c>
       <c r="D122" s="3">
         <v>4</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>195</v>
+      <c r="G122" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
+      </c>
+      <c r="I122" s="4">
+        <v>4</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
-      <c r="M122" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="3:13">
+      <c r="R122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:20">
       <c r="C123" s="3">
-        <v>5000028</v>
+        <v>5000018</v>
       </c>
       <c r="D123" s="3">
         <v>4</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>197</v>
+      <c r="G123" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
+      </c>
+      <c r="I123" s="4">
+        <v>2</v>
       </c>
       <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="M123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:13">
+        <v>3</v>
+      </c>
+      <c r="R123" s="3">
+        <v>2</v>
+      </c>
+      <c r="S123" s="3">
+        <v>1020</v>
+      </c>
+      <c r="T123" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="3:18">
       <c r="C124" s="3">
-        <v>5000029</v>
+        <v>5000019</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>199</v>
+      <c r="G124" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="J124" s="3">
+        <v>2</v>
+      </c>
+      <c r="R124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:21">
+      <c r="C125" s="3">
+        <v>5000020</v>
+      </c>
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J125" s="3">
+        <v>2</v>
+      </c>
+      <c r="R125" s="3">
+        <v>2</v>
+      </c>
+      <c r="S125" s="8">
+        <v>1012</v>
+      </c>
+      <c r="T125" s="8">
+        <v>6</v>
+      </c>
+      <c r="U125" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:20">
+      <c r="C126" s="3">
+        <v>5000021</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J126" s="3">
         <v>0</v>
       </c>
-      <c r="M124" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="3:18">
-      <c r="C125" s="3">
-        <v>5000030</v>
-      </c>
-      <c r="D125" s="3">
-        <v>4</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J125" s="3">
-        <v>2</v>
-      </c>
-      <c r="M125" s="3">
-        <v>2</v>
-      </c>
-      <c r="R125" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" ht="26" spans="3:18">
-      <c r="C126" s="3">
-        <v>5000031</v>
-      </c>
-      <c r="D126" s="3">
-        <v>4</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J126" s="3">
-        <v>2</v>
-      </c>
-      <c r="M126" s="3">
+      <c r="R126" s="3">
+        <v>2</v>
+      </c>
+      <c r="S126" s="3">
+        <v>1030</v>
+      </c>
+      <c r="T126" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="3">
+        <v>5000022</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13">
+      <c r="C128" s="3">
+        <v>5000023</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I128" s="4">
         <v>3</v>
       </c>
-      <c r="R126" s="3">
+      <c r="J128" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="3:21">
-      <c r="C127" s="3">
-        <v>5000032</v>
-      </c>
-      <c r="D127" s="3">
-        <v>4</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J127" s="3">
-        <v>0</v>
-      </c>
-      <c r="M127" s="3">
-        <v>2</v>
-      </c>
-      <c r="O127" s="3">
-        <v>2</v>
-      </c>
-      <c r="S127" s="3">
-        <v>1019</v>
-      </c>
-      <c r="T127" s="3">
-        <v>6</v>
-      </c>
-      <c r="U127" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" ht="26" spans="3:17">
-      <c r="C128" s="3">
-        <v>5000033</v>
-      </c>
-      <c r="D128" s="3">
-        <v>4</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J128" s="3">
-        <v>2</v>
-      </c>
       <c r="M128" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q128" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="3:26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" ht="26" spans="3:24">
       <c r="C129" s="3">
-        <v>5000034</v>
+        <v>5000024</v>
       </c>
       <c r="D129" s="3">
         <v>4</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="I129" s="4">
+        <v>3</v>
       </c>
       <c r="J129" s="3">
         <v>2</v>
       </c>
-      <c r="O129" s="3">
-        <v>2</v>
-      </c>
-      <c r="R129" s="3">
+      <c r="M129" s="3">
         <v>2</v>
       </c>
       <c r="S129" s="3">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="T129" s="3">
         <v>6</v>
       </c>
       <c r="U129" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X129" s="3">
-        <v>1012</v>
-      </c>
-      <c r="Y129" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z129" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="3:22">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" ht="26" spans="3:20">
       <c r="C130" s="3">
-        <v>5000035</v>
+        <v>5000025</v>
       </c>
       <c r="D130" s="3">
         <v>4</v>
       </c>
-      <c r="G130" s="13" t="s">
-        <v>211</v>
+      <c r="G130" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J130" s="3">
-        <v>2</v>
-      </c>
-      <c r="O130" s="3">
-        <v>2</v>
-      </c>
-      <c r="R130" s="3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="M130" s="3">
+        <v>12</v>
       </c>
       <c r="S130" s="3">
-        <v>1007</v>
+        <v>1032</v>
       </c>
       <c r="T130" s="3">
         <v>6</v>
       </c>
-      <c r="U130" s="3">
-        <v>90001</v>
-      </c>
-      <c r="V130" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" ht="26" spans="3:18">
+    </row>
+    <row r="131" ht="26" spans="3:13">
       <c r="C131" s="3">
-        <v>5000036</v>
+        <v>5000026</v>
       </c>
       <c r="D131" s="3">
         <v>4</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J131" s="3">
-        <v>8</v>
-      </c>
-      <c r="O131" s="3">
-        <v>2</v>
-      </c>
-      <c r="R131" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" ht="26" spans="3:17">
+        <v>4</v>
+      </c>
+      <c r="M131" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" ht="26" spans="3:13">
       <c r="C132" s="3">
-        <v>5000037</v>
+        <v>5000027</v>
       </c>
       <c r="D132" s="3">
         <v>4</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J132" s="3">
-        <v>2</v>
-      </c>
-      <c r="O132" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q132" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" ht="26" spans="3:15">
+        <v>1</v>
+      </c>
+      <c r="M132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13">
       <c r="C133" s="3">
-        <v>5000038</v>
+        <v>5000028</v>
       </c>
       <c r="D133" s="3">
         <v>4</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J133" s="3">
-        <v>6</v>
-      </c>
-      <c r="N133" s="3">
-        <v>5</v>
-      </c>
-      <c r="O133" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" ht="26" spans="3:18">
+        <v>2</v>
+      </c>
+      <c r="M133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13">
       <c r="C134" s="3">
-        <v>5000039</v>
+        <v>5000029</v>
       </c>
       <c r="D134" s="3">
         <v>4</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="J134" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q134" s="3">
-        <v>2</v>
-      </c>
-      <c r="R134" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" ht="26" spans="3:18">
+        <v>0</v>
+      </c>
+      <c r="M134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:18">
       <c r="C135" s="3">
-        <v>5000040</v>
+        <v>5000030</v>
       </c>
       <c r="D135" s="3">
         <v>4</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="J135" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q135" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M135" s="3">
+        <v>2</v>
       </c>
       <c r="R135" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="3:21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" ht="26" spans="3:18">
       <c r="C136" s="3">
-        <v>5000041</v>
+        <v>5000031</v>
       </c>
       <c r="D136" s="3">
         <v>4</v>
       </c>
-      <c r="G136" s="10" t="s">
-        <v>223</v>
+      <c r="G136" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J136" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="3">
+        <v>2</v>
+      </c>
+      <c r="M136" s="3">
         <v>3</v>
       </c>
       <c r="R136" s="3">
         <v>3</v>
       </c>
-      <c r="S136" s="3">
-        <v>1018</v>
-      </c>
-      <c r="T136" s="3">
+    </row>
+    <row r="137" spans="3:21">
+      <c r="C137" s="3">
+        <v>5000032</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <v>2</v>
+      </c>
+      <c r="O137" s="3">
+        <v>2</v>
+      </c>
+      <c r="S137" s="3">
+        <v>1019</v>
+      </c>
+      <c r="T137" s="3">
         <v>6</v>
       </c>
-      <c r="U136" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" ht="26" spans="3:18">
-      <c r="C137" s="3">
-        <v>5000042</v>
-      </c>
-      <c r="D137" s="3">
-        <v>4</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J137" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q137" s="3">
-        <v>2</v>
-      </c>
-      <c r="R137" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" ht="26" spans="3:21">
+      <c r="U137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="26" spans="3:17">
       <c r="C138" s="3">
-        <v>5000043</v>
+        <v>5000033</v>
       </c>
       <c r="D138" s="3">
         <v>4</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="J138" s="3">
         <v>2</v>
       </c>
+      <c r="M138" s="3">
+        <v>2</v>
+      </c>
       <c r="Q138" s="3">
         <v>2</v>
       </c>
-      <c r="R138" s="3">
-        <v>2</v>
-      </c>
-      <c r="S138" s="3">
-        <v>1044</v>
-      </c>
-      <c r="T138" s="3">
+    </row>
+    <row r="139" spans="3:26">
+      <c r="C139" s="3">
+        <v>5000034</v>
+      </c>
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2</v>
+      </c>
+      <c r="O139" s="3">
+        <v>2</v>
+      </c>
+      <c r="R139" s="3">
+        <v>2</v>
+      </c>
+      <c r="S139" s="3">
+        <v>1024</v>
+      </c>
+      <c r="T139" s="3">
         <v>6</v>
       </c>
-      <c r="U138" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="3:17">
-      <c r="C139" s="3">
-        <v>5000044</v>
-      </c>
-      <c r="D139" s="3">
-        <v>4</v>
-      </c>
-      <c r="J139" s="3">
-        <v>2</v>
-      </c>
-      <c r="P139" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q139" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="3:24">
+      <c r="U139" s="3">
+        <v>6</v>
+      </c>
+      <c r="X139" s="3">
+        <v>1012</v>
+      </c>
+      <c r="Y139" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:22">
       <c r="C140" s="3">
-        <v>5000045</v>
+        <v>5000035</v>
       </c>
       <c r="D140" s="3">
         <v>4</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J140" s="3">
         <v>2</v>
       </c>
-      <c r="P140" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q140" s="3">
+      <c r="O140" s="3">
+        <v>2</v>
+      </c>
+      <c r="R140" s="3">
         <v>2</v>
       </c>
       <c r="S140" s="3">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="T140" s="3">
         <v>6</v>
       </c>
       <c r="U140" s="3">
-        <v>4</v>
-      </c>
-      <c r="X140" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="141" ht="39" spans="3:17">
+        <v>90001</v>
+      </c>
+      <c r="V140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="26" spans="3:27">
       <c r="C141" s="3">
-        <v>5000046</v>
+        <v>5000036</v>
       </c>
       <c r="D141" s="3">
         <v>4</v>
       </c>
-      <c r="G141" s="3" t="s">
-        <v>231</v>
+      <c r="G141" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J141" s="3">
-        <v>3</v>
-      </c>
-      <c r="N141" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q141" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="3:24">
+        <v>8</v>
+      </c>
+      <c r="O141" s="3">
+        <v>2</v>
+      </c>
+      <c r="R141" s="3">
+        <v>2</v>
+      </c>
+      <c r="S141" s="3">
+        <v>1016</v>
+      </c>
+      <c r="T141" s="3">
+        <v>6</v>
+      </c>
+      <c r="U141" s="3">
+        <v>9</v>
+      </c>
+      <c r="X141" s="3">
+        <v>1052</v>
+      </c>
+      <c r="Y141" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z141" s="3">
+        <v>90001</v>
+      </c>
+      <c r="AA141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" ht="26" spans="3:22">
       <c r="C142" s="3">
-        <v>5000047</v>
+        <v>5000037</v>
       </c>
       <c r="D142" s="3">
         <v>4</v>
       </c>
-      <c r="G142" s="10" t="s">
-        <v>233</v>
+      <c r="G142" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J142" s="3">
         <v>2</v>
       </c>
-      <c r="N142" s="3">
-        <v>2</v>
-      </c>
-      <c r="P142" s="3">
-        <v>2</v>
+      <c r="O142" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>8</v>
       </c>
       <c r="S142" s="3">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="T142" s="3">
         <v>6</v>
       </c>
       <c r="U142" s="3">
-        <v>4</v>
-      </c>
-      <c r="X142" s="3">
+        <v>3000015</v>
+      </c>
+      <c r="V142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" ht="26" spans="3:15">
+      <c r="C143" s="3">
+        <v>5000038</v>
+      </c>
+      <c r="D143" s="3">
+        <v>4</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J143" s="3">
+        <v>6</v>
+      </c>
+      <c r="N143" s="3">
+        <v>5</v>
+      </c>
+      <c r="O143" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" ht="26" spans="3:18">
+      <c r="C144" s="3">
+        <v>5000039</v>
+      </c>
+      <c r="D144" s="3">
+        <v>4</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J144" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>2</v>
+      </c>
+      <c r="R144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" ht="26" spans="3:18">
+      <c r="C145" s="3">
+        <v>5000040</v>
+      </c>
+      <c r="D145" s="3">
+        <v>4</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J145" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>4</v>
+      </c>
+      <c r="R145" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="3:21">
+      <c r="C146" s="3">
+        <v>5000041</v>
+      </c>
+      <c r="D146" s="3">
+        <v>4</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J146" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>3</v>
+      </c>
+      <c r="R146" s="3">
+        <v>3</v>
+      </c>
+      <c r="S146" s="3">
+        <v>1018</v>
+      </c>
+      <c r="T146" s="3">
+        <v>6</v>
+      </c>
+      <c r="U146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" ht="26" spans="3:18">
+      <c r="C147" s="3">
+        <v>5000042</v>
+      </c>
+      <c r="D147" s="3">
+        <v>4</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J147" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>2</v>
+      </c>
+      <c r="R147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" ht="26" spans="3:21">
+      <c r="C148" s="3">
+        <v>5000043</v>
+      </c>
+      <c r="D148" s="3">
+        <v>4</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J148" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>2</v>
+      </c>
+      <c r="R148" s="3">
+        <v>2</v>
+      </c>
+      <c r="S148" s="3">
+        <v>1044</v>
+      </c>
+      <c r="T148" s="3">
+        <v>6</v>
+      </c>
+      <c r="U148" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="3:17">
+      <c r="C149" s="3">
+        <v>5000044</v>
+      </c>
+      <c r="D149" s="3">
+        <v>4</v>
+      </c>
+      <c r="J149" s="3">
+        <v>2</v>
+      </c>
+      <c r="P149" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="3:24">
+      <c r="C150" s="3">
+        <v>5000045</v>
+      </c>
+      <c r="D150" s="3">
+        <v>4</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J150" s="3">
+        <v>2</v>
+      </c>
+      <c r="P150" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>2</v>
+      </c>
+      <c r="S150" s="3">
+        <v>1045</v>
+      </c>
+      <c r="T150" s="3">
+        <v>6</v>
+      </c>
+      <c r="U150" s="3">
+        <v>4</v>
+      </c>
+      <c r="X150" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" ht="39" spans="3:17">
+      <c r="C151" s="3">
+        <v>5000046</v>
+      </c>
+      <c r="D151" s="3">
+        <v>4</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J151" s="3">
+        <v>3</v>
+      </c>
+      <c r="N151" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="3:24">
+      <c r="C152" s="3">
+        <v>5000047</v>
+      </c>
+      <c r="D152" s="3">
+        <v>4</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J152" s="3">
+        <v>2</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2</v>
+      </c>
+      <c r="P152" s="3">
+        <v>2</v>
+      </c>
+      <c r="S152" s="3">
+        <v>1013</v>
+      </c>
+      <c r="T152" s="3">
+        <v>6</v>
+      </c>
+      <c r="U152" s="3">
+        <v>4</v>
+      </c>
+      <c r="X152" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="143" ht="39" spans="3:16">
-      <c r="C143" s="3">
+    <row r="153" ht="39" spans="3:16">
+      <c r="C153" s="3">
         <v>5000048</v>
       </c>
-      <c r="D143" s="3">
-        <v>4</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="D153" s="3">
+        <v>4</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H153" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="J153" s="3">
+        <v>2</v>
+      </c>
+      <c r="M153" s="3">
+        <v>2</v>
+      </c>
+      <c r="P153" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13">
+      <c r="C154" s="3">
+        <v>5000049</v>
+      </c>
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J143" s="3">
-        <v>2</v>
-      </c>
-      <c r="M143" s="3">
-        <v>2</v>
-      </c>
-      <c r="P143" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="3:13">
-      <c r="C144" s="3">
-        <v>5000049</v>
-      </c>
-      <c r="D144" s="3">
-        <v>4</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="M154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13">
+      <c r="C155" s="3">
+        <v>5000050</v>
+      </c>
+      <c r="D155" s="3">
+        <v>4</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M144" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="3:13">
-      <c r="C145" s="3">
-        <v>5000050</v>
-      </c>
-      <c r="D145" s="3">
-        <v>4</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="M155" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:13">
+      <c r="C156" s="3">
+        <v>5000051</v>
+      </c>
+      <c r="D156" s="3">
+        <v>4</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M145" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="3:13">
-      <c r="C146" s="3">
-        <v>5000051</v>
-      </c>
-      <c r="D146" s="3">
-        <v>4</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="M156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="3:13">
+      <c r="C157" s="3">
+        <v>5000052</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M146" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="3:13">
-      <c r="C147" s="3">
-        <v>5000052</v>
-      </c>
-      <c r="D147" s="3">
-        <v>4</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="M157" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="3:13">
+      <c r="C158" s="3">
+        <v>5000053</v>
+      </c>
+      <c r="D158" s="3">
+        <v>4</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M147" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="3:13">
-      <c r="C148" s="3">
-        <v>5000053</v>
-      </c>
-      <c r="D148" s="3">
-        <v>4</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="M158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="3:13">
+      <c r="C159" s="3">
+        <v>5000054</v>
+      </c>
+      <c r="D159" s="3">
+        <v>4</v>
+      </c>
+      <c r="M159" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="3:13">
+      <c r="C160" s="3">
+        <v>5000055</v>
+      </c>
+      <c r="D160" s="3">
+        <v>4</v>
+      </c>
+      <c r="M160" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="3:13">
+      <c r="C161" s="3">
+        <v>5000056</v>
+      </c>
+      <c r="D161" s="3">
+        <v>4</v>
+      </c>
+      <c r="M161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" ht="39" spans="3:8">
+      <c r="C162" s="3">
+        <v>5000057</v>
+      </c>
+      <c r="D162" s="3">
+        <v>4</v>
+      </c>
+      <c r="H162" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M148" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="3:13">
-      <c r="C149" s="3">
-        <v>5000054</v>
-      </c>
-      <c r="D149" s="3">
-        <v>4</v>
-      </c>
-      <c r="M149" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="3:13">
-      <c r="C150" s="3">
-        <v>5000055</v>
-      </c>
-      <c r="D150" s="3">
-        <v>4</v>
-      </c>
-      <c r="M150" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="3:13">
-      <c r="C151" s="3">
-        <v>5000056</v>
-      </c>
-      <c r="D151" s="3">
-        <v>4</v>
-      </c>
-      <c r="M151" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" ht="39" spans="3:8">
-      <c r="C152" s="3">
-        <v>5000057</v>
-      </c>
-      <c r="D152" s="3">
-        <v>4</v>
-      </c>
-      <c r="H152" s="4" t="s">
+    </row>
+    <row r="163" ht="26" spans="3:8">
+      <c r="C163" s="3">
+        <v>5000058</v>
+      </c>
+      <c r="D163" s="3">
+        <v>4</v>
+      </c>
+      <c r="H163" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="153" ht="26" spans="3:8">
-      <c r="C153" s="3">
-        <v>5000058</v>
-      </c>
-      <c r="D153" s="3">
-        <v>4</v>
-      </c>
-      <c r="H153" s="4" t="s">
+    <row r="164" ht="26" spans="3:22">
+      <c r="C164" s="3">
+        <v>5000059</v>
+      </c>
+      <c r="D164" s="3">
+        <v>4</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="154" ht="26" spans="3:22">
-      <c r="C154" s="3">
-        <v>5000059</v>
-      </c>
-      <c r="D154" s="3">
-        <v>4</v>
-      </c>
-      <c r="G154" s="10" t="s">
+      <c r="H164" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H154" s="4" t="s">
+      <c r="J164" s="3">
+        <v>2</v>
+      </c>
+      <c r="O164" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="3">
+        <v>3</v>
+      </c>
+      <c r="S164" s="3">
+        <v>1014</v>
+      </c>
+      <c r="T164" s="3">
+        <v>6</v>
+      </c>
+      <c r="U164" s="3">
+        <v>1</v>
+      </c>
+      <c r="V164" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="3:21">
+      <c r="C165" s="3">
+        <v>5000060</v>
+      </c>
+      <c r="D165" s="3">
+        <v>4</v>
+      </c>
+      <c r="G165" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J154" s="3">
-        <v>2</v>
-      </c>
-      <c r="O154" s="3">
+      <c r="H165" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J165" s="3">
         <v>3</v>
       </c>
-      <c r="Q154" s="3">
-        <v>3</v>
-      </c>
-      <c r="S154" s="3">
-        <v>1014</v>
-      </c>
-      <c r="T154" s="3">
+      <c r="S165" s="3">
+        <v>1016</v>
+      </c>
+      <c r="T165" s="3">
         <v>6</v>
       </c>
-      <c r="U154" s="3">
-        <v>1</v>
-      </c>
-      <c r="V154" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="3:21">
-      <c r="C155" s="3">
-        <v>5000060</v>
-      </c>
-      <c r="D155" s="3">
-        <v>4</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H155" s="4" t="s">
+      <c r="U165" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8">
+      <c r="C166" s="3">
+        <v>5000061</v>
+      </c>
+      <c r="D166" s="3">
+        <v>4</v>
+      </c>
+      <c r="H166" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J155" s="3">
-        <v>3</v>
-      </c>
-      <c r="S155" s="3">
-        <v>1016</v>
-      </c>
-      <c r="T155" s="3">
+    </row>
+    <row r="167" spans="3:22">
+      <c r="C167" s="3">
+        <v>5000062</v>
+      </c>
+      <c r="D167" s="3">
+        <v>4</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S167" s="3">
+        <v>1023</v>
+      </c>
+      <c r="T167" s="3">
         <v>6</v>
       </c>
-      <c r="U155" s="3">
+      <c r="U167" s="3">
+        <v>5</v>
+      </c>
+      <c r="V167" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="3:8">
-      <c r="C156" s="3">
-        <v>5000061</v>
-      </c>
-      <c r="D156" s="3">
-        <v>4</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="157" spans="3:22">
-      <c r="C157" s="3">
-        <v>5000062</v>
-      </c>
-      <c r="D157" s="3">
-        <v>4</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="H157" s="4" t="s">
+    <row r="168" spans="3:22">
+      <c r="C168" s="3">
+        <v>5000063</v>
+      </c>
+      <c r="D168" s="3">
+        <v>4</v>
+      </c>
+      <c r="G168" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="S157" s="3">
-        <v>1023</v>
-      </c>
-      <c r="T157" s="3">
+      <c r="H168" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>2</v>
+      </c>
+      <c r="S168" s="3">
+        <v>1022</v>
+      </c>
+      <c r="T168" s="3">
         <v>6</v>
       </c>
-      <c r="U157" s="3">
-        <v>5</v>
-      </c>
-      <c r="V157" s="3">
+      <c r="U168" s="3">
+        <v>1</v>
+      </c>
+      <c r="V168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="3:22">
+      <c r="C169" s="3">
+        <v>5000064</v>
+      </c>
+      <c r="D169" s="3">
+        <v>4</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q169" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:22">
-      <c r="C158" s="3">
-        <v>5000063</v>
-      </c>
-      <c r="D158" s="3">
-        <v>4</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q158" s="3">
-        <v>2</v>
-      </c>
-      <c r="S158" s="3">
+      <c r="S169" s="3">
         <v>1022</v>
       </c>
-      <c r="T158" s="3">
+      <c r="T169" s="3">
         <v>6</v>
       </c>
-      <c r="U158" s="3">
-        <v>1</v>
-      </c>
-      <c r="V158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="3:22">
-      <c r="C159" s="3">
-        <v>5000064</v>
-      </c>
-      <c r="D159" s="3">
-        <v>4</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H159" s="3" t="s">
+      <c r="U169" s="3">
+        <v>2</v>
+      </c>
+      <c r="V169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="3:21">
+      <c r="C170" s="3">
+        <v>5000065</v>
+      </c>
+      <c r="D170" s="3">
+        <v>4</v>
+      </c>
+      <c r="G170" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="Q159" s="3">
+      <c r="H170" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I170" s="4">
+        <v>2</v>
+      </c>
+      <c r="S170" s="3">
+        <v>1025</v>
+      </c>
+      <c r="T170" s="3">
         <v>6</v>
       </c>
-      <c r="S159" s="3">
-        <v>1022</v>
-      </c>
-      <c r="T159" s="3">
+      <c r="U170" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="3:20">
+      <c r="C171" s="3">
+        <v>5000066</v>
+      </c>
+      <c r="D171" s="3">
+        <v>4</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I171" s="4">
+        <v>2</v>
+      </c>
+      <c r="S171" s="3">
+        <v>1026</v>
+      </c>
+      <c r="T171" s="3">
         <v>6</v>
       </c>
-      <c r="U159" s="3">
-        <v>2</v>
-      </c>
-      <c r="V159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="3:21">
-      <c r="C160" s="3">
-        <v>5000065</v>
-      </c>
-      <c r="D160" s="3">
-        <v>4</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I160" s="4">
-        <v>2</v>
-      </c>
-      <c r="S160" s="3">
-        <v>1025</v>
-      </c>
-      <c r="T160" s="3">
+    </row>
+    <row r="172" ht="26" spans="3:20">
+      <c r="C172" s="3">
+        <v>5000067</v>
+      </c>
+      <c r="D172" s="3">
+        <v>4</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S172" s="3">
+        <v>1047</v>
+      </c>
+      <c r="T172" s="3">
         <v>6</v>
       </c>
-      <c r="U160" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="161" spans="3:20">
-      <c r="C161" s="3">
-        <v>5000066</v>
-      </c>
-      <c r="D161" s="3">
-        <v>4</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I161" s="4">
-        <v>2</v>
-      </c>
-      <c r="S161" s="3">
-        <v>1026</v>
-      </c>
-      <c r="T161" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" ht="26" spans="3:8">
-      <c r="C162" s="3">
-        <v>5000067</v>
-      </c>
-      <c r="D162" s="3">
-        <v>4</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>259</v>
+    </row>
+    <row r="173" ht="26" spans="8:8">
+      <c r="H173" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" ht="26" spans="8:8">
+      <c r="H174" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
